--- a/data/horarios/all.processed.xlsx
+++ b/data/horarios/all.processed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-estandarizador\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D20BE4A-7BE7-431D-8BDE-4226F87BF4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80B6409-53BA-4F3F-9334-522ADABB3F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2744" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="1109">
   <si>
     <t>ciclo</t>
   </si>
@@ -3339,6 +3339,27 @@
   </si>
   <si>
     <t>DIRECCION DE TESIS II</t>
+  </si>
+  <si>
+    <t>C3P21331</t>
+  </si>
+  <si>
+    <t>C3S2A331</t>
+  </si>
+  <si>
+    <t>otro_plan_de_estudios</t>
+  </si>
+  <si>
+    <t>C3P21332</t>
+  </si>
+  <si>
+    <t>C3S2A332</t>
+  </si>
+  <si>
+    <t>C3P21333</t>
+  </si>
+  <si>
+    <t>C3S2A333</t>
   </si>
 </sst>
 </file>
@@ -3404,7 +3425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3424,6 +3445,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3497,13 +3523,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}" name="Table1" displayName="Table1" ref="A1:Q248" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="A1:Q248" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:Q248">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}" name="Table1" displayName="Table1" ref="A1:R256" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="A1:R256" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="AT"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="SEMINARIO DE INVESTIGACIONES DE AUDITORIA TRIBUTARIA SECTORIAL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:R248">
     <sortCondition ref="G2:G248"/>
     <sortCondition ref="C2:C248"/>
   </sortState>
-  <tableColumns count="17">
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{44E3F106-9108-4465-9FAD-59684B124153}" name="ciclo" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{32D80393-2302-4B11-B4D3-BCFD5C8F0913}" name="escuela" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{B5DE8A2D-2263-4F86-B465-626658F3A862}" name="codigo_de_asignatura" dataDxfId="14"/>
@@ -3519,6 +3556,7 @@
     <tableColumn id="13" xr3:uid="{841E5BC6-92A0-4D7E-ADA9-920587F2D088}" name="rectificacion" dataDxfId="4">
       <calculatedColumnFormula>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="18" xr3:uid="{5897BCFC-DC54-4820-8E5A-6E86222A2E36}" name="otro_plan_de_estudios"/>
     <tableColumn id="14" xr3:uid="{FDAA9B62-F6FB-4EEA-9599-2CF7FC43EDEE}" name="aula" dataDxfId="3"/>
     <tableColumn id="15" xr3:uid="{0ECEA8D3-846B-445D-8045-4860BD003F3E}" name="codigo_de_asignatura_de_referencia" dataDxfId="2"/>
     <tableColumn id="16" xr3:uid="{EBE1AB66-D68A-49AC-9A15-ADA52A5F5803}" name="seccion_de_referencia" dataDxfId="1"/>
@@ -3800,13 +3838,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q248"/>
+  <dimension ref="A1:R256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
@@ -3821,13 +3859,14 @@
     <col min="11" max="11" width="16.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3868,19 +3907,22 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>1095</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>1096</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -3921,14 +3963,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1"/>
+      <c r="N2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -3969,14 +4014,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="1"/>
+      <c r="N3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4017,14 +4065,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="1"/>
+      <c r="N4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4065,14 +4116,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="1"/>
+      <c r="N5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4113,14 +4167,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="1"/>
+      <c r="N6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4161,14 +4218,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="1"/>
+      <c r="N7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -4209,14 +4269,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="1"/>
+      <c r="N8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -4257,14 +4320,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="1"/>
+      <c r="N9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -4305,14 +4371,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="1"/>
+      <c r="N10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -4353,14 +4422,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="1"/>
+      <c r="N11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -4401,14 +4473,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="1"/>
+      <c r="N12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -4449,14 +4524,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="1"/>
+      <c r="N13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -4497,14 +4575,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="1"/>
+      <c r="N14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -4545,14 +4626,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="1"/>
+      <c r="N15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -4593,14 +4677,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" s="1"/>
+      <c r="N16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -4641,14 +4728,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" s="1"/>
+      <c r="N17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>4</v>
       </c>
@@ -4689,14 +4779,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="3"/>
+      <c r="N18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-    </row>
-    <row r="19" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -4737,14 +4830,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="1"/>
+      <c r="N19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -4785,14 +4881,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O20" s="1"/>
+      <c r="N20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -4833,14 +4932,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="1"/>
+      <c r="N21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -4881,14 +4983,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="1"/>
+      <c r="N22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -4929,14 +5034,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" s="1"/>
+      <c r="N23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -4977,14 +5085,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O24" s="1"/>
+      <c r="N24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -5025,14 +5136,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="1"/>
+      <c r="N25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -5073,14 +5187,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" s="1"/>
+      <c r="N26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -5121,14 +5238,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="1"/>
+      <c r="N27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -5169,14 +5289,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O28" s="1"/>
+      <c r="N28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -5217,14 +5340,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" s="1"/>
+      <c r="N29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -5265,14 +5391,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O30" s="1"/>
+      <c r="N30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -5313,14 +5442,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" s="1"/>
+      <c r="N31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -5361,14 +5493,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O32" s="1"/>
+      <c r="N32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -5409,14 +5544,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O33" s="1"/>
+      <c r="N33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -5457,14 +5595,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N34" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O34" s="1"/>
+      <c r="N34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -5505,14 +5646,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O35" s="1"/>
+      <c r="N35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -5553,14 +5697,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O36" s="1"/>
+      <c r="N36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -5601,14 +5748,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" s="1"/>
+      <c r="N37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-    </row>
-    <row r="38" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -5649,14 +5799,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O38" s="1"/>
+      <c r="N38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>4</v>
       </c>
@@ -5697,110 +5850,119 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O39" s="1"/>
+      <c r="N39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
         <v>3</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="E40" s="7">
+        <v>1</v>
+      </c>
+      <c r="F40" s="7">
+        <v>6784373</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M40" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+      <c r="M40" s="7" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+    </row>
+    <row r="41" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
         <v>3</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="E41" s="7">
+        <v>1</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M41" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="M41" s="7" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+    </row>
+    <row r="42" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -5841,14 +6003,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N42" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O42" s="1"/>
+      <c r="N42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -5889,14 +6054,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O43" s="1"/>
+      <c r="N43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>3</v>
       </c>
@@ -5937,14 +6105,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N44" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O44" s="1"/>
+      <c r="N44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -5985,14 +6156,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O45" s="1"/>
+      <c r="N45" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -6033,14 +6207,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O46" s="1"/>
+      <c r="N46" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -6081,14 +6258,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O47" s="1"/>
+      <c r="N47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
-    </row>
-    <row r="48" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -6129,14 +6309,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O48" s="1"/>
+      <c r="N48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-    </row>
-    <row r="49" spans="1:17" ht="66" x14ac:dyDescent="0.3">
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -6177,14 +6360,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N49" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O49" s="1"/>
+      <c r="N49" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" ht="66" x14ac:dyDescent="0.3">
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>3</v>
       </c>
@@ -6225,14 +6411,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O50" s="1"/>
+      <c r="N50" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -6273,14 +6462,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O51" s="1"/>
+      <c r="N51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -6321,14 +6513,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O52" s="1"/>
+      <c r="N52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-    </row>
-    <row r="53" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>4</v>
       </c>
@@ -6369,14 +6564,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O53" s="1"/>
+      <c r="N53" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
-    </row>
-    <row r="54" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -6417,14 +6615,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O54" s="1"/>
+      <c r="N54" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
-    </row>
-    <row r="55" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R54" s="1"/>
+    </row>
+    <row r="55" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -6465,14 +6666,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N55" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O55" s="1"/>
+      <c r="N55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
-    </row>
-    <row r="56" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R55" s="1"/>
+    </row>
+    <row r="56" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -6513,14 +6717,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O56" s="1"/>
+      <c r="N56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
-    </row>
-    <row r="57" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R56" s="1"/>
+    </row>
+    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -6561,14 +6768,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O57" s="1"/>
+      <c r="N57" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-    </row>
-    <row r="58" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R57" s="1"/>
+    </row>
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -6609,14 +6819,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N58" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O58" s="1"/>
+      <c r="N58" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-    </row>
-    <row r="59" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R58" s="1"/>
+    </row>
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>3</v>
       </c>
@@ -6657,14 +6870,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O59" s="1"/>
+      <c r="N59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
-    </row>
-    <row r="60" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R59" s="1"/>
+    </row>
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>3</v>
       </c>
@@ -6705,14 +6921,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O60" s="1"/>
+      <c r="N60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-    </row>
-    <row r="61" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R60" s="1"/>
+    </row>
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>3</v>
       </c>
@@ -6753,14 +6972,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O61" s="1"/>
+      <c r="N61" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-    </row>
-    <row r="62" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R61" s="1"/>
+    </row>
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>4</v>
       </c>
@@ -6801,14 +7023,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N62" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O62" s="1"/>
+      <c r="N62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-    </row>
-    <row r="63" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R62" s="1"/>
+    </row>
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -6849,20 +7074,23 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>1</v>
       </c>
-      <c r="N63" s="3" t="s">
-        <v>24</v>
+      <c r="N63" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="O63" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P63" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="P63" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="Q63" s="3">
+        <v>1</v>
+      </c>
+      <c r="R63" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -6903,14 +7131,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N64" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O64" s="1"/>
+      <c r="N64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
-    </row>
-    <row r="65" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R64" s="1"/>
+    </row>
+    <row r="65" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -6951,14 +7182,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N65" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O65" s="1"/>
+      <c r="N65" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
-    </row>
-    <row r="66" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R65" s="1"/>
+    </row>
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -6999,14 +7233,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O66" s="1"/>
+      <c r="N66" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
-    </row>
-    <row r="67" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R66" s="1"/>
+    </row>
+    <row r="67" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -7047,14 +7284,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N67" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O67" s="1"/>
+      <c r="N67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
-    </row>
-    <row r="68" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R67" s="1"/>
+    </row>
+    <row r="68" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -7095,14 +7335,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N68" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O68" s="1"/>
+      <c r="N68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
-    </row>
-    <row r="69" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R68" s="1"/>
+    </row>
+    <row r="69" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>1</v>
       </c>
@@ -7143,14 +7386,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N69" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O69" s="1"/>
+      <c r="N69" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
-    </row>
-    <row r="70" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R69" s="1"/>
+    </row>
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -7191,14 +7437,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N70" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O70" s="1"/>
+      <c r="N70" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
-    </row>
-    <row r="71" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R70" s="1"/>
+    </row>
+    <row r="71" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -7239,14 +7488,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N71" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O71" s="1"/>
+      <c r="N71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
-    </row>
-    <row r="72" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R71" s="1"/>
+    </row>
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -7287,14 +7539,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N72" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O72" s="1"/>
+      <c r="N72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
-    </row>
-    <row r="73" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R72" s="1"/>
+    </row>
+    <row r="73" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -7335,14 +7590,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N73" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O73" s="1"/>
+      <c r="N73" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
-    </row>
-    <row r="74" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R73" s="1"/>
+    </row>
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>3</v>
       </c>
@@ -7383,14 +7641,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N74" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O74" s="1"/>
+      <c r="N74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
-    </row>
-    <row r="75" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R74" s="1"/>
+    </row>
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>3</v>
       </c>
@@ -7431,14 +7692,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N75" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O75" s="1"/>
+      <c r="N75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
-    </row>
-    <row r="76" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R75" s="1"/>
+    </row>
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -7479,14 +7743,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N76" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O76" s="1"/>
+      <c r="N76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
-    </row>
-    <row r="77" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R76" s="1"/>
+    </row>
+    <row r="77" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>3</v>
       </c>
@@ -7527,14 +7794,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N77" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O77" s="1"/>
+      <c r="N77" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
-    </row>
-    <row r="78" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R77" s="1"/>
+    </row>
+    <row r="78" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -7575,14 +7845,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N78" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O78" s="1"/>
+      <c r="N78" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
-    </row>
-    <row r="79" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R78" s="1"/>
+    </row>
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -7623,14 +7896,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N79" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O79" s="1"/>
+      <c r="N79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
-    </row>
-    <row r="80" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R79" s="1"/>
+    </row>
+    <row r="80" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>4</v>
       </c>
@@ -7671,14 +7947,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N80" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O80" s="1"/>
+      <c r="N80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
-    </row>
-    <row r="81" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R80" s="1"/>
+    </row>
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>4</v>
       </c>
@@ -7719,14 +7998,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N81" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O81" s="1"/>
+      <c r="N81" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
-    </row>
-    <row r="82" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R81" s="1"/>
+    </row>
+    <row r="82" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>4</v>
       </c>
@@ -7767,14 +8049,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N82" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O82" s="1"/>
+      <c r="N82" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
-    </row>
-    <row r="83" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R82" s="1"/>
+    </row>
+    <row r="83" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -7815,14 +8100,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N83" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O83" s="1"/>
+      <c r="N83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
-    </row>
-    <row r="84" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R83" s="1"/>
+    </row>
+    <row r="84" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -7863,14 +8151,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N84" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O84" s="1"/>
+      <c r="N84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
-    </row>
-    <row r="85" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R84" s="1"/>
+    </row>
+    <row r="85" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>1</v>
       </c>
@@ -7911,14 +8202,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N85" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O85" s="1"/>
+      <c r="N85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
-    </row>
-    <row r="86" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R85" s="1"/>
+    </row>
+    <row r="86" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>1</v>
       </c>
@@ -7959,14 +8253,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N86" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O86" s="1"/>
+      <c r="N86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
-    </row>
-    <row r="87" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R86" s="1"/>
+    </row>
+    <row r="87" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>1</v>
       </c>
@@ -8007,14 +8304,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N87" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O87" s="1"/>
+      <c r="N87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
-    </row>
-    <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R87" s="1"/>
+    </row>
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -8055,14 +8355,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N88" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O88" s="1"/>
+      <c r="N88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
-    </row>
-    <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R88" s="1"/>
+    </row>
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>2</v>
       </c>
@@ -8103,14 +8406,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N89" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O89" s="1"/>
+      <c r="N89" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
-    </row>
-    <row r="90" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R89" s="1"/>
+    </row>
+    <row r="90" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>2</v>
       </c>
@@ -8151,14 +8457,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N90" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O90" s="1"/>
+      <c r="N90" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
-    </row>
-    <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R90" s="1"/>
+    </row>
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>3</v>
       </c>
@@ -8199,14 +8508,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N91" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O91" s="1"/>
+      <c r="N91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
-    </row>
-    <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R91" s="1"/>
+    </row>
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>3</v>
       </c>
@@ -8247,14 +8559,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N92" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O92" s="1"/>
+      <c r="N92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
-    </row>
-    <row r="93" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R92" s="1"/>
+    </row>
+    <row r="93" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>3</v>
       </c>
@@ -8295,14 +8610,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N93" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O93" s="1"/>
+      <c r="N93" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
-    </row>
-    <row r="94" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R93" s="1"/>
+    </row>
+    <row r="94" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>3</v>
       </c>
@@ -8343,14 +8661,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N94" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O94" s="1"/>
+      <c r="N94" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
-    </row>
-    <row r="95" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R94" s="1"/>
+    </row>
+    <row r="95" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>3</v>
       </c>
@@ -8391,14 +8712,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N95" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O95" s="1"/>
+      <c r="N95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
-    </row>
-    <row r="96" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R95" s="1"/>
+    </row>
+    <row r="96" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>3</v>
       </c>
@@ -8439,14 +8763,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N96" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O96" s="1"/>
+      <c r="N96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O96" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
-    </row>
-    <row r="97" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R96" s="1"/>
+    </row>
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>4</v>
       </c>
@@ -8487,14 +8814,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N97" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O97" s="1"/>
+      <c r="N97" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
-    </row>
-    <row r="98" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R97" s="1"/>
+    </row>
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>4</v>
       </c>
@@ -8535,14 +8865,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N98" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O98" s="1"/>
+      <c r="N98" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
-    </row>
-    <row r="99" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R98" s="1"/>
+    </row>
+    <row r="99" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>4</v>
       </c>
@@ -8583,14 +8916,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N99" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O99" s="1"/>
+      <c r="N99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
-    </row>
-    <row r="100" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R99" s="1"/>
+    </row>
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>4</v>
       </c>
@@ -8631,14 +8967,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N100" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O100" s="1"/>
+      <c r="N100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
-    </row>
-    <row r="101" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R100" s="1"/>
+    </row>
+    <row r="101" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>4</v>
       </c>
@@ -8679,14 +9018,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N101" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O101" s="1"/>
+      <c r="N101" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
-    </row>
-    <row r="102" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R101" s="1"/>
+    </row>
+    <row r="102" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1</v>
       </c>
@@ -8727,14 +9069,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N102" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O102" s="1"/>
+      <c r="N102" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
-    </row>
-    <row r="103" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R102" s="1"/>
+    </row>
+    <row r="103" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1</v>
       </c>
@@ -8775,14 +9120,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N103" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O103" s="1"/>
+      <c r="N103" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
-    </row>
-    <row r="104" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R103" s="1"/>
+    </row>
+    <row r="104" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1</v>
       </c>
@@ -8823,14 +9171,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N104" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O104" s="1"/>
+      <c r="N104" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
-    </row>
-    <row r="105" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R104" s="1"/>
+    </row>
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -8871,14 +9222,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N105" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O105" s="1"/>
+      <c r="N105" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
-    </row>
-    <row r="106" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R105" s="1"/>
+    </row>
+    <row r="106" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>1</v>
       </c>
@@ -8919,14 +9273,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N106" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O106" s="1"/>
+      <c r="N106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
-    </row>
-    <row r="107" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R106" s="1"/>
+    </row>
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>2</v>
       </c>
@@ -8967,14 +9324,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N107" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O107" s="1"/>
+      <c r="N107" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
-    </row>
-    <row r="108" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R107" s="1"/>
+    </row>
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>2</v>
       </c>
@@ -9015,14 +9375,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N108" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O108" s="1"/>
+      <c r="N108" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
-    </row>
-    <row r="109" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R108" s="1"/>
+    </row>
+    <row r="109" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2</v>
       </c>
@@ -9063,14 +9426,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N109" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O109" s="1"/>
+      <c r="N109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
-    </row>
-    <row r="110" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R109" s="1"/>
+    </row>
+    <row r="110" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -9111,14 +9477,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N110" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O110" s="1"/>
+      <c r="N110" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
-    </row>
-    <row r="111" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R110" s="1"/>
+    </row>
+    <row r="111" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>2</v>
       </c>
@@ -9159,14 +9528,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N111" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O111" s="1"/>
+      <c r="N111" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
-    </row>
-    <row r="112" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R111" s="1"/>
+    </row>
+    <row r="112" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>2</v>
       </c>
@@ -9207,14 +9579,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N112" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O112" s="1"/>
+      <c r="N112" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O112" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
-    </row>
-    <row r="113" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R112" s="1"/>
+    </row>
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>3</v>
       </c>
@@ -9255,14 +9630,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N113" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O113" s="1"/>
+      <c r="N113" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P113" s="1"/>
       <c r="Q113" s="1"/>
-    </row>
-    <row r="114" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R113" s="1"/>
+    </row>
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>3</v>
       </c>
@@ -9303,14 +9681,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N114" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O114" s="1"/>
+      <c r="N114" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P114" s="1"/>
       <c r="Q114" s="1"/>
-    </row>
-    <row r="115" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R114" s="1"/>
+    </row>
+    <row r="115" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>3</v>
       </c>
@@ -9351,14 +9732,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N115" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O115" s="1"/>
+      <c r="N115" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
-    </row>
-    <row r="116" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R115" s="1"/>
+    </row>
+    <row r="116" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>3</v>
       </c>
@@ -9399,14 +9783,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N116" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O116" s="1"/>
+      <c r="N116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
-    </row>
-    <row r="117" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R116" s="1"/>
+    </row>
+    <row r="117" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>3</v>
       </c>
@@ -9447,14 +9834,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N117" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O117" s="1"/>
+      <c r="N117" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P117" s="1"/>
       <c r="Q117" s="1"/>
-    </row>
-    <row r="118" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R117" s="1"/>
+    </row>
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>4</v>
       </c>
@@ -9495,14 +9885,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N118" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O118" s="2"/>
+      <c r="N118" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="P118" s="2"/>
       <c r="Q118" s="2"/>
-    </row>
-    <row r="119" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R118" s="2"/>
+    </row>
+    <row r="119" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>4</v>
       </c>
@@ -9543,14 +9936,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N119" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O119" s="1"/>
+      <c r="N119" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
-    </row>
-    <row r="120" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R119" s="1"/>
+    </row>
+    <row r="120" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>4</v>
       </c>
@@ -9591,14 +9987,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N120" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O120" s="1"/>
+      <c r="N120" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P120" s="1"/>
       <c r="Q120" s="1"/>
-    </row>
-    <row r="121" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R120" s="1"/>
+    </row>
+    <row r="121" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>4</v>
       </c>
@@ -9639,14 +10038,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N121" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O121" s="1"/>
+      <c r="N121" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O121" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P121" s="1"/>
       <c r="Q121" s="1"/>
-    </row>
-    <row r="122" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R121" s="1"/>
+    </row>
+    <row r="122" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -9687,14 +10089,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N122" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O122" s="1"/>
+      <c r="N122" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
-    </row>
-    <row r="123" spans="1:17" ht="66" x14ac:dyDescent="0.3">
+      <c r="R122" s="1"/>
+    </row>
+    <row r="123" spans="1:18" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>1</v>
       </c>
@@ -9735,14 +10140,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N123" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O123" s="1"/>
+      <c r="N123" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
-    </row>
-    <row r="124" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R123" s="1"/>
+    </row>
+    <row r="124" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>1</v>
       </c>
@@ -9783,14 +10191,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N124" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O124" s="1"/>
+      <c r="N124" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O124" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
-    </row>
-    <row r="125" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R124" s="1"/>
+    </row>
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -9831,14 +10242,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N125" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O125" s="1"/>
+      <c r="N125" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
-    </row>
-    <row r="126" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R125" s="1"/>
+    </row>
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -9879,14 +10293,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N126" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O126" s="1"/>
+      <c r="N126" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
-    </row>
-    <row r="127" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R126" s="1"/>
+    </row>
+    <row r="127" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -9927,14 +10344,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N127" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O127" s="1"/>
+      <c r="N127" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
-    </row>
-    <row r="128" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R127" s="1"/>
+    </row>
+    <row r="128" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -9975,14 +10395,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N128" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O128" s="1"/>
+      <c r="N128" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O128" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
-    </row>
-    <row r="129" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R128" s="1"/>
+    </row>
+    <row r="129" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>2</v>
       </c>
@@ -10023,14 +10446,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N129" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O129" s="1"/>
+      <c r="N129" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O129" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
-    </row>
-    <row r="130" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R129" s="1"/>
+    </row>
+    <row r="130" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -10071,14 +10497,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N130" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O130" s="1"/>
+      <c r="N130" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O130" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
-    </row>
-    <row r="131" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R130" s="1"/>
+    </row>
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>3</v>
       </c>
@@ -10119,14 +10548,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N131" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O131" s="1"/>
+      <c r="N131" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O131" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
-    </row>
-    <row r="132" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R131" s="1"/>
+    </row>
+    <row r="132" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>3</v>
       </c>
@@ -10167,14 +10599,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N132" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O132" s="1"/>
+      <c r="N132" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O132" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
-    </row>
-    <row r="133" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R132" s="1"/>
+    </row>
+    <row r="133" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>3</v>
       </c>
@@ -10215,14 +10650,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N133" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O133" s="1"/>
+      <c r="N133" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O133" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
-    </row>
-    <row r="134" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R133" s="1"/>
+    </row>
+    <row r="134" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>3</v>
       </c>
@@ -10263,14 +10701,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N134" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O134" s="1"/>
+      <c r="N134" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
-    </row>
-    <row r="135" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R134" s="1"/>
+    </row>
+    <row r="135" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>3</v>
       </c>
@@ -10311,14 +10752,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N135" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O135" s="1"/>
+      <c r="N135" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O135" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P135" s="1"/>
       <c r="Q135" s="1"/>
-    </row>
-    <row r="136" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R135" s="1"/>
+    </row>
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>4</v>
       </c>
@@ -10359,20 +10803,23 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>1</v>
       </c>
-      <c r="N136" s="2" t="s">
-        <v>24</v>
+      <c r="N136" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="O136" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P136" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="P136" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q136" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="Q136" s="2">
+        <v>1</v>
+      </c>
+      <c r="R136" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>4</v>
       </c>
@@ -10413,14 +10860,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N137" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O137" s="1"/>
+      <c r="N137" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P137" s="1"/>
       <c r="Q137" s="1"/>
-    </row>
-    <row r="138" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R137" s="1"/>
+    </row>
+    <row r="138" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>4</v>
       </c>
@@ -10461,14 +10911,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N138" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O138" s="1"/>
+      <c r="N138" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P138" s="1"/>
       <c r="Q138" s="1"/>
-    </row>
-    <row r="139" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R138" s="1"/>
+    </row>
+    <row r="139" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>4</v>
       </c>
@@ -10509,14 +10962,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N139" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O139" s="1"/>
+      <c r="N139" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O139" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P139" s="1"/>
       <c r="Q139" s="1"/>
-    </row>
-    <row r="140" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R139" s="1"/>
+    </row>
+    <row r="140" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>1</v>
       </c>
@@ -10557,14 +11013,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N140" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O140" s="1"/>
+      <c r="N140" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P140" s="1"/>
       <c r="Q140" s="1"/>
-    </row>
-    <row r="141" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R140" s="1"/>
+    </row>
+    <row r="141" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>2</v>
       </c>
@@ -10605,14 +11064,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N141" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O141" s="1"/>
+      <c r="N141" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P141" s="1"/>
       <c r="Q141" s="1"/>
-    </row>
-    <row r="142" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R141" s="1"/>
+    </row>
+    <row r="142" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>3</v>
       </c>
@@ -10653,14 +11115,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N142" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O142" s="1"/>
+      <c r="N142" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O142" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P142" s="1"/>
       <c r="Q142" s="1"/>
-    </row>
-    <row r="143" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R142" s="1"/>
+    </row>
+    <row r="143" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -10701,14 +11166,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N143" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O143" s="1"/>
+      <c r="N143" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O143" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P143" s="1"/>
       <c r="Q143" s="1"/>
-    </row>
-    <row r="144" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R143" s="1"/>
+    </row>
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>1</v>
       </c>
@@ -10749,14 +11217,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N144" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O144" s="1"/>
+      <c r="N144" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O144" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P144" s="1"/>
       <c r="Q144" s="1"/>
-    </row>
-    <row r="145" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R144" s="1"/>
+    </row>
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>4</v>
       </c>
@@ -10797,14 +11268,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N145" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O145" s="4"/>
+      <c r="N145" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O145" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="P145" s="4"/>
       <c r="Q145" s="4"/>
-    </row>
-    <row r="146" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R145" s="4"/>
+    </row>
+    <row r="146" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>2</v>
       </c>
@@ -10845,14 +11319,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N146" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O146" s="1"/>
+      <c r="N146" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O146" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P146" s="1"/>
       <c r="Q146" s="1"/>
-    </row>
-    <row r="147" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R146" s="1"/>
+    </row>
+    <row r="147" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>1</v>
       </c>
@@ -10893,14 +11370,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N147" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O147" s="1"/>
+      <c r="N147" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O147" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P147" s="1"/>
       <c r="Q147" s="1"/>
-    </row>
-    <row r="148" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R147" s="1"/>
+    </row>
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>6</v>
       </c>
@@ -10941,14 +11421,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N148" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O148" s="1"/>
+      <c r="N148" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P148" s="1"/>
       <c r="Q148" s="1"/>
-    </row>
-    <row r="149" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R148" s="1"/>
+    </row>
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>5</v>
       </c>
@@ -10989,14 +11472,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N149" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O149" s="1"/>
+      <c r="N149" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O149" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P149" s="1"/>
       <c r="Q149" s="1"/>
-    </row>
-    <row r="150" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R149" s="1"/>
+    </row>
+    <row r="150" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>4</v>
       </c>
@@ -11037,14 +11523,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N150" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O150" s="1"/>
+      <c r="N150" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O150" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P150" s="1"/>
       <c r="Q150" s="1"/>
-    </row>
-    <row r="151" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R150" s="1"/>
+    </row>
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>1</v>
       </c>
@@ -11085,14 +11574,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N151" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O151" s="1"/>
+      <c r="N151" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P151" s="1"/>
       <c r="Q151" s="1"/>
-    </row>
-    <row r="152" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R151" s="1"/>
+    </row>
+    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>4</v>
       </c>
@@ -11133,20 +11625,23 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>1</v>
       </c>
-      <c r="N152" s="4" t="s">
-        <v>24</v>
+      <c r="N152" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="O152" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P152" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="P152" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q152" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Q152" s="4">
+        <v>1</v>
+      </c>
+      <c r="R152" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>3</v>
       </c>
@@ -11187,14 +11682,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N153" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O153" s="1"/>
+      <c r="N153" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P153" s="1"/>
       <c r="Q153" s="1"/>
-    </row>
-    <row r="154" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R153" s="1"/>
+    </row>
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>4</v>
       </c>
@@ -11235,14 +11733,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N154" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O154" s="1"/>
+      <c r="N154" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O154" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P154" s="1"/>
       <c r="Q154" s="1"/>
-    </row>
-    <row r="155" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R154" s="1"/>
+    </row>
+    <row r="155" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>3</v>
       </c>
@@ -11283,14 +11784,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N155" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O155" s="1"/>
+      <c r="N155" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O155" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P155" s="1"/>
       <c r="Q155" s="1"/>
-    </row>
-    <row r="156" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R155" s="1"/>
+    </row>
+    <row r="156" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>1</v>
       </c>
@@ -11331,14 +11835,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N156" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O156" s="1"/>
+      <c r="N156" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P156" s="1"/>
       <c r="Q156" s="1"/>
-    </row>
-    <row r="157" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R156" s="1"/>
+    </row>
+    <row r="157" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>1</v>
       </c>
@@ -11379,14 +11886,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N157" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O157" s="1"/>
+      <c r="N157" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P157" s="1"/>
       <c r="Q157" s="1"/>
-    </row>
-    <row r="158" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R157" s="1"/>
+    </row>
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>2</v>
       </c>
@@ -11427,14 +11937,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N158" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O158" s="5"/>
+      <c r="N158" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O158" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="P158" s="5"/>
       <c r="Q158" s="5"/>
-    </row>
-    <row r="159" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R158" s="5"/>
+    </row>
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>2</v>
       </c>
@@ -11475,14 +11988,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N159" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O159" s="5"/>
+      <c r="N159" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O159" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="P159" s="5"/>
       <c r="Q159" s="5"/>
-    </row>
-    <row r="160" spans="1:17" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="R159" s="5"/>
+    </row>
+    <row r="160" spans="1:18" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>3</v>
       </c>
@@ -11523,14 +12039,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N160" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O160" s="1"/>
+      <c r="N160" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P160" s="1"/>
       <c r="Q160" s="1"/>
-    </row>
-    <row r="161" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R160" s="1"/>
+    </row>
+    <row r="161" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>2</v>
       </c>
@@ -11571,14 +12090,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N161" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O161" s="1"/>
+      <c r="N161" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P161" s="1"/>
       <c r="Q161" s="1"/>
-    </row>
-    <row r="162" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R161" s="1"/>
+    </row>
+    <row r="162" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>2</v>
       </c>
@@ -11619,14 +12141,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N162" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O162" s="1"/>
+      <c r="N162" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P162" s="1"/>
       <c r="Q162" s="1"/>
-    </row>
-    <row r="163" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R162" s="1"/>
+    </row>
+    <row r="163" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>1</v>
       </c>
@@ -11667,14 +12192,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N163" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O163" s="1"/>
+      <c r="N163" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P163" s="1"/>
       <c r="Q163" s="1"/>
-    </row>
-    <row r="164" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R163" s="1"/>
+    </row>
+    <row r="164" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>1</v>
       </c>
@@ -11715,14 +12243,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N164" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O164" s="1"/>
+      <c r="N164" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P164" s="1"/>
       <c r="Q164" s="1"/>
-    </row>
-    <row r="165" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R164" s="1"/>
+    </row>
+    <row r="165" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>4</v>
       </c>
@@ -11763,14 +12294,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N165" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O165" s="1"/>
+      <c r="N165" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P165" s="1"/>
       <c r="Q165" s="1"/>
-    </row>
-    <row r="166" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R165" s="1"/>
+    </row>
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>1</v>
       </c>
@@ -11811,14 +12345,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N166" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O166" s="1"/>
+      <c r="N166" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P166" s="1"/>
       <c r="Q166" s="1"/>
-    </row>
-    <row r="167" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R166" s="1"/>
+    </row>
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>5</v>
       </c>
@@ -11859,14 +12396,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N167" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O167" s="6"/>
+      <c r="N167" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O167" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
-    </row>
-    <row r="168" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R167" s="6"/>
+    </row>
+    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>3</v>
       </c>
@@ -11907,14 +12447,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N168" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O168" s="1"/>
+      <c r="N168" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P168" s="1"/>
       <c r="Q168" s="1"/>
-    </row>
-    <row r="169" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R168" s="1"/>
+    </row>
+    <row r="169" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>4</v>
       </c>
@@ -11955,14 +12498,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N169" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O169" s="1"/>
+      <c r="N169" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P169" s="1"/>
       <c r="Q169" s="1"/>
-    </row>
-    <row r="170" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R169" s="1"/>
+    </row>
+    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>5</v>
       </c>
@@ -12003,20 +12549,23 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>1</v>
       </c>
-      <c r="N170" s="6" t="s">
-        <v>24</v>
+      <c r="N170" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="O170" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P170" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="P170" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q170" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="171" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Q170" s="6">
+        <v>1</v>
+      </c>
+      <c r="R170" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>3</v>
       </c>
@@ -12057,14 +12606,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N171" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O171" s="1"/>
+      <c r="N171" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P171" s="1"/>
       <c r="Q171" s="1"/>
-    </row>
-    <row r="172" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R171" s="1"/>
+    </row>
+    <row r="172" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>3</v>
       </c>
@@ -12105,14 +12657,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N172" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O172" s="1"/>
+      <c r="N172" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P172" s="1"/>
       <c r="Q172" s="1"/>
-    </row>
-    <row r="173" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R172" s="1"/>
+    </row>
+    <row r="173" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>3</v>
       </c>
@@ -12153,14 +12708,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N173" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O173" s="1"/>
+      <c r="N173" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P173" s="1"/>
       <c r="Q173" s="1"/>
-    </row>
-    <row r="174" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R173" s="1"/>
+    </row>
+    <row r="174" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>3</v>
       </c>
@@ -12201,14 +12759,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N174" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O174" s="1"/>
+      <c r="N174" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P174" s="1"/>
       <c r="Q174" s="1"/>
-    </row>
-    <row r="175" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R174" s="1"/>
+    </row>
+    <row r="175" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>3</v>
       </c>
@@ -12249,14 +12810,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N175" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O175" s="1"/>
+      <c r="N175" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P175" s="1"/>
       <c r="Q175" s="1"/>
-    </row>
-    <row r="176" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R175" s="1"/>
+    </row>
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>4</v>
       </c>
@@ -12297,14 +12861,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N176" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O176" s="1"/>
+      <c r="N176" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P176" s="1"/>
       <c r="Q176" s="1"/>
-    </row>
-    <row r="177" spans="1:17" ht="99" x14ac:dyDescent="0.3">
+      <c r="R176" s="1"/>
+    </row>
+    <row r="177" spans="1:18" ht="99" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>4</v>
       </c>
@@ -12345,14 +12912,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N177" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O177" s="1"/>
+      <c r="N177" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P177" s="1"/>
       <c r="Q177" s="1"/>
-    </row>
-    <row r="178" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R177" s="1"/>
+    </row>
+    <row r="178" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>4</v>
       </c>
@@ -12393,14 +12963,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N178" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O178" s="1"/>
+      <c r="N178" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P178" s="1"/>
       <c r="Q178" s="1"/>
-    </row>
-    <row r="179" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R178" s="1"/>
+    </row>
+    <row r="179" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>4</v>
       </c>
@@ -12441,14 +13014,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N179" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O179" s="1"/>
+      <c r="N179" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P179" s="1"/>
       <c r="Q179" s="1"/>
-    </row>
-    <row r="180" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R179" s="1"/>
+    </row>
+    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
         <v>6</v>
       </c>
@@ -12489,14 +13065,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N180" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O180" s="5"/>
+      <c r="N180" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O180" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="P180" s="5"/>
       <c r="Q180" s="5"/>
-    </row>
-    <row r="181" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R180" s="5"/>
+    </row>
+    <row r="181" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>1</v>
       </c>
@@ -12537,14 +13116,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N181" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O181" s="1"/>
+      <c r="N181" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P181" s="1"/>
       <c r="Q181" s="1"/>
-    </row>
-    <row r="182" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R181" s="1"/>
+    </row>
+    <row r="182" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>1</v>
       </c>
@@ -12585,14 +13167,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N182" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O182" s="1"/>
+      <c r="N182" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O182" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P182" s="1"/>
       <c r="Q182" s="1"/>
-    </row>
-    <row r="183" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R182" s="1"/>
+    </row>
+    <row r="183" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>1</v>
       </c>
@@ -12633,14 +13218,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N183" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O183" s="1"/>
+      <c r="N183" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P183" s="1"/>
       <c r="Q183" s="1"/>
-    </row>
-    <row r="184" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R183" s="1"/>
+    </row>
+    <row r="184" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>1</v>
       </c>
@@ -12681,14 +13269,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N184" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O184" s="1"/>
+      <c r="N184" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O184" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P184" s="1"/>
       <c r="Q184" s="1"/>
-    </row>
-    <row r="185" spans="1:17" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="R184" s="1"/>
+    </row>
+    <row r="185" spans="1:18" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>1</v>
       </c>
@@ -12729,14 +13320,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N185" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O185" s="1"/>
+      <c r="N185" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O185" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P185" s="1"/>
       <c r="Q185" s="1"/>
-    </row>
-    <row r="186" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R185" s="1"/>
+    </row>
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>2</v>
       </c>
@@ -12777,14 +13371,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N186" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O186" s="1"/>
+      <c r="N186" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O186" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P186" s="1"/>
       <c r="Q186" s="1"/>
-    </row>
-    <row r="187" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R186" s="1"/>
+    </row>
+    <row r="187" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>2</v>
       </c>
@@ -12825,14 +13422,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N187" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O187" s="1"/>
+      <c r="N187" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O187" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P187" s="1"/>
       <c r="Q187" s="1"/>
-    </row>
-    <row r="188" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R187" s="1"/>
+    </row>
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>2</v>
       </c>
@@ -12873,14 +13473,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N188" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O188" s="1"/>
+      <c r="N188" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O188" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P188" s="1"/>
       <c r="Q188" s="1"/>
-    </row>
-    <row r="189" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R188" s="1"/>
+    </row>
+    <row r="189" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>2</v>
       </c>
@@ -12921,14 +13524,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N189" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O189" s="1"/>
+      <c r="N189" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O189" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P189" s="1"/>
       <c r="Q189" s="1"/>
-    </row>
-    <row r="190" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R189" s="1"/>
+    </row>
+    <row r="190" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>2</v>
       </c>
@@ -12969,14 +13575,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O190" s="1"/>
+      <c r="N190" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P190" s="1"/>
       <c r="Q190" s="1"/>
-    </row>
-    <row r="191" spans="1:17" ht="66" x14ac:dyDescent="0.3">
+      <c r="R190" s="1"/>
+    </row>
+    <row r="191" spans="1:18" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>2</v>
       </c>
@@ -13017,14 +13626,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N191" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O191" s="1"/>
+      <c r="N191" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O191" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P191" s="1"/>
       <c r="Q191" s="1"/>
-    </row>
-    <row r="192" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R191" s="1"/>
+    </row>
+    <row r="192" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>1</v>
       </c>
@@ -13065,14 +13677,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N192" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O192" s="1"/>
+      <c r="N192" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O192" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P192" s="1"/>
       <c r="Q192" s="1"/>
-    </row>
-    <row r="193" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R192" s="1"/>
+    </row>
+    <row r="193" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>1</v>
       </c>
@@ -13113,14 +13728,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N193" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O193" s="1"/>
+      <c r="N193" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O193" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P193" s="1"/>
       <c r="Q193" s="1"/>
-    </row>
-    <row r="194" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R193" s="1"/>
+    </row>
+    <row r="194" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>1</v>
       </c>
@@ -13161,14 +13779,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N194" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O194" s="1"/>
+      <c r="N194" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O194" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P194" s="1"/>
       <c r="Q194" s="1"/>
-    </row>
-    <row r="195" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R194" s="1"/>
+    </row>
+    <row r="195" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>1</v>
       </c>
@@ -13209,14 +13830,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N195" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O195" s="1"/>
+      <c r="N195" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O195" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P195" s="1"/>
       <c r="Q195" s="1"/>
-    </row>
-    <row r="196" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R195" s="1"/>
+    </row>
+    <row r="196" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>1</v>
       </c>
@@ -13257,14 +13881,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N196" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O196" s="1"/>
+      <c r="N196" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O196" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P196" s="1"/>
       <c r="Q196" s="1"/>
-    </row>
-    <row r="197" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R196" s="1"/>
+    </row>
+    <row r="197" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>2</v>
       </c>
@@ -13305,14 +13932,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N197" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O197" s="1"/>
+      <c r="N197" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O197" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P197" s="1"/>
       <c r="Q197" s="1"/>
-    </row>
-    <row r="198" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R197" s="1"/>
+    </row>
+    <row r="198" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>2</v>
       </c>
@@ -13353,14 +13983,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N198" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O198" s="1"/>
+      <c r="N198" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O198" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P198" s="1"/>
       <c r="Q198" s="1"/>
-    </row>
-    <row r="199" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R198" s="1"/>
+    </row>
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>2</v>
       </c>
@@ -13401,14 +14034,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N199" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O199" s="1"/>
+      <c r="N199" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O199" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P199" s="1"/>
       <c r="Q199" s="1"/>
-    </row>
-    <row r="200" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R199" s="1"/>
+    </row>
+    <row r="200" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>2</v>
       </c>
@@ -13449,14 +14085,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N200" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O200" s="1"/>
+      <c r="N200" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O200" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P200" s="1"/>
       <c r="Q200" s="1"/>
-    </row>
-    <row r="201" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R200" s="1"/>
+    </row>
+    <row r="201" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>2</v>
       </c>
@@ -13497,14 +14136,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N201" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O201" s="1"/>
+      <c r="N201" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O201" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P201" s="1"/>
       <c r="Q201" s="1"/>
-    </row>
-    <row r="202" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R201" s="1"/>
+    </row>
+    <row r="202" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>2</v>
       </c>
@@ -13545,14 +14187,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N202" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O202" s="1"/>
+      <c r="N202" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O202" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P202" s="1"/>
       <c r="Q202" s="1"/>
-    </row>
-    <row r="203" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R202" s="1"/>
+    </row>
+    <row r="203" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>1</v>
       </c>
@@ -13593,14 +14238,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N203" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O203" s="1"/>
+      <c r="N203" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O203" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P203" s="1"/>
       <c r="Q203" s="1"/>
-    </row>
-    <row r="204" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R203" s="1"/>
+    </row>
+    <row r="204" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>1</v>
       </c>
@@ -13641,14 +14289,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N204" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O204" s="1"/>
+      <c r="N204" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O204" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P204" s="1"/>
       <c r="Q204" s="1"/>
-    </row>
-    <row r="205" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R204" s="1"/>
+    </row>
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>1</v>
       </c>
@@ -13689,14 +14340,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N205" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O205" s="1"/>
+      <c r="N205" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O205" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P205" s="1"/>
       <c r="Q205" s="1"/>
-    </row>
-    <row r="206" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R205" s="1"/>
+    </row>
+    <row r="206" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>1</v>
       </c>
@@ -13737,14 +14391,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N206" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O206" s="1"/>
+      <c r="N206" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O206" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P206" s="1"/>
       <c r="Q206" s="1"/>
-    </row>
-    <row r="207" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R206" s="1"/>
+    </row>
+    <row r="207" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>1</v>
       </c>
@@ -13785,14 +14442,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N207" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O207" s="1"/>
+      <c r="N207" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O207" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P207" s="1"/>
       <c r="Q207" s="1"/>
-    </row>
-    <row r="208" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R207" s="1"/>
+    </row>
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>2</v>
       </c>
@@ -13833,14 +14493,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N208" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O208" s="1"/>
+      <c r="N208" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O208" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P208" s="1"/>
       <c r="Q208" s="1"/>
-    </row>
-    <row r="209" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R208" s="1"/>
+    </row>
+    <row r="209" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>2</v>
       </c>
@@ -13881,14 +14544,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N209" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O209" s="1"/>
+      <c r="N209" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O209" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P209" s="1"/>
       <c r="Q209" s="1"/>
-    </row>
-    <row r="210" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R209" s="1"/>
+    </row>
+    <row r="210" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>2</v>
       </c>
@@ -13929,14 +14595,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N210" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O210" s="1"/>
+      <c r="N210" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O210" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P210" s="1"/>
       <c r="Q210" s="1"/>
-    </row>
-    <row r="211" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R210" s="1"/>
+    </row>
+    <row r="211" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>2</v>
       </c>
@@ -13977,14 +14646,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N211" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O211" s="1"/>
+      <c r="N211" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O211" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P211" s="1"/>
       <c r="Q211" s="1"/>
-    </row>
-    <row r="212" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R211" s="1"/>
+    </row>
+    <row r="212" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>2</v>
       </c>
@@ -14025,14 +14697,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N212" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O212" s="1"/>
+      <c r="N212" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O212" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P212" s="1"/>
       <c r="Q212" s="1"/>
-    </row>
-    <row r="213" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R212" s="1"/>
+    </row>
+    <row r="213" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>2</v>
       </c>
@@ -14073,14 +14748,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N213" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O213" s="1"/>
+      <c r="N213" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O213" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P213" s="1"/>
       <c r="Q213" s="1"/>
-    </row>
-    <row r="214" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R213" s="1"/>
+    </row>
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>1</v>
       </c>
@@ -14121,14 +14799,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O214" s="1"/>
+      <c r="N214" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P214" s="1"/>
       <c r="Q214" s="1"/>
-    </row>
-    <row r="215" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R214" s="1"/>
+    </row>
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>1</v>
       </c>
@@ -14169,14 +14850,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O215" s="1"/>
+      <c r="N215" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P215" s="1"/>
       <c r="Q215" s="1"/>
-    </row>
-    <row r="216" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R215" s="1"/>
+    </row>
+    <row r="216" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>1</v>
       </c>
@@ -14217,14 +14901,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N216" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O216" s="1"/>
+      <c r="N216" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O216" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P216" s="1"/>
       <c r="Q216" s="1"/>
-    </row>
-    <row r="217" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R216" s="1"/>
+    </row>
+    <row r="217" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>1</v>
       </c>
@@ -14265,14 +14952,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N217" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O217" s="1"/>
+      <c r="N217" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O217" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P217" s="1"/>
       <c r="Q217" s="1"/>
-    </row>
-    <row r="218" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R217" s="1"/>
+    </row>
+    <row r="218" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>1</v>
       </c>
@@ -14313,14 +15003,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N218" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O218" s="1"/>
+      <c r="N218" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O218" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P218" s="1"/>
       <c r="Q218" s="1"/>
-    </row>
-    <row r="219" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R218" s="1"/>
+    </row>
+    <row r="219" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>1</v>
       </c>
@@ -14361,14 +15054,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N219" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O219" s="1"/>
+      <c r="N219" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O219" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P219" s="1"/>
       <c r="Q219" s="1"/>
-    </row>
-    <row r="220" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R219" s="1"/>
+    </row>
+    <row r="220" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>1</v>
       </c>
@@ -14409,14 +15105,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N220" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O220" s="1"/>
+      <c r="N220" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O220" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P220" s="1"/>
       <c r="Q220" s="1"/>
-    </row>
-    <row r="221" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R220" s="1"/>
+    </row>
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>2</v>
       </c>
@@ -14457,14 +15156,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N221" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O221" s="1"/>
+      <c r="N221" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O221" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P221" s="1"/>
       <c r="Q221" s="1"/>
-    </row>
-    <row r="222" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R221" s="1"/>
+    </row>
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>2</v>
       </c>
@@ -14505,14 +15207,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N222" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O222" s="1"/>
+      <c r="N222" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O222" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P222" s="1"/>
       <c r="Q222" s="1"/>
-    </row>
-    <row r="223" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R222" s="1"/>
+    </row>
+    <row r="223" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>2</v>
       </c>
@@ -14553,14 +15258,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N223" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O223" s="1"/>
+      <c r="N223" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O223" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P223" s="1"/>
       <c r="Q223" s="1"/>
-    </row>
-    <row r="224" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R223" s="1"/>
+    </row>
+    <row r="224" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>2</v>
       </c>
@@ -14601,14 +15309,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N224" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O224" s="1"/>
+      <c r="N224" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O224" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P224" s="1"/>
       <c r="Q224" s="1"/>
-    </row>
-    <row r="225" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R224" s="1"/>
+    </row>
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>2</v>
       </c>
@@ -14649,14 +15360,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N225" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O225" s="1"/>
+      <c r="N225" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O225" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P225" s="1"/>
       <c r="Q225" s="1"/>
-    </row>
-    <row r="226" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R225" s="1"/>
+    </row>
+    <row r="226" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>2</v>
       </c>
@@ -14697,14 +15411,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N226" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O226" s="1"/>
+      <c r="N226" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O226" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P226" s="1"/>
       <c r="Q226" s="1"/>
-    </row>
-    <row r="227" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R226" s="1"/>
+    </row>
+    <row r="227" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>2</v>
       </c>
@@ -14745,14 +15462,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N227" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O227" s="1"/>
+      <c r="N227" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O227" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P227" s="1"/>
       <c r="Q227" s="1"/>
-    </row>
-    <row r="228" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R227" s="1"/>
+    </row>
+    <row r="228" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>4</v>
       </c>
@@ -14793,14 +15513,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N228" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O228" s="1"/>
+      <c r="N228" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O228" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P228" s="1"/>
       <c r="Q228" s="1"/>
-    </row>
-    <row r="229" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R228" s="1"/>
+    </row>
+    <row r="229" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>3</v>
       </c>
@@ -14841,14 +15564,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N229" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O229" s="1"/>
+      <c r="N229" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O229" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P229" s="1"/>
       <c r="Q229" s="1"/>
-    </row>
-    <row r="230" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R229" s="1"/>
+    </row>
+    <row r="230" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>1</v>
       </c>
@@ -14889,14 +15615,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N230" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O230" s="1"/>
+      <c r="N230" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O230" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P230" s="1"/>
       <c r="Q230" s="1"/>
-    </row>
-    <row r="231" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R230" s="1"/>
+    </row>
+    <row r="231" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>2</v>
       </c>
@@ -14937,14 +15666,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N231" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O231" s="1"/>
+      <c r="N231" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O231" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P231" s="1"/>
       <c r="Q231" s="1"/>
-    </row>
-    <row r="232" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R231" s="1"/>
+    </row>
+    <row r="232" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>1</v>
       </c>
@@ -14985,14 +15717,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N232" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O232" s="1"/>
+      <c r="N232" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O232" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P232" s="1"/>
       <c r="Q232" s="1"/>
-    </row>
-    <row r="233" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R232" s="1"/>
+    </row>
+    <row r="233" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>1</v>
       </c>
@@ -15033,14 +15768,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N233" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O233" s="1"/>
+      <c r="N233" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O233" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P233" s="1"/>
       <c r="Q233" s="1"/>
-    </row>
-    <row r="234" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R233" s="1"/>
+    </row>
+    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>1</v>
       </c>
@@ -15081,14 +15819,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N234" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O234" s="1"/>
+      <c r="N234" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O234" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P234" s="1"/>
       <c r="Q234" s="1"/>
-    </row>
-    <row r="235" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R234" s="1"/>
+    </row>
+    <row r="235" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>2</v>
       </c>
@@ -15129,14 +15870,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N235" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O235" s="1"/>
+      <c r="N235" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O235" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P235" s="1"/>
       <c r="Q235" s="1"/>
-    </row>
-    <row r="236" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R235" s="1"/>
+    </row>
+    <row r="236" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>2</v>
       </c>
@@ -15177,14 +15921,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N236" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O236" s="1"/>
+      <c r="N236" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O236" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P236" s="1"/>
       <c r="Q236" s="1"/>
-    </row>
-    <row r="237" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R236" s="1"/>
+    </row>
+    <row r="237" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>4</v>
       </c>
@@ -15225,14 +15972,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N237" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O237" s="1"/>
+      <c r="N237" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O237" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P237" s="1"/>
       <c r="Q237" s="1"/>
-    </row>
-    <row r="238" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R237" s="1"/>
+    </row>
+    <row r="238" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>4</v>
       </c>
@@ -15273,14 +16023,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N238" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O238" s="1"/>
+      <c r="N238" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O238" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P238" s="1"/>
       <c r="Q238" s="1"/>
-    </row>
-    <row r="239" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R238" s="1"/>
+    </row>
+    <row r="239" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>3</v>
       </c>
@@ -15321,14 +16074,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N239" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O239" s="1"/>
+      <c r="N239" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O239" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P239" s="1"/>
       <c r="Q239" s="1"/>
-    </row>
-    <row r="240" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="R239" s="1"/>
+    </row>
+    <row r="240" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>1</v>
       </c>
@@ -15369,14 +16125,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N240" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O240" s="1"/>
+      <c r="N240" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O240" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P240" s="1"/>
       <c r="Q240" s="1"/>
-    </row>
-    <row r="241" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R240" s="1"/>
+    </row>
+    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>2</v>
       </c>
@@ -15417,14 +16176,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N241" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O241" s="1"/>
+      <c r="N241" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O241" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P241" s="1"/>
       <c r="Q241" s="1"/>
-    </row>
-    <row r="242" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R241" s="1"/>
+    </row>
+    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>2</v>
       </c>
@@ -15465,14 +16227,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N242" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O242" s="1"/>
+      <c r="N242" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O242" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P242" s="1"/>
       <c r="Q242" s="1"/>
-    </row>
-    <row r="243" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R242" s="1"/>
+    </row>
+    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>3</v>
       </c>
@@ -15513,14 +16278,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N243" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O243" s="1"/>
+      <c r="N243" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O243" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P243" s="1"/>
       <c r="Q243" s="1"/>
-    </row>
-    <row r="244" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R243" s="1"/>
+    </row>
+    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>3</v>
       </c>
@@ -15561,14 +16329,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N244" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O244" s="1"/>
+      <c r="N244" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O244" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P244" s="1"/>
       <c r="Q244" s="1"/>
-    </row>
-    <row r="245" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R244" s="1"/>
+    </row>
+    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>4</v>
       </c>
@@ -15609,14 +16380,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N245" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O245" s="1"/>
+      <c r="N245" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O245" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P245" s="1"/>
       <c r="Q245" s="1"/>
-    </row>
-    <row r="246" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R245" s="1"/>
+    </row>
+    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>4</v>
       </c>
@@ -15657,14 +16431,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N246" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O246" s="1"/>
+      <c r="N246" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O246" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P246" s="1"/>
       <c r="Q246" s="1"/>
-    </row>
-    <row r="247" spans="1:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="R246" s="1"/>
+    </row>
+    <row r="247" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>3</v>
       </c>
@@ -15705,14 +16482,17 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>0</v>
       </c>
-      <c r="N247" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O247" s="1"/>
+      <c r="N247" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O247" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="P247" s="1"/>
       <c r="Q247" s="1"/>
-    </row>
-    <row r="248" spans="1:17" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="R247" s="1"/>
+    </row>
+    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5">
         <v>6</v>
       </c>
@@ -15753,23 +16533,483 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>1</v>
       </c>
-      <c r="N248" s="5" t="s">
-        <v>24</v>
+      <c r="N248" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="O248" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P248" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="P248" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q248" s="5" t="s">
+      <c r="Q248" s="5">
+        <v>1</v>
+      </c>
+      <c r="R248" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="6">
+        <v>3</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E249" s="6">
+        <v>1</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G249" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H249" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I249" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J249" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K249" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L249" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M249" s="6" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N249" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O249" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P249" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q249" s="6">
+        <v>1</v>
+      </c>
+      <c r="R249" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="3">
+        <v>3</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E250" s="3">
+        <v>1</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L250" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M250" s="3" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N250" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O250" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P250" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q250" s="3">
+        <v>1</v>
+      </c>
+      <c r="R250" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="251" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="6">
+        <v>3</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D251" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E251" s="6">
+        <v>1</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G251" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H251" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I251" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J251" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K251" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L251" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M251" s="6" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N251" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O251" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P251" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q251" s="6">
+        <v>1</v>
+      </c>
+      <c r="R251" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="252" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="3">
+        <v>3</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E252" s="3">
+        <v>1</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L252" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M252" s="3" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N252" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O252" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P252" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q252" s="3">
+        <v>1</v>
+      </c>
+      <c r="R252" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="253" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="6">
+        <v>3</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E253" s="6">
+        <v>1</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G253" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H253" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I253" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="J253" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K253" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L253" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M253" s="6" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N253" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O253" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P253" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q253" s="6">
+        <v>1</v>
+      </c>
+      <c r="R253" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="254" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="6">
+        <v>3</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E254" s="6">
+        <v>1</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G254" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H254" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I254" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="J254" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K254" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L254" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M254" s="6" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N254" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O254" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P254" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q254" s="6">
+        <v>1</v>
+      </c>
+      <c r="R254" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+      <c r="A255" s="4">
+        <v>3</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D255" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E255" s="4">
+        <v>1</v>
+      </c>
+      <c r="F255" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G255" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H255" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I255" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="J255" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K255" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L255" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M255" s="4" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N255" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O255" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P255" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q255" s="4">
+        <v>1</v>
+      </c>
+      <c r="R255" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+      <c r="A256" s="4">
+        <v>3</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E256" s="4">
+        <v>1</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H256" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I256" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="J256" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K256" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L256" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M256" s="4" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N256" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O256" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P256" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q256" s="4">
+        <v>1</v>
+      </c>
+      <c r="R256" s="4" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/horarios/all.processed.xlsx
+++ b/data/horarios/all.processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80B6409-53BA-4F3F-9334-522ADABB3F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F740E869-AD98-4595-A85D-0AAFD143C1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3525,14 +3525,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}" name="Table1" displayName="Table1" ref="A1:R256" totalsRowShown="0" dataDxfId="17">
   <autoFilter ref="A1:R256" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}">
-    <filterColumn colId="1">
+    <filterColumn colId="9">
       <filters>
-        <filter val="AT"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="SEMINARIO DE INVESTIGACIONES DE AUDITORIA TRIBUTARIA SECTORIAL"/>
+        <filter val="LUNES"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3840,8 +3835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A255" sqref="A255"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66:J177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6319,7 +6314,7 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
     </row>
-    <row r="49" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -6370,7 +6365,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>3</v>
       </c>
@@ -7192,7 +7187,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -7294,7 +7289,7 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
     </row>
-    <row r="68" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -7549,7 +7544,7 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
     </row>
-    <row r="73" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -7804,7 +7799,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
     </row>
-    <row r="78" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -7906,7 +7901,7 @@
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
     </row>
-    <row r="80" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>4</v>
       </c>
@@ -7957,7 +7952,7 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>4</v>
       </c>
@@ -8212,7 +8207,7 @@
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
     </row>
-    <row r="86" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>1</v>
       </c>
@@ -8620,7 +8615,7 @@
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
     </row>
-    <row r="94" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>3</v>
       </c>
@@ -8671,7 +8666,7 @@
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
     </row>
-    <row r="95" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>3</v>
       </c>
@@ -8926,7 +8921,7 @@
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>4</v>
       </c>
@@ -8977,7 +8972,7 @@
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
     </row>
-    <row r="101" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>4</v>
       </c>
@@ -9130,7 +9125,7 @@
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
     </row>
-    <row r="104" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1</v>
       </c>
@@ -9181,7 +9176,7 @@
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -9385,7 +9380,7 @@
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
     </row>
-    <row r="109" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2</v>
       </c>
@@ -9436,7 +9431,7 @@
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
     </row>
-    <row r="110" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -9691,7 +9686,7 @@
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
     </row>
-    <row r="115" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>3</v>
       </c>
@@ -9793,7 +9788,7 @@
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
     </row>
-    <row r="117" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>3</v>
       </c>
@@ -9895,7 +9890,7 @@
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
     </row>
-    <row r="119" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>4</v>
       </c>
@@ -9946,7 +9941,7 @@
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
     </row>
-    <row r="120" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>4</v>
       </c>
@@ -10099,7 +10094,7 @@
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
     </row>
-    <row r="123" spans="1:18" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>1</v>
       </c>
@@ -10150,7 +10145,7 @@
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
     </row>
-    <row r="124" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>1</v>
       </c>
@@ -10303,7 +10298,7 @@
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
     </row>
-    <row r="127" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -10456,7 +10451,7 @@
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
     </row>
-    <row r="130" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -10609,7 +10604,7 @@
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
     </row>
-    <row r="133" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>3</v>
       </c>
@@ -10660,7 +10655,7 @@
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
     </row>
-    <row r="134" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>3</v>
       </c>
@@ -10921,7 +10916,7 @@
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
     </row>
-    <row r="139" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>4</v>
       </c>
@@ -12616,7 +12611,7 @@
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
     </row>
-    <row r="172" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>3</v>
       </c>
@@ -12667,7 +12662,7 @@
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
     </row>
-    <row r="173" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>3</v>
       </c>
@@ -12871,7 +12866,7 @@
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
     </row>
-    <row r="177" spans="1:18" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" ht="99" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>4</v>
       </c>
@@ -16891,7 +16886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="255" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>3</v>
       </c>
@@ -16948,7 +16943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="256" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>3</v>
       </c>

--- a/data/horarios/all.processed.xlsx
+++ b/data/horarios/all.processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F740E869-AD98-4595-A85D-0AAFD143C1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901FF36D-73B6-423E-B575-90699677F37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="1110">
   <si>
     <t>ciclo</t>
   </si>
@@ -3360,6 +3360,9 @@
   </si>
   <si>
     <t>C3S2A333</t>
+  </si>
+  <si>
+    <t>C3P22314</t>
   </si>
 </sst>
 </file>
@@ -3375,7 +3378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3412,6 +3415,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3425,7 +3434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3450,6 +3459,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3523,11 +3536,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}" name="Table1" displayName="Table1" ref="A1:R256" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="A1:R256" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}">
-    <filterColumn colId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}" name="Table1" displayName="Table1" ref="A1:R257" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="A1:R257" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}">
+    <filterColumn colId="1">
       <filters>
-        <filter val="LUNES"/>
+        <filter val="PST"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="METODOLOGIA Y DISEÑO DE LA INVESTIGACION"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3833,10 +3851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R256"/>
+  <dimension ref="A1:R257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="J66" sqref="J66:J177"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7187,7 +7205,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -7289,7 +7307,7 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
     </row>
-    <row r="68" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -7544,7 +7562,7 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
     </row>
-    <row r="73" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -7799,7 +7817,7 @@
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
     </row>
-    <row r="78" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -7901,7 +7919,7 @@
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
     </row>
-    <row r="80" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>4</v>
       </c>
@@ -7952,7 +7970,7 @@
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>4</v>
       </c>
@@ -8207,7 +8225,7 @@
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
     </row>
-    <row r="86" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>1</v>
       </c>
@@ -8615,7 +8633,7 @@
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
     </row>
-    <row r="94" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>3</v>
       </c>
@@ -8666,7 +8684,7 @@
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
     </row>
-    <row r="95" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>3</v>
       </c>
@@ -8921,7 +8939,7 @@
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>4</v>
       </c>
@@ -8972,7 +8990,7 @@
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
     </row>
-    <row r="101" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>4</v>
       </c>
@@ -9125,7 +9143,7 @@
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
     </row>
-    <row r="104" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>1</v>
       </c>
@@ -9176,7 +9194,7 @@
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -9380,7 +9398,7 @@
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
     </row>
-    <row r="109" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2</v>
       </c>
@@ -9431,7 +9449,7 @@
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
     </row>
-    <row r="110" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -9686,7 +9704,7 @@
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
     </row>
-    <row r="115" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>3</v>
       </c>
@@ -9788,7 +9806,7 @@
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
     </row>
-    <row r="117" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>3</v>
       </c>
@@ -9890,7 +9908,7 @@
       <c r="Q118" s="2"/>
       <c r="R118" s="2"/>
     </row>
-    <row r="119" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>4</v>
       </c>
@@ -9941,7 +9959,7 @@
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
     </row>
-    <row r="120" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>4</v>
       </c>
@@ -10094,7 +10112,7 @@
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
     </row>
-    <row r="123" spans="1:18" ht="66" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>1</v>
       </c>
@@ -10145,7 +10163,7 @@
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
     </row>
-    <row r="124" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>1</v>
       </c>
@@ -10298,7 +10316,7 @@
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
     </row>
-    <row r="127" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -10451,7 +10469,7 @@
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
     </row>
-    <row r="130" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -10604,7 +10622,7 @@
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
     </row>
-    <row r="133" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>3</v>
       </c>
@@ -10655,7 +10673,7 @@
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
     </row>
-    <row r="134" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>3</v>
       </c>
@@ -10916,7 +10934,7 @@
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
     </row>
-    <row r="139" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>4</v>
       </c>
@@ -12611,7 +12629,7 @@
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
     </row>
-    <row r="172" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>3</v>
       </c>
@@ -12662,7 +12680,7 @@
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
     </row>
-    <row r="173" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>3</v>
       </c>
@@ -12866,7 +12884,7 @@
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
     </row>
-    <row r="177" spans="1:18" ht="99" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" ht="99" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>4</v>
       </c>
@@ -15671,7 +15689,7 @@
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
     </row>
-    <row r="232" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>1</v>
       </c>
@@ -15722,7 +15740,7 @@
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
     </row>
-    <row r="233" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>1</v>
       </c>
@@ -16997,6 +17015,63 @@
         <v>1</v>
       </c>
       <c r="R256" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="257" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+      <c r="A257" s="10">
+        <v>1</v>
+      </c>
+      <c r="B257" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C257" s="10" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D257" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E257" s="10">
+        <v>1</v>
+      </c>
+      <c r="F257" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G257" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H257" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="I257" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="J257" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K257" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L257" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M257" s="10" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N257" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O257" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P257" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="Q257" s="10">
+        <v>1</v>
+      </c>
+      <c r="R257" s="10" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data/horarios/all.processed.xlsx
+++ b/data/horarios/all.processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901FF36D-73B6-423E-B575-90699677F37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78460894-EFE6-45EC-8930-86DBCF0C00DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2965" uniqueCount="1113">
   <si>
     <t>ciclo</t>
   </si>
@@ -3363,6 +3363,15 @@
   </si>
   <si>
     <t>C3P22314</t>
+  </si>
+  <si>
+    <t>C3P21334</t>
+  </si>
+  <si>
+    <t>C3S2A334</t>
+  </si>
+  <si>
+    <t>C3S20132</t>
   </si>
 </sst>
 </file>
@@ -3378,7 +3387,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3421,6 +3430,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3434,7 +3449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3463,6 +3478,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3536,22 +3554,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}" name="Table1" displayName="Table1" ref="A1:R257" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="A1:R257" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}" name="Table1" displayName="Table1" ref="A1:R265" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="A1:R265" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}">
     <filterColumn colId="1">
       <filters>
-        <filter val="PST"/>
+        <filter val="MPTI"/>
       </filters>
     </filterColumn>
     <filterColumn colId="3">
       <filters>
-        <filter val="METODOLOGIA Y DISEÑO DE LA INVESTIGACION"/>
+        <filter val="TALLER DE TESIS I"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:R248">
-    <sortCondition ref="G2:G248"/>
-    <sortCondition ref="C2:C248"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A59:R61">
+    <sortCondition ref="E1:E257"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{44E3F106-9108-4465-9FAD-59684B124153}" name="ciclo" dataDxfId="16"/>
@@ -3851,10 +3868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R257"/>
+  <dimension ref="A1:R265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257"/>
+      <selection activeCell="D267" sqref="D267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6856,19 +6873,19 @@
         <v>105</v>
       </c>
       <c r="E59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>21</v>
@@ -6907,19 +6924,19 @@
         <v>105</v>
       </c>
       <c r="E60" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>21</v>
@@ -6958,19 +6975,19 @@
         <v>105</v>
       </c>
       <c r="E61" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>21</v>
@@ -14771,7 +14788,7 @@
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>1</v>
       </c>
@@ -14822,7 +14839,7 @@
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
     </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>1</v>
       </c>
@@ -15689,7 +15706,7 @@
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
     </row>
-    <row r="232" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>1</v>
       </c>
@@ -15740,7 +15757,7 @@
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
     </row>
-    <row r="233" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>1</v>
       </c>
@@ -17018,7 +17035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="10">
         <v>1</v>
       </c>
@@ -17072,6 +17089,462 @@
         <v>1</v>
       </c>
       <c r="R257" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="4">
+        <v>3</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E258" s="4">
+        <v>2</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G258" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H258" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I258" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J258" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K258" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L258" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M258" s="4" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N258" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O258" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P258" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q258" s="4">
+        <v>2</v>
+      </c>
+      <c r="R258" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="4">
+        <v>3</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D259" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E259" s="4">
+        <v>2</v>
+      </c>
+      <c r="F259" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H259" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I259" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J259" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K259" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L259" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M259" s="4" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N259" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O259" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P259" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q259" s="4">
+        <v>2</v>
+      </c>
+      <c r="R259" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="3">
+        <v>3</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E260" s="3">
+        <v>3</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J260" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K260" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L260" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M260" s="3" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N260" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O260" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P260" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q260" s="3">
+        <v>3</v>
+      </c>
+      <c r="R260" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="3">
+        <v>3</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E261" s="3">
+        <v>3</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J261" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K261" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L261" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M261" s="3" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N261" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O261" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P261" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q261" s="3">
+        <v>3</v>
+      </c>
+      <c r="R261" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="12">
+        <v>3</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E262" s="12">
+        <v>1</v>
+      </c>
+      <c r="F262" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G262" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H262" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="I262" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="J262" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K262" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L262" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M262" s="12" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N262" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O262" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P262" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q262" s="12">
+        <v>1</v>
+      </c>
+      <c r="R262" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="12">
+        <v>3</v>
+      </c>
+      <c r="B263" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C263" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D263" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E263" s="12">
+        <v>1</v>
+      </c>
+      <c r="F263" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="G263" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="H263" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="I263" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="J263" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K263" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L263" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M263" s="12" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N263" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O263" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P263" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q263" s="12">
+        <v>1</v>
+      </c>
+      <c r="R263" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="5">
+        <v>3</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E264" s="5">
+        <v>2</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="H264" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I264" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="J264" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="K264" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="L264" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="M264" s="5" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N264" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O264" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P264" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q264" s="5">
+        <v>2</v>
+      </c>
+      <c r="R264" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A265" s="12">
+        <v>1</v>
+      </c>
+      <c r="B265" s="12" t="s">
+        <v>959</v>
+      </c>
+      <c r="C265" s="12" t="s">
+        <v>986</v>
+      </c>
+      <c r="D265" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E265" s="12">
+        <v>2</v>
+      </c>
+      <c r="F265" s="12" t="s">
+        <v>961</v>
+      </c>
+      <c r="G265" s="12" t="s">
+        <v>962</v>
+      </c>
+      <c r="H265" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="I265" s="12" t="s">
+        <v>964</v>
+      </c>
+      <c r="J265" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="K265" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L265" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M265" s="12" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N265" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O265" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P265" s="12" t="s">
+        <v>960</v>
+      </c>
+      <c r="Q265" s="12">
+        <v>2</v>
+      </c>
+      <c r="R265" s="12" t="s">
         <v>24</v>
       </c>
     </row>

--- a/data/horarios/all.processed.xlsx
+++ b/data/horarios/all.processed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2CC0D4-84C8-497D-BE4B-584D281EBD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A986BBB9-0017-44BA-8ED9-95AAF354415B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="1114">
   <si>
     <t>ciclo</t>
   </si>
@@ -1755,15 +1755,6 @@
   </si>
   <si>
     <t>(E) TALLER DE REDACCION DE ARTICULOS DE INVESTIGACION</t>
-  </si>
-  <si>
-    <t>40607189</t>
-  </si>
-  <si>
-    <t>VALDIVIEZO</t>
-  </si>
-  <si>
-    <t>EVA MERCEDES</t>
   </si>
   <si>
     <t>CPGE</t>
@@ -3526,7 +3517,6 @@
   </cellStyles>
   <dxfs count="18">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3560,6 +3550,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3596,41 +3587,36 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}" name="Table1" displayName="Table1" ref="A1:R274" totalsRowShown="0" dataDxfId="17">
   <autoFilter ref="A1:R274" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}">
-    <filterColumn colId="1">
+    <filterColumn colId="9">
       <filters>
-        <filter val="CIA"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="TALLER DE TESIS II"/>
+        <filter val="DOMINGO"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A59:R61">
-    <sortCondition ref="E1:E257"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A144:R214">
+    <sortCondition ref="C1:C274"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{44E3F106-9108-4465-9FAD-59684B124153}" name="ciclo" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{32D80393-2302-4B11-B4D3-BCFD5C8F0913}" name="escuela" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{B5DE8A2D-2263-4F86-B465-626658F3A862}" name="codigo_de_asignatura" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{03D09629-107E-4A07-B0B0-66ED4B3A9912}" name="asignatura" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{2C12D67C-4781-4516-8E58-D9C3738F6863}" name="seccion" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{2E1699DC-8FA6-4000-99E3-8E96ECA3DC27}" name="identificacion" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{15DEC4EE-74BE-4BF4-9C95-AE0F099F1765}" name="apellido_paterno" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{5D4B2FCF-FBB8-4AB6-8617-98D70FFE2516}" name="apellido_materno" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{43649024-F9FF-4DFF-8635-DBB37F6C56E3}" name="nombres" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{B83C4D11-4A1E-4BD3-BF33-EFB3BE9214EA}" name="dia_de_la_semana" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{4BC07E34-9142-4A87-BF07-5039845ED98A}" name="hora_de_inicio" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{C0413A04-2E33-4912-8DF6-649E9CF801EE}" name="hora_de_finalizacion" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{841E5BC6-92A0-4D7E-ADA9-920587F2D088}" name="rectificacion" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{2C12D67C-4781-4516-8E58-D9C3738F6863}" name="seccion" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{2E1699DC-8FA6-4000-99E3-8E96ECA3DC27}" name="identificacion" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{15DEC4EE-74BE-4BF4-9C95-AE0F099F1765}" name="apellido_paterno" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{5D4B2FCF-FBB8-4AB6-8617-98D70FFE2516}" name="apellido_materno" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{43649024-F9FF-4DFF-8635-DBB37F6C56E3}" name="nombres" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{B83C4D11-4A1E-4BD3-BF33-EFB3BE9214EA}" name="dia_de_la_semana" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{4BC07E34-9142-4A87-BF07-5039845ED98A}" name="hora_de_inicio" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{C0413A04-2E33-4912-8DF6-649E9CF801EE}" name="hora_de_finalizacion" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{841E5BC6-92A0-4D7E-ADA9-920587F2D088}" name="rectificacion" dataDxfId="4">
       <calculatedColumnFormula>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{5897BCFC-DC54-4820-8E5A-6E86222A2E36}" name="otro_plan_de_estudios"/>
-    <tableColumn id="14" xr3:uid="{FDAA9B62-F6FB-4EEA-9599-2CF7FC43EDEE}" name="aula" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{0ECEA8D3-846B-445D-8045-4860BD003F3E}" name="codigo_de_asignatura_de_referencia" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{EBE1AB66-D68A-49AC-9A15-ADA52A5F5803}" name="seccion_de_referencia" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{FBC261DB-26EA-4CE8-86FA-8AAE70DE7F65}" name="aula_de_referencia" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{FDAA9B62-F6FB-4EEA-9599-2CF7FC43EDEE}" name="aula" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{0ECEA8D3-846B-445D-8045-4860BD003F3E}" name="codigo_de_asignatura_de_referencia" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{EBE1AB66-D68A-49AC-9A15-ADA52A5F5803}" name="seccion_de_referencia" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{FBC261DB-26EA-4CE8-86FA-8AAE70DE7F65}" name="aula_de_referencia" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3911,7 +3897,7 @@
   <dimension ref="A1:R274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F279" sqref="F279"/>
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3977,19 +3963,19 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="O1" t="s">
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="Q1" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="R1" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
@@ -5946,8 +5932,8 @@
       <c r="E40" s="7">
         <v>1</v>
       </c>
-      <c r="F40" s="17">
-        <v>6784373</v>
+      <c r="F40" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>225</v>
@@ -7108,10 +7094,10 @@
         <v>4</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>194</v>
@@ -7151,7 +7137,7 @@
         <v>23</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="Q63" s="3">
         <v>1</v>
@@ -9659,7 +9645,7 @@
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>3</v>
       </c>
@@ -9710,7 +9696,7 @@
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>3</v>
       </c>
@@ -9919,28 +9905,28 @@
         <v>4</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E118" s="2">
         <v>2</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>496</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>20</v>
@@ -9949,7 +9935,7 @@
         <v>66</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M118" s="2" t="b">
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
@@ -9962,7 +9948,7 @@
         <v>23</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="Q118" s="2">
         <v>1</v>
@@ -10090,16 +10076,16 @@
         <v>1</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>574</v>
+        <v>433</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>213</v>
+        <v>434</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>575</v>
+        <v>435</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>576</v>
+        <v>436</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>339</v>
@@ -10129,10 +10115,10 @@
         <v>1</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>260</v>
@@ -10141,16 +10127,16 @@
         <v>1</v>
       </c>
       <c r="F122" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="I122" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>321</v>
@@ -10180,13 +10166,13 @@
         <v>1</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E123" s="1">
         <v>1</v>
@@ -10231,13 +10217,13 @@
         <v>1</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E124" s="1">
         <v>1</v>
@@ -10282,10 +10268,10 @@
         <v>2</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>98</v>
@@ -10294,16 +10280,16 @@
         <v>1</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>241</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>321</v>
@@ -10333,10 +10319,10 @@
         <v>2</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>98</v>
@@ -10345,16 +10331,16 @@
         <v>2</v>
       </c>
       <c r="F126" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="I126" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>321</v>
@@ -10384,28 +10370,28 @@
         <v>2</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1</v>
+      </c>
+      <c r="F127" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="E127" s="1">
-        <v>1</v>
-      </c>
-      <c r="F127" s="15" t="s">
+      <c r="I127" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>333</v>
@@ -10435,13 +10421,13 @@
         <v>2</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
@@ -10486,10 +10472,10 @@
         <v>2</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>244</v>
@@ -10537,28 +10523,28 @@
         <v>2</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1</v>
+      </c>
+      <c r="F130" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="E130" s="1">
-        <v>1</v>
-      </c>
-      <c r="F130" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>350</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>333</v>
@@ -10588,10 +10574,10 @@
         <v>3</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>104</v>
@@ -10600,16 +10586,16 @@
         <v>1</v>
       </c>
       <c r="F131" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="I131" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>613</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>321</v>
@@ -10639,28 +10625,28 @@
         <v>3</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E132" s="1">
+        <v>1</v>
+      </c>
+      <c r="F132" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="G132" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="H132" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="E132" s="1">
-        <v>1</v>
-      </c>
-      <c r="F132" s="15" t="s">
+      <c r="I132" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>619</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>339</v>
@@ -10690,28 +10676,28 @@
         <v>3</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E133" s="1">
         <v>1</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>404</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>333</v>
@@ -10741,28 +10727,28 @@
         <v>3</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E134" s="1">
+        <v>1</v>
+      </c>
+      <c r="F134" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="G134" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="H134" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="E134" s="1">
-        <v>1</v>
-      </c>
-      <c r="F134" s="15" t="s">
+      <c r="I134" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>333</v>
@@ -10792,28 +10778,28 @@
         <v>3</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E135" s="1">
         <v>1</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>350</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>339</v>
@@ -10843,28 +10829,28 @@
         <v>4</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E136" s="2">
         <v>1</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>496</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="J136" s="2" t="s">
         <v>20</v>
@@ -10873,7 +10859,7 @@
         <v>66</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M136" s="2" t="b">
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
@@ -10894,22 +10880,22 @@
         <v>4</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E137" s="1">
         <v>1</v>
       </c>
       <c r="F137" s="15" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>63</v>
@@ -10945,28 +10931,28 @@
         <v>4</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E138" s="1">
         <v>1</v>
       </c>
       <c r="F138" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="I138" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>619</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>339</v>
@@ -10996,28 +10982,28 @@
         <v>4</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E139" s="1">
         <v>1</v>
       </c>
       <c r="F139" s="15" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>404</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>333</v>
@@ -11047,13 +11033,13 @@
         <v>1</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E140" s="1">
         <v>1</v>
@@ -11098,28 +11084,28 @@
         <v>2</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E141" s="1">
+        <v>1</v>
+      </c>
+      <c r="F141" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="H141" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="E141" s="1">
-        <v>1</v>
-      </c>
-      <c r="F141" s="15" t="s">
+      <c r="I141" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>20</v>
@@ -11149,28 +11135,28 @@
         <v>3</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E142" s="1">
         <v>1</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>299</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>20</v>
@@ -11200,28 +11186,28 @@
         <v>1</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E143" s="1">
+        <v>1</v>
+      </c>
+      <c r="F143" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="H143" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="E143" s="1">
-        <v>1</v>
-      </c>
-      <c r="F143" s="15" t="s">
+      <c r="I143" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>20</v>
@@ -11246,56 +11232,56 @@
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
-        <v>1</v>
-      </c>
-      <c r="B144" s="1" t="s">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A144" s="5">
+        <v>1</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E144" s="5">
+        <v>1</v>
+      </c>
+      <c r="F144" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="G144" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="H144" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E144" s="1">
-        <v>1</v>
-      </c>
-      <c r="F144" s="15" t="s">
+      <c r="I144" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="J144" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="H144" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="K144" s="1" t="s">
+      <c r="K144" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L144" s="1" t="s">
+      <c r="L144" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M144" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N144" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O144" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
+      <c r="M144" s="5" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N144" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O144" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
     </row>
     <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
@@ -11353,28 +11339,28 @@
         <v>2</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E146" s="1">
+        <v>1</v>
+      </c>
+      <c r="F146" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="E146" s="1">
-        <v>1</v>
-      </c>
-      <c r="F146" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>677</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>302</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>20</v>
@@ -11404,37 +11390,37 @@
         <v>1</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="H147" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="E147" s="1">
-        <v>1</v>
-      </c>
-      <c r="F147" s="15" t="s">
+      <c r="I147" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="M147" s="1" t="b">
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
@@ -11455,13 +11441,13 @@
         <v>6</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
@@ -11506,28 +11492,28 @@
         <v>5</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1</v>
+      </c>
+      <c r="F149" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="E149" s="1">
-        <v>1</v>
-      </c>
-      <c r="F149" s="15" t="s">
-        <v>691</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>692</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>50</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>20</v>
@@ -11557,13 +11543,13 @@
         <v>4</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
@@ -11608,25 +11594,25 @@
         <v>1</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E151" s="1">
+        <v>1</v>
+      </c>
+      <c r="F151" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="H151" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="E151" s="1">
-        <v>1</v>
-      </c>
-      <c r="F151" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>84</v>
@@ -11638,7 +11624,7 @@
         <v>66</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M151" s="1" t="b">
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
@@ -11716,28 +11702,28 @@
         <v>3</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E153" s="1">
+        <v>1</v>
+      </c>
+      <c r="F153" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="G153" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="H153" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="E153" s="1">
-        <v>1</v>
-      </c>
-      <c r="F153" s="15" t="s">
+      <c r="I153" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>20</v>
@@ -11746,7 +11732,7 @@
         <v>66</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M153" s="1" t="b">
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
@@ -11767,28 +11753,28 @@
         <v>4</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E154" s="1">
+        <v>1</v>
+      </c>
+      <c r="F154" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="E154" s="1">
-        <v>1</v>
-      </c>
-      <c r="F154" s="15" t="s">
-        <v>714</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>715</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>20</v>
@@ -11797,7 +11783,7 @@
         <v>66</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M154" s="1" t="b">
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
@@ -11818,28 +11804,28 @@
         <v>3</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E155" s="1">
+        <v>1</v>
+      </c>
+      <c r="F155" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="H155" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="E155" s="1">
-        <v>1</v>
-      </c>
-      <c r="F155" s="15" t="s">
+      <c r="I155" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>723</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>20</v>
@@ -11869,28 +11855,28 @@
         <v>1</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E156" s="1">
+        <v>1</v>
+      </c>
+      <c r="F156" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="G156" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="H156" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I156" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="E156" s="1">
-        <v>1</v>
-      </c>
-      <c r="F156" s="15" t="s">
-        <v>726</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>728</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>20</v>
@@ -11920,37 +11906,37 @@
         <v>1</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E157" s="1">
+        <v>1</v>
+      </c>
+      <c r="F157" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="H157" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="I157" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="E157" s="1">
-        <v>1</v>
-      </c>
-      <c r="F157" s="15" t="s">
-        <v>726</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>728</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="M157" s="1" t="b">
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
@@ -11971,25 +11957,25 @@
         <v>2</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C158" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E158" s="5">
+        <v>1</v>
+      </c>
+      <c r="F158" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="H158" s="5" t="s">
         <v>702</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E158" s="5">
-        <v>1</v>
-      </c>
-      <c r="F158" s="19" t="s">
-        <v>703</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="H158" s="5" t="s">
-        <v>705</v>
       </c>
       <c r="I158" s="5" t="s">
         <v>429</v>
@@ -12001,7 +11987,7 @@
         <v>66</v>
       </c>
       <c r="L158" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M158" s="5" t="b">
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
@@ -12022,25 +12008,25 @@
         <v>2</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="E159" s="5">
         <v>1</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="I159" s="5" t="s">
         <v>429</v>
@@ -12052,11 +12038,11 @@
         <v>66</v>
       </c>
       <c r="L159" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M159" s="5" t="b">
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N159" s="1" t="b">
         <v>0</v>
@@ -12064,22 +12050,28 @@
       <c r="O159" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P159" s="5"/>
-      <c r="Q159" s="5"/>
-      <c r="R159" s="5"/>
+      <c r="P159" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q159" s="5">
+        <v>1</v>
+      </c>
+      <c r="R159" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="160" spans="1:18" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>3</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E160" s="1">
         <v>1</v>
@@ -12124,28 +12116,28 @@
         <v>2</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C161" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E161" s="1">
+        <v>1</v>
+      </c>
+      <c r="F161" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="G161" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="H161" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="E161" s="1">
-        <v>1</v>
-      </c>
-      <c r="F161" s="15" t="s">
+      <c r="I161" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>20</v>
@@ -12175,28 +12167,28 @@
         <v>2</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E162" s="1">
+        <v>1</v>
+      </c>
+      <c r="F162" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="H162" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="E162" s="1">
-        <v>1</v>
-      </c>
-      <c r="F162" s="15" t="s">
+      <c r="I162" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>20</v>
@@ -12226,28 +12218,28 @@
         <v>1</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E163" s="1">
         <v>1</v>
       </c>
       <c r="F163" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="I163" s="1" t="s">
         <v>737</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>740</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>20</v>
@@ -12277,37 +12269,37 @@
         <v>1</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E164" s="1">
         <v>1</v>
       </c>
       <c r="F164" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="I164" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>652</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="M164" s="1" t="b">
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
@@ -12328,28 +12320,28 @@
         <v>4</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E165" s="1">
         <v>1</v>
       </c>
       <c r="F165" s="15" t="s">
-        <v>574</v>
+        <v>1015</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>213</v>
+        <v>1016</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>575</v>
+        <v>56</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>576</v>
+        <v>1017</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>20</v>
@@ -12379,28 +12371,28 @@
         <v>1</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E166" s="1">
         <v>1</v>
       </c>
       <c r="F166" s="15" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>156</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>20</v>
@@ -12409,7 +12401,7 @@
         <v>66</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M166" s="1" t="b">
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
@@ -12427,31 +12419,31 @@
     </row>
     <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E167" s="6">
         <v>1</v>
       </c>
       <c r="F167" s="13" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G167" s="6" t="s">
         <v>299</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="J167" s="6" t="s">
         <v>20</v>
@@ -12460,7 +12452,7 @@
         <v>38</v>
       </c>
       <c r="L167" s="6" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M167" s="6" t="b">
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
@@ -12481,28 +12473,28 @@
         <v>3</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E168" s="1">
         <v>1</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>20</v>
@@ -12511,7 +12503,7 @@
         <v>66</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="M168" s="1" t="b">
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
@@ -12532,31 +12524,31 @@
         <v>4</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E169" s="1">
+        <v>1</v>
+      </c>
+      <c r="F169" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="H169" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="E169" s="1">
-        <v>1</v>
-      </c>
-      <c r="F169" s="15" t="s">
+      <c r="I169" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="J169" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="J169" s="1" t="s">
-        <v>765</v>
       </c>
       <c r="K169" s="1" t="s">
         <v>322</v>
@@ -12580,31 +12572,31 @@
     </row>
     <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E170" s="6">
         <v>1</v>
       </c>
       <c r="F170" s="13" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G170" s="6" t="s">
         <v>299</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="J170" s="6" t="s">
         <v>20</v>
@@ -12613,7 +12605,7 @@
         <v>38</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M170" s="6" t="b">
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
@@ -12626,7 +12618,7 @@
         <v>23</v>
       </c>
       <c r="P170" s="6" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="Q170" s="6">
         <v>1</v>
@@ -12640,10 +12632,10 @@
         <v>3</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>104</v>
@@ -12652,16 +12644,16 @@
         <v>1</v>
       </c>
       <c r="F171" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="I171" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="I171" s="1" t="s">
-        <v>775</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>321</v>
@@ -12691,13 +12683,13 @@
         <v>3</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E172" s="1">
         <v>1</v>
@@ -12742,13 +12734,13 @@
         <v>3</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E173" s="1">
         <v>1</v>
@@ -12793,13 +12785,13 @@
         <v>3</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E174" s="1">
         <v>1</v>
@@ -12844,28 +12836,28 @@
         <v>3</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E175" s="1">
         <v>1</v>
       </c>
       <c r="F175" s="15" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>350</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>339</v>
@@ -12895,10 +12887,10 @@
         <v>4</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>194</v>
@@ -12946,28 +12938,28 @@
         <v>4</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E177" s="1">
         <v>1</v>
       </c>
       <c r="F177" s="15" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>331</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>333</v>
@@ -12997,28 +12989,28 @@
         <v>4</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C178" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="E178" s="1">
+        <v>1</v>
+      </c>
+      <c r="F178" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="G178" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="E178" s="1">
-        <v>1</v>
-      </c>
-      <c r="F178" s="15" t="s">
-        <v>792</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>793</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>375</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>339</v>
@@ -13048,28 +13040,28 @@
         <v>4</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E179" s="1">
         <v>1</v>
       </c>
       <c r="F179" s="15" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>337</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>339</v>
@@ -13096,31 +13088,31 @@
     </row>
     <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C180" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E180" s="5">
+        <v>1</v>
+      </c>
+      <c r="F180" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="G180" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="H180" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="D180" s="5" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E180" s="5">
-        <v>1</v>
-      </c>
-      <c r="F180" s="19" t="s">
+      <c r="I180" s="5" t="s">
         <v>670</v>
-      </c>
-      <c r="G180" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="H180" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="I180" s="5" t="s">
-        <v>673</v>
       </c>
       <c r="J180" s="5" t="s">
         <v>20</v>
@@ -13129,7 +13121,7 @@
         <v>38</v>
       </c>
       <c r="L180" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M180" s="5" t="b">
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
@@ -13150,31 +13142,31 @@
         <v>1</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E181" s="1">
         <v>1</v>
       </c>
       <c r="F181" s="15" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>552</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K181" s="1" t="s">
         <v>322</v>
@@ -13201,31 +13193,31 @@
         <v>1</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E182" s="1">
+        <v>1</v>
+      </c>
+      <c r="F182" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="H182" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="E182" s="1">
-        <v>1</v>
-      </c>
-      <c r="F182" s="15" t="s">
+      <c r="I182" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>818</v>
-      </c>
       <c r="J182" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K182" s="1" t="s">
         <v>322</v>
@@ -13252,31 +13244,31 @@
         <v>1</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E183" s="1">
         <v>1</v>
       </c>
       <c r="F183" s="15" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>350</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K183" s="1" t="s">
         <v>322</v>
@@ -13303,31 +13295,31 @@
         <v>1</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="E184" s="1">
+        <v>1</v>
+      </c>
+      <c r="F184" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="G184" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="H184" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="E184" s="1">
-        <v>1</v>
-      </c>
-      <c r="F184" s="15" t="s">
+      <c r="I184" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="G184" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>828</v>
-      </c>
       <c r="J184" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K184" s="1" t="s">
         <v>322</v>
@@ -13349,36 +13341,36 @@
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
     </row>
-    <row r="185" spans="1:18" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>1</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E185" s="1">
+        <v>1</v>
+      </c>
+      <c r="F185" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="G185" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="H185" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="E185" s="1">
-        <v>1</v>
-      </c>
-      <c r="F185" s="15" t="s">
+      <c r="I185" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="G185" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>834</v>
-      </c>
       <c r="J185" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K185" s="1" t="s">
         <v>21</v>
@@ -13400,27 +13392,27 @@
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>2</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E186" s="1">
+        <v>1</v>
+      </c>
+      <c r="F186" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="G186" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="E186" s="1">
-        <v>1</v>
-      </c>
-      <c r="F186" s="15" t="s">
-        <v>837</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>838</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>150</v>
@@ -13429,7 +13421,7 @@
         <v>231</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K186" s="1" t="s">
         <v>66</v>
@@ -13456,31 +13448,31 @@
         <v>2</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E187" s="1">
         <v>1</v>
       </c>
       <c r="F187" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="I187" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="G187" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="I187" s="1" t="s">
-        <v>834</v>
-      </c>
       <c r="J187" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K187" s="1" t="s">
         <v>322</v>
@@ -13507,31 +13499,31 @@
         <v>2</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C188" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="E188" s="1">
+        <v>1</v>
+      </c>
+      <c r="F188" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="G188" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="H188" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="E188" s="1">
-        <v>1</v>
-      </c>
-      <c r="F188" s="15" t="s">
+      <c r="I188" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="G188" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>846</v>
-      </c>
       <c r="J188" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K188" s="1" t="s">
         <v>322</v>
@@ -13553,36 +13545,36 @@
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
     </row>
-    <row r="189" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>2</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C189" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E189" s="1">
+        <v>1</v>
+      </c>
+      <c r="F189" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="G189" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="H189" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="E189" s="1">
-        <v>1</v>
-      </c>
-      <c r="F189" s="15" t="s">
+      <c r="I189" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="G189" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>852</v>
-      </c>
       <c r="J189" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K189" s="1" t="s">
         <v>21</v>
@@ -13609,31 +13601,31 @@
         <v>2</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C190" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E190" s="1">
+        <v>1</v>
+      </c>
+      <c r="F190" s="15" t="s">
+        <v>852</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="H190" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="I190" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="E190" s="1">
-        <v>1</v>
-      </c>
-      <c r="F190" s="15" t="s">
-        <v>855</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="I190" s="1" t="s">
-        <v>857</v>
-      </c>
       <c r="J190" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K190" s="1" t="s">
         <v>322</v>
@@ -13660,31 +13652,31 @@
         <v>2</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E191" s="1">
         <v>1</v>
       </c>
       <c r="F191" s="15" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>267</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K191" s="1" t="s">
         <v>322</v>
@@ -13706,36 +13698,36 @@
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
     </row>
-    <row r="192" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>1</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E192" s="1">
+        <v>1</v>
+      </c>
+      <c r="F192" s="15" t="s">
         <v>863</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="G192" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="H192" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="E192" s="1">
-        <v>1</v>
-      </c>
-      <c r="F192" s="15" t="s">
+      <c r="I192" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="G192" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>869</v>
-      </c>
       <c r="J192" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K192" s="1" t="s">
         <v>66</v>
@@ -13762,31 +13754,31 @@
         <v>1</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="E193" s="1">
+        <v>1</v>
+      </c>
+      <c r="F193" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="G193" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="H193" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="E193" s="1">
-        <v>1</v>
-      </c>
-      <c r="F193" s="15" t="s">
+      <c r="I193" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="G193" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="I193" s="1" t="s">
-        <v>875</v>
-      </c>
       <c r="J193" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K193" s="1" t="s">
         <v>322</v>
@@ -13813,31 +13805,31 @@
         <v>1</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E194" s="1">
         <v>1</v>
       </c>
       <c r="F194" s="15" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>220</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K194" s="1" t="s">
         <v>322</v>
@@ -13864,31 +13856,31 @@
         <v>1</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E195" s="1">
         <v>1</v>
       </c>
       <c r="F195" s="15" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>439</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K195" s="1" t="s">
         <v>322</v>
@@ -13915,31 +13907,31 @@
         <v>1</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E196" s="1">
         <v>1</v>
       </c>
       <c r="F196" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="I196" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="G196" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="I196" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="J196" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K196" s="1" t="s">
         <v>322</v>
@@ -13961,36 +13953,36 @@
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
     </row>
-    <row r="197" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>2</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C197" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1</v>
+      </c>
+      <c r="F197" s="15" t="s">
+        <v>887</v>
+      </c>
+      <c r="G197" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="H197" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="E197" s="1">
-        <v>1</v>
-      </c>
-      <c r="F197" s="15" t="s">
+      <c r="I197" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="G197" s="1" t="s">
-        <v>891</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="I197" s="1" t="s">
-        <v>893</v>
-      </c>
       <c r="J197" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K197" s="1" t="s">
         <v>66</v>
@@ -14012,36 +14004,36 @@
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
     </row>
-    <row r="198" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>2</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E198" s="1">
         <v>2</v>
       </c>
       <c r="F198" s="15" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>439</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K198" s="1" t="s">
         <v>66</v>
@@ -14068,31 +14060,31 @@
         <v>2</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C199" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E199" s="1">
+        <v>1</v>
+      </c>
+      <c r="F199" s="15" t="s">
+        <v>893</v>
+      </c>
+      <c r="G199" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="H199" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="E199" s="1">
-        <v>1</v>
-      </c>
-      <c r="F199" s="15" t="s">
-        <v>896</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="H199" s="1" t="s">
-        <v>898</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K199" s="1" t="s">
         <v>322</v>
@@ -14119,13 +14111,13 @@
         <v>2</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E200" s="1">
         <v>1</v>
@@ -14143,7 +14135,7 @@
         <v>536</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K200" s="1" t="s">
         <v>322</v>
@@ -14170,13 +14162,13 @@
         <v>2</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E201" s="1">
         <v>1</v>
@@ -14194,7 +14186,7 @@
         <v>345</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K201" s="1" t="s">
         <v>322</v>
@@ -14221,31 +14213,31 @@
         <v>2</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C202" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="E202" s="1">
+        <v>1</v>
+      </c>
+      <c r="F202" s="15" t="s">
+        <v>902</v>
+      </c>
+      <c r="G202" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="H202" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="E202" s="1">
-        <v>1</v>
-      </c>
-      <c r="F202" s="15" t="s">
+      <c r="I202" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="G202" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="H202" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="I202" s="1" t="s">
-        <v>908</v>
-      </c>
       <c r="J202" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K202" s="1" t="s">
         <v>322</v>
@@ -14267,36 +14259,36 @@
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
     </row>
-    <row r="203" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>1</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="E203" s="1">
+        <v>1</v>
+      </c>
+      <c r="F203" s="15" t="s">
         <v>909</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="G203" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="E203" s="1">
-        <v>1</v>
-      </c>
-      <c r="F203" s="15" t="s">
-        <v>912</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>913</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>552</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K203" s="1" t="s">
         <v>66</v>
@@ -14318,36 +14310,36 @@
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
     </row>
-    <row r="204" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>1</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E204" s="1">
         <v>2</v>
       </c>
       <c r="F204" s="15" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="G204" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K204" s="1" t="s">
         <v>66</v>
@@ -14374,31 +14366,31 @@
         <v>1</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E205" s="1">
         <v>1</v>
       </c>
       <c r="F205" s="15" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="G205" s="1" t="s">
         <v>365</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K205" s="1" t="s">
         <v>322</v>
@@ -14425,31 +14417,31 @@
         <v>1</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E206" s="1">
         <v>1</v>
       </c>
       <c r="F206" s="15" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>208</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K206" s="1" t="s">
         <v>322</v>
@@ -14476,31 +14468,31 @@
         <v>1</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>315</v>
       </c>
       <c r="D207" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E207" s="1">
+        <v>1</v>
+      </c>
+      <c r="F207" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="H207" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="E207" s="1">
-        <v>1</v>
-      </c>
-      <c r="F207" s="15" t="s">
+      <c r="I207" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="G207" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="I207" s="1" t="s">
-        <v>931</v>
-      </c>
       <c r="J207" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K207" s="1" t="s">
         <v>322</v>
@@ -14522,36 +14514,36 @@
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
     </row>
-    <row r="208" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>2</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C208" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="E208" s="1">
+        <v>1</v>
+      </c>
+      <c r="F208" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="H208" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="D208" s="1" t="s">
-        <v>904</v>
-      </c>
-      <c r="E208" s="1">
-        <v>1</v>
-      </c>
-      <c r="F208" s="15" t="s">
+      <c r="I208" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="G208" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>936</v>
-      </c>
       <c r="J208" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K208" s="1" t="s">
         <v>66</v>
@@ -14573,36 +14565,36 @@
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
     </row>
-    <row r="209" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>2</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E209" s="1">
         <v>2</v>
       </c>
       <c r="F209" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="I209" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="G209" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="I209" s="1" t="s">
-        <v>875</v>
-      </c>
       <c r="J209" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K209" s="1" t="s">
         <v>66</v>
@@ -14629,31 +14621,31 @@
         <v>2</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="E210" s="1">
+        <v>1</v>
+      </c>
+      <c r="F210" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="G210" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="H210" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="E210" s="1">
-        <v>1</v>
-      </c>
-      <c r="F210" s="15" t="s">
+      <c r="I210" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="G210" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="I210" s="1" t="s">
-        <v>942</v>
-      </c>
       <c r="J210" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K210" s="1" t="s">
         <v>322</v>
@@ -14680,31 +14672,31 @@
         <v>2</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C211" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="E211" s="1">
+        <v>1</v>
+      </c>
+      <c r="F211" s="15" t="s">
+        <v>942</v>
+      </c>
+      <c r="G211" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="H211" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="E211" s="1">
-        <v>1</v>
-      </c>
-      <c r="F211" s="15" t="s">
+      <c r="I211" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="G211" s="1" t="s">
-        <v>946</v>
-      </c>
-      <c r="H211" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="I211" s="1" t="s">
-        <v>948</v>
-      </c>
       <c r="J211" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K211" s="1" t="s">
         <v>322</v>
@@ -14731,31 +14723,31 @@
         <v>2</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C212" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="E212" s="1">
+        <v>1</v>
+      </c>
+      <c r="F212" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="G212" s="1" t="s">
         <v>949</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="E212" s="1">
-        <v>1</v>
-      </c>
-      <c r="F212" s="15" t="s">
-        <v>951</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>952</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>251</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K212" s="1" t="s">
         <v>322</v>
@@ -14782,13 +14774,13 @@
         <v>2</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E213" s="1">
         <v>1</v>
@@ -14806,7 +14798,7 @@
         <v>221</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K213" s="1" t="s">
         <v>322</v>
@@ -14828,66 +14820,72 @@
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="1">
-        <v>1</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>957</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E214" s="1">
-        <v>1</v>
-      </c>
-      <c r="F214" s="15" t="s">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A214" s="5">
+        <v>1</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E214" s="5">
+        <v>1</v>
+      </c>
+      <c r="F214" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="G214" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="H214" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="I214" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="G214" s="1" t="s">
+      <c r="J214" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="H214" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="I214" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="J214" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="K214" s="1" t="s">
+      <c r="K214" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="L214" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M214" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N214" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O214" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P214" s="1"/>
-      <c r="Q214" s="1"/>
-      <c r="R214" s="1"/>
-    </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="M214" s="5" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N214" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O214" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P214" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="Q214" s="5">
+        <v>1</v>
+      </c>
+      <c r="R214" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>1</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>98</v>
@@ -14896,19 +14894,19 @@
         <v>2</v>
       </c>
       <c r="F215" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="I215" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="G215" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="I215" s="1" t="s">
-        <v>961</v>
-      </c>
       <c r="J215" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K215" s="1" t="s">
         <v>66</v>
@@ -14930,18 +14928,18 @@
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
     </row>
-    <row r="216" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>1</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E216" s="1">
         <v>1</v>
@@ -14959,7 +14957,7 @@
         <v>72</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K216" s="1" t="s">
         <v>21</v>
@@ -14986,31 +14984,31 @@
         <v>1</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C217" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="E217" s="1">
+        <v>1</v>
+      </c>
+      <c r="F217" s="15" t="s">
+        <v>963</v>
+      </c>
+      <c r="G217" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="H217" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="E217" s="1">
-        <v>1</v>
-      </c>
-      <c r="F217" s="15" t="s">
+      <c r="I217" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="G217" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="H217" s="1" t="s">
-        <v>968</v>
-      </c>
-      <c r="I217" s="1" t="s">
-        <v>969</v>
-      </c>
       <c r="J217" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K217" s="1" t="s">
         <v>322</v>
@@ -15037,31 +15035,31 @@
         <v>1</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C218" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="E218" s="1">
+        <v>1</v>
+      </c>
+      <c r="F218" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="G218" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="H218" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="E218" s="1">
-        <v>1</v>
-      </c>
-      <c r="F218" s="15" t="s">
+      <c r="I218" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="G218" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="I218" s="1" t="s">
-        <v>975</v>
-      </c>
       <c r="J218" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K218" s="1" t="s">
         <v>322</v>
@@ -15088,31 +15086,31 @@
         <v>1</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C219" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="E219" s="1">
+        <v>1</v>
+      </c>
+      <c r="F219" s="15" t="s">
+        <v>975</v>
+      </c>
+      <c r="G219" s="1" t="s">
         <v>976</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="E219" s="1">
-        <v>1</v>
-      </c>
-      <c r="F219" s="15" t="s">
-        <v>978</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>979</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>471</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="J219" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K219" s="1" t="s">
         <v>322</v>
@@ -15139,13 +15137,13 @@
         <v>1</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E220" s="1">
         <v>1</v>
@@ -15163,7 +15161,7 @@
         <v>286</v>
       </c>
       <c r="J220" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K220" s="1" t="s">
         <v>322</v>
@@ -15185,15 +15183,15 @@
       <c r="Q220" s="1"/>
       <c r="R220" s="1"/>
     </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>2</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>104</v>
@@ -15202,19 +15200,19 @@
         <v>1</v>
       </c>
       <c r="F221" s="15" t="s">
+        <v>981</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="I221" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="G221" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="I221" s="1" t="s">
-        <v>987</v>
-      </c>
       <c r="J221" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K221" s="1" t="s">
         <v>66</v>
@@ -15236,15 +15234,15 @@
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
     </row>
-    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>2</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>104</v>
@@ -15253,19 +15251,19 @@
         <v>2</v>
       </c>
       <c r="F222" s="15" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I222" s="1" t="s">
         <v>231</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K222" s="1" t="s">
         <v>66</v>
@@ -15287,36 +15285,36 @@
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
     </row>
-    <row r="223" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>2</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E223" s="1">
         <v>1</v>
       </c>
       <c r="F223" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="I223" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="G223" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="H223" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="I223" s="1" t="s">
-        <v>975</v>
-      </c>
       <c r="J223" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K223" s="1" t="s">
         <v>21</v>
@@ -15343,31 +15341,31 @@
         <v>2</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="E224" s="1">
         <v>1</v>
       </c>
       <c r="F224" s="15" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>530</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K224" s="1" t="s">
         <v>322</v>
@@ -15394,13 +15392,13 @@
         <v>2</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E225" s="1">
         <v>1</v>
@@ -15418,7 +15416,7 @@
         <v>235</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K225" s="1" t="s">
         <v>322</v>
@@ -15445,31 +15443,31 @@
         <v>2</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C226" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="E226" s="1">
+        <v>1</v>
+      </c>
+      <c r="F226" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="H226" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="I226" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="E226" s="1">
-        <v>1</v>
-      </c>
-      <c r="F226" s="15" t="s">
-        <v>1001</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="H226" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I226" s="1" t="s">
-        <v>1003</v>
-      </c>
       <c r="J226" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K226" s="1" t="s">
         <v>322</v>
@@ -15496,31 +15494,31 @@
         <v>2</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C227" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E227" s="1">
+        <v>1</v>
+      </c>
+      <c r="F227" s="15" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G227" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E227" s="1">
-        <v>1</v>
-      </c>
-      <c r="F227" s="15" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>1007</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>330</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="K227" s="1" t="s">
         <v>322</v>
@@ -15547,28 +15545,28 @@
         <v>4</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E228" s="1">
+        <v>1</v>
+      </c>
+      <c r="F228" s="15" t="s">
         <v>1009</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="G228" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="H228" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I228" s="1" t="s">
         <v>1011</v>
-      </c>
-      <c r="E228" s="1">
-        <v>1</v>
-      </c>
-      <c r="F228" s="15" t="s">
-        <v>1012</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H228" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="I228" s="1" t="s">
-        <v>1014</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>20</v>
@@ -15598,13 +15596,13 @@
         <v>3</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E229" s="1">
         <v>1</v>
@@ -15649,10 +15647,10 @@
         <v>1</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>131</v>
@@ -15661,16 +15659,16 @@
         <v>1</v>
       </c>
       <c r="F230" s="15" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>56</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>20</v>
@@ -15700,28 +15698,28 @@
         <v>2</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C231" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E231" s="1">
+        <v>1</v>
+      </c>
+      <c r="F231" s="15" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G231" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="H231" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="E231" s="1">
-        <v>1</v>
-      </c>
-      <c r="F231" s="15" t="s">
+      <c r="I231" s="1" t="s">
         <v>1023</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H231" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I231" s="1" t="s">
-        <v>1026</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>20</v>
@@ -15751,10 +15749,10 @@
         <v>1</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>316</v>
@@ -15763,16 +15761,16 @@
         <v>1</v>
       </c>
       <c r="F232" s="15" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>20</v>
@@ -15802,10 +15800,10 @@
         <v>1</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>316</v>
@@ -15814,16 +15812,16 @@
         <v>2</v>
       </c>
       <c r="F233" s="15" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I233" s="1" t="s">
         <v>1031</v>
-      </c>
-      <c r="G233" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H233" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="I233" s="1" t="s">
-        <v>1034</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>20</v>
@@ -15853,13 +15851,13 @@
         <v>1</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="E234" s="1">
         <v>1</v>
@@ -15904,10 +15902,10 @@
         <v>2</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>244</v>
@@ -15955,28 +15953,28 @@
         <v>2</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E236" s="1">
         <v>2</v>
       </c>
       <c r="F236" s="15" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="I236" s="1" t="s">
         <v>1040</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>1041</v>
-      </c>
-      <c r="H236" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="I236" s="1" t="s">
-        <v>1043</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>20</v>
@@ -16006,25 +16004,25 @@
         <v>4</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C237" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E237" s="1">
+        <v>1</v>
+      </c>
+      <c r="F237" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G237" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>1045</v>
-      </c>
-      <c r="E237" s="1">
-        <v>1</v>
-      </c>
-      <c r="F237" s="15" t="s">
-        <v>1046</v>
-      </c>
-      <c r="G237" s="1" t="s">
-        <v>1047</v>
-      </c>
       <c r="H237" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>429</v>
@@ -16057,28 +16055,28 @@
         <v>4</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C238" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E238" s="1">
+        <v>1</v>
+      </c>
+      <c r="F238" s="15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G238" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="H238" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="I238" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="E238" s="1">
-        <v>1</v>
-      </c>
-      <c r="F238" s="15" t="s">
-        <v>1050</v>
-      </c>
-      <c r="G238" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H238" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="I238" s="1" t="s">
-        <v>1052</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>20</v>
@@ -16108,28 +16106,28 @@
         <v>3</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C239" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E239" s="1">
+        <v>1</v>
+      </c>
+      <c r="F239" s="15" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G239" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="H239" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="E239" s="1">
-        <v>1</v>
-      </c>
-      <c r="F239" s="15" t="s">
+      <c r="I239" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H239" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="I239" s="1" t="s">
-        <v>1058</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>20</v>
@@ -16159,28 +16157,28 @@
         <v>1</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E240" s="1">
         <v>1</v>
       </c>
       <c r="F240" s="15" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>262</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>20</v>
@@ -16210,10 +16208,10 @@
         <v>2</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>98</v>
@@ -16222,16 +16220,16 @@
         <v>1</v>
       </c>
       <c r="F241" s="15" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>20</v>
@@ -16261,10 +16259,10 @@
         <v>2</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>98</v>
@@ -16273,16 +16271,16 @@
         <v>2</v>
       </c>
       <c r="F242" s="15" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I242" s="1" t="s">
         <v>1068</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H242" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="I242" s="1" t="s">
-        <v>1071</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>20</v>
@@ -16312,10 +16310,10 @@
         <v>3</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>104</v>
@@ -16324,16 +16322,16 @@
         <v>1</v>
       </c>
       <c r="F243" s="15" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I243" s="1" t="s">
         <v>1073</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H243" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="I243" s="1" t="s">
-        <v>1076</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>20</v>
@@ -16363,10 +16361,10 @@
         <v>3</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>104</v>
@@ -16375,16 +16373,16 @@
         <v>2</v>
       </c>
       <c r="F244" s="15" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I244" s="1" t="s">
         <v>1077</v>
-      </c>
-      <c r="G244" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H244" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="I244" s="1" t="s">
-        <v>1080</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>20</v>
@@ -16414,10 +16412,10 @@
         <v>4</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>194</v>
@@ -16426,16 +16424,16 @@
         <v>1</v>
       </c>
       <c r="F245" s="15" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I245" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="G245" s="1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H245" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I245" s="1" t="s">
-        <v>1085</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>20</v>
@@ -16465,10 +16463,10 @@
         <v>4</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>194</v>
@@ -16477,16 +16475,16 @@
         <v>2</v>
       </c>
       <c r="F246" s="15" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I246" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="H246" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I246" s="1" t="s">
-        <v>1089</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>20</v>
@@ -16516,13 +16514,13 @@
         <v>3</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="E247" s="1">
         <v>1</v>
@@ -16564,31 +16562,31 @@
     </row>
     <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="E248" s="5">
         <v>1</v>
       </c>
       <c r="F248" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="G248" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="I248" s="5" t="s">
         <v>670</v>
-      </c>
-      <c r="G248" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="H248" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="I248" s="5" t="s">
-        <v>673</v>
       </c>
       <c r="J248" s="5" t="s">
         <v>20</v>
@@ -16597,7 +16595,7 @@
         <v>38</v>
       </c>
       <c r="L248" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M248" s="5" t="b">
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
@@ -16610,7 +16608,7 @@
         <v>23</v>
       </c>
       <c r="P248" s="5" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="Q248" s="5">
         <v>1</v>
@@ -16627,7 +16625,7 @@
         <v>203</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D249" s="6" t="s">
         <v>223</v>
@@ -16684,7 +16682,7 @@
         <v>203</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>223</v>
@@ -16741,7 +16739,7 @@
         <v>203</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D251" s="6" t="s">
         <v>223</v>
@@ -16798,7 +16796,7 @@
         <v>203</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>223</v>
@@ -16855,7 +16853,7 @@
         <v>203</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="D253" s="6" t="s">
         <v>239</v>
@@ -16912,7 +16910,7 @@
         <v>203</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D254" s="6" t="s">
         <v>239</v>
@@ -16969,7 +16967,7 @@
         <v>203</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>255</v>
@@ -17026,7 +17024,7 @@
         <v>203</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>255</v>
@@ -17080,10 +17078,10 @@
         <v>1</v>
       </c>
       <c r="B257" s="10" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="D257" s="10" t="s">
         <v>316</v>
@@ -17092,16 +17090,16 @@
         <v>1</v>
       </c>
       <c r="F257" s="20" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="G257" s="10" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="H257" s="10" t="s">
         <v>161</v>
       </c>
       <c r="I257" s="10" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="J257" s="10" t="s">
         <v>20</v>
@@ -17123,7 +17121,7 @@
         <v>23</v>
       </c>
       <c r="P257" s="10" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="Q257" s="10">
         <v>1</v>
@@ -17140,7 +17138,7 @@
         <v>203</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D258" s="4" t="s">
         <v>104</v>
@@ -17197,7 +17195,7 @@
         <v>203</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>104</v>
@@ -17254,7 +17252,7 @@
         <v>203</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>104</v>
@@ -17311,7 +17309,7 @@
         <v>203</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>104</v>
@@ -17368,7 +17366,7 @@
         <v>203</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D262" s="12" t="s">
         <v>104</v>
@@ -17425,7 +17423,7 @@
         <v>203</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="D263" s="12" t="s">
         <v>104</v>
@@ -17482,7 +17480,7 @@
         <v>314</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>104</v>
@@ -17531,15 +17529,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A265" s="12">
         <v>1</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D265" s="12" t="s">
         <v>98</v>
@@ -17548,19 +17546,19 @@
         <v>2</v>
       </c>
       <c r="F265" s="21" t="s">
+        <v>955</v>
+      </c>
+      <c r="G265" s="12" t="s">
+        <v>956</v>
+      </c>
+      <c r="H265" s="12" t="s">
+        <v>957</v>
+      </c>
+      <c r="I265" s="12" t="s">
         <v>958</v>
       </c>
-      <c r="G265" s="12" t="s">
-        <v>959</v>
-      </c>
-      <c r="H265" s="12" t="s">
-        <v>960</v>
-      </c>
-      <c r="I265" s="12" t="s">
-        <v>961</v>
-      </c>
       <c r="J265" s="12" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K265" s="12" t="s">
         <v>66</v>
@@ -17579,7 +17577,7 @@
         <v>23</v>
       </c>
       <c r="P265" s="12" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="Q265" s="12">
         <v>2</v>
@@ -17593,28 +17591,28 @@
         <v>5</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="D266" s="6" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E266" s="6">
         <v>1</v>
       </c>
       <c r="F266" s="13" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="G266" s="6" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="H266" s="6" t="s">
         <v>50</v>
       </c>
       <c r="I266" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="J266" s="6" t="s">
         <v>20</v>
@@ -17636,7 +17634,7 @@
         <v>23</v>
       </c>
       <c r="P266" s="6" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="Q266" s="6">
         <v>1</v>
@@ -17647,31 +17645,31 @@
     </row>
     <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E267" s="6">
         <v>1</v>
       </c>
       <c r="F267" s="13" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G267" s="6" t="s">
         <v>299</v>
       </c>
       <c r="H267" s="6" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="I267" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="J267" s="6" t="s">
         <v>20</v>
@@ -17680,7 +17678,7 @@
         <v>38</v>
       </c>
       <c r="L267" s="6" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="M267" s="6" t="b">
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
@@ -17693,7 +17691,7 @@
         <v>23</v>
       </c>
       <c r="P267" s="6" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="Q267" s="6">
         <v>1</v>
@@ -17710,7 +17708,7 @@
         <v>203</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>260</v>
@@ -17767,7 +17765,7 @@
         <v>203</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>260</v>
@@ -17824,7 +17822,7 @@
         <v>203</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D270" s="5" t="s">
         <v>260</v>
@@ -17873,36 +17871,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A271" s="5">
         <v>1</v>
       </c>
       <c r="B271" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="E271" s="5">
+        <v>1</v>
+      </c>
+      <c r="F271" s="19" t="s">
         <v>909</v>
       </c>
-      <c r="C271" s="5" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D271" s="5" t="s">
-        <v>911</v>
-      </c>
-      <c r="E271" s="5">
-        <v>1</v>
-      </c>
-      <c r="F271" s="19" t="s">
-        <v>912</v>
-      </c>
       <c r="G271" s="5" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="H271" s="5" t="s">
         <v>552</v>
       </c>
       <c r="I271" s="5" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="J271" s="5" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K271" s="5" t="s">
         <v>66</v>
@@ -17921,7 +17919,7 @@
         <v>23</v>
       </c>
       <c r="P271" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="Q271" s="5">
         <v>1</v>
@@ -17930,36 +17928,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A272" s="5">
         <v>1</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E272" s="5">
         <v>2</v>
       </c>
       <c r="F272" s="19" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="G272" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="I272" s="5" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="J272" s="5" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K272" s="5" t="s">
         <v>66</v>
@@ -17978,7 +17976,7 @@
         <v>23</v>
       </c>
       <c r="P272" s="5" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="Q272" s="5">
         <v>2</v>
@@ -17992,31 +17990,31 @@
         <v>1</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D273" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E273" s="1">
+        <v>1</v>
+      </c>
+      <c r="F273" s="15" t="s">
+        <v>925</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="H273" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="E273" s="1">
-        <v>1</v>
-      </c>
-      <c r="F273" s="15" t="s">
+      <c r="I273" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="G273" s="1" t="s">
-        <v>929</v>
-      </c>
-      <c r="H273" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="I273" s="1" t="s">
-        <v>931</v>
-      </c>
       <c r="J273" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="K273" s="1" t="s">
         <v>322</v>
@@ -18049,28 +18047,28 @@
         <v>3</v>
       </c>
       <c r="B274" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E274" s="3">
+        <v>1</v>
+      </c>
+      <c r="F274" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="C274" s="3" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D274" s="3" t="s">
+      <c r="G274" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="H274" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="E274" s="3">
-        <v>1</v>
-      </c>
-      <c r="F274" s="16" t="s">
+      <c r="I274" s="3" t="s">
         <v>720</v>
-      </c>
-      <c r="G274" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="H274" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="I274" s="3" t="s">
-        <v>723</v>
       </c>
       <c r="J274" s="3" t="s">
         <v>20</v>
@@ -18092,7 +18090,7 @@
         <v>23</v>
       </c>
       <c r="P274" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="Q274" s="3">
         <v>1</v>

--- a/data/horarios/all.processed.xlsx
+++ b/data/horarios/all.processed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A986BBB9-0017-44BA-8ED9-95AAF354415B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57500973-D47B-4C8A-ABCB-C4AB68EAD420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="1142">
   <si>
     <t>ciclo</t>
   </si>
@@ -3375,6 +3375,90 @@
   </si>
   <si>
     <t>C2010201</t>
+  </si>
+  <si>
+    <t>C2010231</t>
+  </si>
+  <si>
+    <t>C3S10151</t>
+  </si>
+  <si>
+    <t>C202A242</t>
+  </si>
+  <si>
+    <t>C3P21234</t>
+  </si>
+  <si>
+    <t>C2020343</t>
+  </si>
+  <si>
+    <t>C2020344</t>
+  </si>
+  <si>
+    <t>C3P20131</t>
+  </si>
+  <si>
+    <t>C3P20133</t>
+  </si>
+  <si>
+    <t>C3P20134</t>
+  </si>
+  <si>
+    <t>C3P20111</t>
+  </si>
+  <si>
+    <t>C3P20531</t>
+  </si>
+  <si>
+    <t>C3P20532</t>
+  </si>
+  <si>
+    <t>C3P20533</t>
+  </si>
+  <si>
+    <t>C3P20534</t>
+  </si>
+  <si>
+    <t>C3P22233</t>
+  </si>
+  <si>
+    <t>C2020303</t>
+  </si>
+  <si>
+    <t>C2020341</t>
+  </si>
+  <si>
+    <t>C2020342</t>
+  </si>
+  <si>
+    <t>C3P20511</t>
+  </si>
+  <si>
+    <t>C3P20522</t>
+  </si>
+  <si>
+    <t>C3P20524</t>
+  </si>
+  <si>
+    <t>C3P205A4</t>
+  </si>
+  <si>
+    <t>C3P20512</t>
+  </si>
+  <si>
+    <t>C3P21431</t>
+  </si>
+  <si>
+    <t>C3P21432</t>
+  </si>
+  <si>
+    <t>C3S21113</t>
+  </si>
+  <si>
+    <t>C3S21112</t>
+  </si>
+  <si>
+    <t>C3S21111</t>
   </si>
 </sst>
 </file>
@@ -3390,7 +3474,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3439,6 +3523,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3452,7 +3572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3509,6 +3629,42 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3585,11 +3741,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}" name="Table1" displayName="Table1" ref="A1:R274" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="A1:R274" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}">
-    <filterColumn colId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}" name="Table1" displayName="Table1" ref="A1:R304" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="A1:R304" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}">
+    <filterColumn colId="3">
       <filters>
-        <filter val="DOMINGO"/>
+        <filter val="FUNDAMENTOS DE AUDITORIA TRIBUTARIA"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3894,10 +4050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R274"/>
+  <dimension ref="A1:R304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+      <selection activeCell="C309" sqref="C309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4744,55 +4900,55 @@
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
+      <c r="M17" s="3" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -5356,55 +5512,55 @@
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="A29" s="4">
         <v>3</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="15" t="s">
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="M29" s="4" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
     </row>
     <row r="30" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -5611,55 +5767,55 @@
       <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+      <c r="A34" s="6">
         <v>4</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="15" t="s">
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
+      <c r="M34" s="6" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
     </row>
     <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
@@ -6069,56 +6225,56 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="43" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <v>1</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" s="15" t="s">
+      <c r="E43" s="12">
+        <v>1</v>
+      </c>
+      <c r="F43" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M43" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
+      <c r="M43" s="12" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
     </row>
     <row r="44" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -6325,55 +6481,55 @@
       <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>1</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="A48" s="10">
+        <v>1</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="E48" s="1">
-        <v>1</v>
-      </c>
-      <c r="F48" s="15" t="s">
+      <c r="E48" s="10">
+        <v>1</v>
+      </c>
+      <c r="F48" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="K48" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M48" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N48" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
+      <c r="M48" s="10" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
     </row>
     <row r="49" spans="1:18" ht="66" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
@@ -6631,55 +6787,55 @@
       <c r="R53" s="1"/>
     </row>
     <row r="54" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>1</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="4">
+        <v>1</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E54" s="1">
-        <v>1</v>
-      </c>
-      <c r="F54" s="15" t="s">
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K54" s="1" t="s">
+      <c r="K54" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M54" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N54" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
+      <c r="M54" s="4" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
     </row>
     <row r="55" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
@@ -7249,55 +7405,55 @@
       <c r="R65" s="1"/>
     </row>
     <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>1</v>
-      </c>
-      <c r="B66" s="1" t="s">
+      <c r="A66" s="12">
+        <v>1</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66" s="15" t="s">
+      <c r="E66" s="12">
+        <v>1</v>
+      </c>
+      <c r="F66" s="21" t="s">
         <v>329</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="K66" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="L66" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="M66" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N66" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
+      <c r="M66" s="12" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O66" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
     </row>
     <row r="67" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
@@ -7402,55 +7558,55 @@
       <c r="R68" s="1"/>
     </row>
     <row r="69" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>1</v>
-      </c>
-      <c r="B69" s="1" t="s">
+      <c r="A69" s="4">
+        <v>1</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E69" s="1">
-        <v>1</v>
-      </c>
-      <c r="F69" s="15" t="s">
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I69" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="K69" s="1" t="s">
+      <c r="K69" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="L69" s="1" t="s">
+      <c r="L69" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="M69" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N69" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
+      <c r="M69" s="4" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
     </row>
     <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
@@ -7657,259 +7813,259 @@
       <c r="R73" s="1"/>
     </row>
     <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+      <c r="A74" s="6">
         <v>3</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E74" s="1">
-        <v>1</v>
-      </c>
-      <c r="F74" s="15" t="s">
+      <c r="E74" s="6">
+        <v>1</v>
+      </c>
+      <c r="F74" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J74" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="K74" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="L74" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="M74" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N74" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
+      <c r="M74" s="6" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
     </row>
     <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+      <c r="A75" s="5">
         <v>3</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="5">
         <v>2</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F75" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I75" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J75" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="K75" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="L75" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="M75" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N75" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
+      <c r="M75" s="5" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N75" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
     </row>
     <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+      <c r="A76" s="3">
         <v>3</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="E76" s="1">
-        <v>1</v>
-      </c>
-      <c r="F76" s="15" t="s">
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I76" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="K76" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="L76" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="M76" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N76" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
+      <c r="M76" s="3" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N76" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
     </row>
     <row r="77" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+      <c r="A77" s="4">
         <v>3</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="E77" s="1">
-        <v>1</v>
-      </c>
-      <c r="F77" s="15" t="s">
+      <c r="E77" s="4">
+        <v>1</v>
+      </c>
+      <c r="F77" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H77" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I77" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J77" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="K77" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="L77" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="M77" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N77" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
+      <c r="M77" s="4" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N77" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
     </row>
     <row r="78" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+      <c r="A78" s="10">
         <v>3</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="E78" s="1">
-        <v>1</v>
-      </c>
-      <c r="F78" s="15" t="s">
+      <c r="E78" s="10">
+        <v>1</v>
+      </c>
+      <c r="F78" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H78" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I78" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="J78" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="K78" s="1" t="s">
+      <c r="K78" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="L78" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="M78" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N78" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
+      <c r="M78" s="10" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N78" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
     </row>
     <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
@@ -7963,157 +8119,157 @@
       <c r="R79" s="1"/>
     </row>
     <row r="80" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+      <c r="A80" s="3">
         <v>4</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E80" s="1">
-        <v>1</v>
-      </c>
-      <c r="F80" s="15" t="s">
+      <c r="E80" s="3">
+        <v>1</v>
+      </c>
+      <c r="F80" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H80" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I80" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J80" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="K80" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="L80" s="1" t="s">
+      <c r="L80" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="M80" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N80" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
-      <c r="R80" s="1"/>
+      <c r="M80" s="3" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
     </row>
     <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+      <c r="A81" s="4">
         <v>4</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="E81" s="1">
-        <v>1</v>
-      </c>
-      <c r="F81" s="15" t="s">
+      <c r="E81" s="4">
+        <v>1</v>
+      </c>
+      <c r="F81" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J81" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="K81" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="L81" s="1" t="s">
+      <c r="L81" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="M81" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N81" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
+      <c r="M81" s="4" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N81" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
     </row>
     <row r="82" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+      <c r="A82" s="6">
         <v>4</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="E82" s="1">
-        <v>1</v>
-      </c>
-      <c r="F82" s="15" t="s">
+      <c r="E82" s="6">
+        <v>1</v>
+      </c>
+      <c r="F82" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I82" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="J82" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="K82" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="L82" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="M82" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N82" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1"/>
-      <c r="R82" s="1"/>
+      <c r="M82" s="6" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N82" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O82" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
     </row>
     <row r="83" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
@@ -9187,106 +9343,106 @@
       <c r="R103" s="1"/>
     </row>
     <row r="104" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <v>1</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="A104" s="4">
+        <v>1</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="E104" s="1">
-        <v>1</v>
-      </c>
-      <c r="F104" s="15" t="s">
+      <c r="E104" s="4">
+        <v>1</v>
+      </c>
+      <c r="F104" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G104" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H104" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="I104" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="J104" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="K104" s="1" t="s">
+      <c r="K104" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="L104" s="1" t="s">
+      <c r="L104" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="M104" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N104" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
+      <c r="M104" s="4" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N104" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O104" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
     </row>
     <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
-        <v>1</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="A105" s="6">
+        <v>1</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="E105" s="1">
-        <v>1</v>
-      </c>
-      <c r="F105" s="15" t="s">
+      <c r="E105" s="6">
+        <v>1</v>
+      </c>
+      <c r="F105" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G105" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="H105" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="I105" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="J105" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="K105" s="1" t="s">
+      <c r="K105" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="L105" s="1" t="s">
+      <c r="L105" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="M105" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N105" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
+      <c r="M105" s="6" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N105" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O105" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6"/>
+      <c r="R105" s="6"/>
     </row>
     <row r="106" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
@@ -9340,55 +9496,55 @@
       <c r="R106" s="1"/>
     </row>
     <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+      <c r="A107" s="6">
         <v>2</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E107" s="1">
-        <v>1</v>
-      </c>
-      <c r="F107" s="15" t="s">
+      <c r="E107" s="6">
+        <v>1</v>
+      </c>
+      <c r="F107" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G107" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="H107" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="I107" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="J107" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="K107" s="1" t="s">
+      <c r="K107" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="L107" s="1" t="s">
+      <c r="L107" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="M107" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N107" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P107" s="1"/>
-      <c r="Q107" s="1"/>
-      <c r="R107" s="1"/>
+      <c r="M107" s="6" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N107" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O107" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6"/>
+      <c r="R107" s="6"/>
     </row>
     <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
@@ -9544,361 +9700,361 @@
       <c r="R110" s="1"/>
     </row>
     <row r="111" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+      <c r="A111" s="5">
         <v>2</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="E111" s="1">
-        <v>1</v>
-      </c>
-      <c r="F111" s="15" t="s">
+      <c r="E111" s="5">
+        <v>1</v>
+      </c>
+      <c r="F111" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="G111" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="H111" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="I111" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="J111" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="K111" s="1" t="s">
+      <c r="K111" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L111" s="1" t="s">
+      <c r="L111" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="M111" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N111" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O111" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P111" s="1"/>
-      <c r="Q111" s="1"/>
-      <c r="R111" s="1"/>
+      <c r="M111" s="5" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N111" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O111" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
     </row>
     <row r="112" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
+      <c r="A112" s="5">
         <v>2</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C112" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="E112" s="1">
-        <v>1</v>
-      </c>
-      <c r="F112" s="15" t="s">
+      <c r="E112" s="5">
+        <v>1</v>
+      </c>
+      <c r="F112" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="G112" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="H112" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="I112" s="1" t="s">
+      <c r="I112" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="J112" s="1" t="s">
+      <c r="J112" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="K112" s="1" t="s">
+      <c r="K112" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L112" s="1" t="s">
+      <c r="L112" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="M112" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N112" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O112" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
-      <c r="R112" s="1"/>
+      <c r="M112" s="5" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N112" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O112" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
     </row>
     <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
+      <c r="A113" s="12">
         <v>3</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C113" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E113" s="1">
-        <v>1</v>
-      </c>
-      <c r="F113" s="15" t="s">
+      <c r="E113" s="12">
+        <v>1</v>
+      </c>
+      <c r="F113" s="21" t="s">
         <v>547</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G113" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H113" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="I113" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="J113" s="1" t="s">
+      <c r="J113" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="K113" s="1" t="s">
+      <c r="K113" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="L113" s="1" t="s">
+      <c r="L113" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="M113" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N113" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P113" s="1"/>
-      <c r="Q113" s="1"/>
-      <c r="R113" s="1"/>
+      <c r="M113" s="12" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N113" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O113" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
     </row>
     <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+      <c r="A114" s="12">
         <v>3</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="12">
         <v>2</v>
       </c>
-      <c r="F114" s="15" t="s">
+      <c r="F114" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G114" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="H114" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="I114" s="1" t="s">
+      <c r="I114" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="J114" s="1" t="s">
+      <c r="J114" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="K114" s="1" t="s">
+      <c r="K114" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="L114" s="1" t="s">
+      <c r="L114" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="M114" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N114" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
-      <c r="R114" s="1"/>
+      <c r="M114" s="12" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N114" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O114" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
     </row>
     <row r="115" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
+      <c r="A115" s="5">
         <v>3</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C115" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="E115" s="1">
-        <v>1</v>
-      </c>
-      <c r="F115" s="15" t="s">
+      <c r="E115" s="5">
+        <v>1</v>
+      </c>
+      <c r="F115" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G115" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H115" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="I115" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="J115" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="K115" s="1" t="s">
+      <c r="K115" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="L115" s="1" t="s">
+      <c r="L115" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="M115" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N115" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O115" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
-      <c r="R115" s="1"/>
+      <c r="M115" s="5" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N115" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O115" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
     </row>
     <row r="116" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+      <c r="A116" s="6">
         <v>3</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E116" s="1">
-        <v>1</v>
-      </c>
-      <c r="F116" s="15" t="s">
+      <c r="E116" s="6">
+        <v>1</v>
+      </c>
+      <c r="F116" s="13" t="s">
         <v>558</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G116" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="H116" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="I116" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="J116" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="K116" s="1" t="s">
+      <c r="K116" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="L116" s="1" t="s">
+      <c r="L116" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="M116" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N116" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O116" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
-      <c r="R116" s="1"/>
+      <c r="M116" s="6" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N116" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O116" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
     </row>
     <row r="117" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
+      <c r="A117" s="3">
         <v>3</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="E117" s="1">
-        <v>1</v>
-      </c>
-      <c r="F117" s="15" t="s">
+      <c r="E117" s="3">
+        <v>1</v>
+      </c>
+      <c r="F117" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G117" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="H117" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="I117" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="J117" s="1" t="s">
+      <c r="J117" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="K117" s="1" t="s">
+      <c r="K117" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="L117" s="1" t="s">
+      <c r="L117" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="M117" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N117" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P117" s="1"/>
-      <c r="Q117" s="1"/>
-      <c r="R117" s="1"/>
+      <c r="M117" s="3" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N117" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O117" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
     </row>
     <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
@@ -10621,106 +10777,106 @@
       <c r="R131" s="1"/>
     </row>
     <row r="132" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
+      <c r="A132" s="10">
         <v>3</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="E132" s="1">
-        <v>1</v>
-      </c>
-      <c r="F132" s="15" t="s">
+      <c r="E132" s="10">
+        <v>1</v>
+      </c>
+      <c r="F132" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G132" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="H132" s="1" t="s">
+      <c r="H132" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="I132" s="1" t="s">
+      <c r="I132" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="J132" s="1" t="s">
+      <c r="J132" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="K132" s="1" t="s">
+      <c r="K132" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="L132" s="1" t="s">
+      <c r="L132" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="M132" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N132" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O132" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
-      <c r="R132" s="1"/>
+      <c r="M132" s="10" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N132" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O132" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P132" s="10"/>
+      <c r="Q132" s="10"/>
+      <c r="R132" s="10"/>
     </row>
     <row r="133" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
+      <c r="A133" s="4">
         <v>3</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="E133" s="1">
-        <v>1</v>
-      </c>
-      <c r="F133" s="15" t="s">
+      <c r="E133" s="4">
+        <v>1</v>
+      </c>
+      <c r="F133" s="18" t="s">
         <v>619</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G133" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="H133" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="I133" s="1" t="s">
+      <c r="I133" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="J133" s="1" t="s">
+      <c r="J133" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="K133" s="1" t="s">
+      <c r="K133" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="L133" s="1" t="s">
+      <c r="L133" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="M133" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N133" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O133" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
+      <c r="M133" s="4" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N133" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O133" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
     </row>
     <row r="134" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
@@ -11232,7 +11388,7 @@
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>1</v>
       </c>
@@ -12611,7 +12767,7 @@
         <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
         <v>1</v>
       </c>
-      <c r="N170" s="1" t="b">
+      <c r="N170" s="6" t="b">
         <v>0</v>
       </c>
       <c r="O170" s="6" t="s">
@@ -13341,7 +13497,7 @@
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
     </row>
-    <row r="185" spans="1:18" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>1</v>
       </c>
@@ -13392,7 +13548,7 @@
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>2</v>
       </c>
@@ -13545,7 +13701,7 @@
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
     </row>
-    <row r="189" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>2</v>
       </c>
@@ -13698,7 +13854,7 @@
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
     </row>
-    <row r="192" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>1</v>
       </c>
@@ -13953,7 +14109,7 @@
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
     </row>
-    <row r="197" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>2</v>
       </c>
@@ -14004,7 +14160,7 @@
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
     </row>
-    <row r="198" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>2</v>
       </c>
@@ -14259,7 +14415,7 @@
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
     </row>
-    <row r="203" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>1</v>
       </c>
@@ -14310,7 +14466,7 @@
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
     </row>
-    <row r="204" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>1</v>
       </c>
@@ -14514,7 +14670,7 @@
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
     </row>
-    <row r="208" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>2</v>
       </c>
@@ -14565,7 +14721,7 @@
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
     </row>
-    <row r="209" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>2</v>
       </c>
@@ -14820,7 +14976,7 @@
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5">
         <v>1</v>
       </c>
@@ -14877,7 +15033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>1</v>
       </c>
@@ -14928,7 +15084,7 @@
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
     </row>
-    <row r="216" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>1</v>
       </c>
@@ -15183,7 +15339,7 @@
       <c r="Q220" s="1"/>
       <c r="R220" s="1"/>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>2</v>
       </c>
@@ -15234,7 +15390,7 @@
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>2</v>
       </c>
@@ -15285,7 +15441,7 @@
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
     </row>
-    <row r="223" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>2</v>
       </c>
@@ -17473,63 +17629,63 @@
       </c>
     </row>
     <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="5">
+      <c r="A264" s="32">
         <v>3</v>
       </c>
-      <c r="B264" s="5" t="s">
+      <c r="B264" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="C264" s="5" t="s">
+      <c r="C264" s="32" t="s">
         <v>1106</v>
       </c>
-      <c r="D264" s="5" t="s">
+      <c r="D264" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E264" s="5">
+      <c r="E264" s="32">
         <v>2</v>
       </c>
-      <c r="F264" s="19" t="s">
+      <c r="F264" s="33" t="s">
         <v>377</v>
       </c>
-      <c r="G264" s="5" t="s">
+      <c r="G264" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="H264" s="5" t="s">
+      <c r="H264" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="I264" s="5" t="s">
+      <c r="I264" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="J264" s="5" t="s">
+      <c r="J264" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="K264" s="5" t="s">
+      <c r="K264" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="L264" s="5" t="s">
+      <c r="L264" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="M264" s="5" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>1</v>
-      </c>
-      <c r="N264" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O264" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P264" s="5" t="s">
+      <c r="M264" s="32" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N264" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O264" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P264" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="Q264" s="5">
+      <c r="Q264" s="32">
         <v>2</v>
       </c>
-      <c r="R264" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R264" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="12">
         <v>1</v>
       </c>
@@ -17871,7 +18027,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5">
         <v>1</v>
       </c>
@@ -17928,7 +18084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5">
         <v>1</v>
       </c>
@@ -18096,6 +18252,1716 @@
         <v>1</v>
       </c>
       <c r="R274" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="3">
+        <v>3</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="E275" s="3">
+        <v>1</v>
+      </c>
+      <c r="F275" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J275" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L275" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M275" s="3" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N275" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O275" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P275" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q275" s="3">
+        <v>1</v>
+      </c>
+      <c r="R275" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="6">
+        <v>6</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E276" s="6">
+        <v>1</v>
+      </c>
+      <c r="F276" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="G276" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="H276" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="I276" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="J276" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K276" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L276" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="M276" s="6" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N276" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O276" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P276" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q276" s="6">
+        <v>1</v>
+      </c>
+      <c r="R276" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="6">
+        <v>4</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E277" s="6">
+        <v>1</v>
+      </c>
+      <c r="F277" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G277" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H277" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I277" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="J277" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K277" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L277" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M277" s="6" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N277" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O277" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P277" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q277" s="6">
+        <v>1</v>
+      </c>
+      <c r="R277" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="22">
+        <v>3</v>
+      </c>
+      <c r="B278" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C278" s="22" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D278" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E278" s="22">
+        <v>1</v>
+      </c>
+      <c r="F278" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G278" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H278" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="I278" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J278" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K278" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L278" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M278" s="22" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N278" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O278" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P278" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q278" s="22">
+        <v>1</v>
+      </c>
+      <c r="R278" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="24">
+        <v>3</v>
+      </c>
+      <c r="B279" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C279" s="24" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D279" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E279" s="24">
+        <v>1</v>
+      </c>
+      <c r="F279" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G279" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H279" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I279" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="J279" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K279" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L279" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M279" s="24" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N279" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O279" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P279" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q279" s="24">
+        <v>1</v>
+      </c>
+      <c r="R279" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="26">
+        <v>4</v>
+      </c>
+      <c r="B280" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C280" s="26" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D280" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="E280" s="26">
+        <v>1</v>
+      </c>
+      <c r="F280" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="G280" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="H280" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="I280" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="J280" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="K280" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="L280" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="M280" s="26" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N280" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O280" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="P280" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q280" s="26">
+        <v>1</v>
+      </c>
+      <c r="R280" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="24">
+        <v>3</v>
+      </c>
+      <c r="B281" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="C281" s="24" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D281" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="E281" s="24">
+        <v>1</v>
+      </c>
+      <c r="F281" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="G281" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="H281" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="I281" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="J281" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="K281" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="L281" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="M281" s="24" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N281" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O281" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P281" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q281" s="24">
+        <v>1</v>
+      </c>
+      <c r="R281" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="22">
+        <v>3</v>
+      </c>
+      <c r="B282" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C282" s="22" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D282" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="E282" s="22">
+        <v>1</v>
+      </c>
+      <c r="F282" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="G282" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="H282" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="I282" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="J282" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="K282" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="L282" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="M282" s="22" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N282" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O282" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P282" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q282" s="22">
+        <v>1</v>
+      </c>
+      <c r="R282" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="28">
+        <v>3</v>
+      </c>
+      <c r="B283" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="C283" s="28" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D283" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="E283" s="28">
+        <v>1</v>
+      </c>
+      <c r="F283" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G283" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="H283" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="I283" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="J283" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="K283" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="L283" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="M283" s="28" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N283" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O283" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P283" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q283" s="28">
+        <v>1</v>
+      </c>
+      <c r="R283" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="30">
+        <v>1</v>
+      </c>
+      <c r="B284" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="C284" s="30" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D284" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="E284" s="30">
+        <v>1</v>
+      </c>
+      <c r="F284" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="G284" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="H284" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="I284" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="J284" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="K284" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="L284" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="M284" s="30" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N284" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O284" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="P284" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q284" s="30">
+        <v>1</v>
+      </c>
+      <c r="R284" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="26">
+        <v>3</v>
+      </c>
+      <c r="B285" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C285" s="26" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D285" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E285" s="26">
+        <v>1</v>
+      </c>
+      <c r="F285" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="G285" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H285" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="I285" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="J285" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="K285" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="L285" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="M285" s="26" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N285" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O285" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="P285" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q285" s="26">
+        <v>1</v>
+      </c>
+      <c r="R285" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="32">
+        <v>3</v>
+      </c>
+      <c r="B286" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="C286" s="32" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D286" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="E286" s="32">
+        <v>1</v>
+      </c>
+      <c r="F286" s="33" t="s">
+        <v>513</v>
+      </c>
+      <c r="G286" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="H286" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="I286" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="J286" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="K286" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="L286" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="M286" s="32" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N286" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O286" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P286" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q286" s="32">
+        <v>1</v>
+      </c>
+      <c r="R286" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="26">
+        <v>3</v>
+      </c>
+      <c r="B287" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="C287" s="26" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D287" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="E287" s="26">
+        <v>1</v>
+      </c>
+      <c r="F287" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="G287" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="H287" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="I287" s="26" t="s">
+        <v>560</v>
+      </c>
+      <c r="J287" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="K287" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="L287" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="M287" s="26" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N287" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O287" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="P287" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q287" s="26">
+        <v>1</v>
+      </c>
+      <c r="R287" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="30">
+        <v>3</v>
+      </c>
+      <c r="B288" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="C288" s="30" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D288" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E288" s="30">
+        <v>1</v>
+      </c>
+      <c r="F288" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="G288" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="H288" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="I288" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="J288" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="K288" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="L288" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="M288" s="30" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N288" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O288" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="P288" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q288" s="30">
+        <v>1</v>
+      </c>
+      <c r="R288" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="30">
+        <v>3</v>
+      </c>
+      <c r="B289" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="C289" s="30" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D289" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E289" s="30">
+        <v>2</v>
+      </c>
+      <c r="F289" s="31" t="s">
+        <v>551</v>
+      </c>
+      <c r="G289" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="H289" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="I289" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="J289" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="K289" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="L289" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="M289" s="30" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N289" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O289" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="P289" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q289" s="30">
+        <v>2</v>
+      </c>
+      <c r="R289" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="24">
+        <v>3</v>
+      </c>
+      <c r="B290" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="C290" s="24" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D290" s="24" t="s">
+        <v>562</v>
+      </c>
+      <c r="E290" s="24">
+        <v>1</v>
+      </c>
+      <c r="F290" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="G290" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="H290" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="I290" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="J290" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="K290" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="L290" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="M290" s="24" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N290" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O290" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P290" s="24" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q290" s="24">
+        <v>1</v>
+      </c>
+      <c r="R290" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="24">
+        <v>3</v>
+      </c>
+      <c r="B291" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C291" s="24" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D291" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E291" s="24">
+        <v>1</v>
+      </c>
+      <c r="F291" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G291" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H291" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I291" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="J291" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K291" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L291" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M291" s="24" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N291" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O291" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P291" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q291" s="24">
+        <v>1</v>
+      </c>
+      <c r="R291" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="22">
+        <v>1</v>
+      </c>
+      <c r="B292" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C292" s="22" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D292" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="E292" s="22">
+        <v>1</v>
+      </c>
+      <c r="F292" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="G292" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="H292" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="I292" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="J292" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="K292" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="L292" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="M292" s="22" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N292" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O292" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P292" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q292" s="22">
+        <v>1</v>
+      </c>
+      <c r="R292" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="24">
+        <v>4</v>
+      </c>
+      <c r="B293" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="C293" s="24" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D293" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="E293" s="24">
+        <v>1</v>
+      </c>
+      <c r="F293" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="G293" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="H293" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="I293" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="J293" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="K293" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="L293" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="M293" s="24" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N293" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O293" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P293" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q293" s="24">
+        <v>1</v>
+      </c>
+      <c r="R293" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="22">
+        <v>4</v>
+      </c>
+      <c r="B294" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C294" s="22" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D294" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="E294" s="22">
+        <v>1</v>
+      </c>
+      <c r="F294" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="G294" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="H294" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="I294" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="J294" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="K294" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="L294" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="M294" s="22" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N294" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O294" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P294" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q294" s="22">
+        <v>1</v>
+      </c>
+      <c r="R294" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="22">
+        <v>1</v>
+      </c>
+      <c r="B295" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="C295" s="22" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D295" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="E295" s="22">
+        <v>1</v>
+      </c>
+      <c r="F295" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="G295" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="H295" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="I295" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J295" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="K295" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="L295" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="M295" s="22" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N295" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O295" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P295" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q295" s="22">
+        <v>1</v>
+      </c>
+      <c r="R295" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="26">
+        <v>2</v>
+      </c>
+      <c r="B296" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="C296" s="26" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D296" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E296" s="26">
+        <v>1</v>
+      </c>
+      <c r="F296" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="G296" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="H296" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="I296" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="J296" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="K296" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="L296" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="M296" s="26" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N296" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O296" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="P296" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q296" s="26">
+        <v>1</v>
+      </c>
+      <c r="R296" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="32">
+        <v>2</v>
+      </c>
+      <c r="B297" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="C297" s="32" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D297" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="E297" s="32">
+        <v>1</v>
+      </c>
+      <c r="F297" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="G297" s="32" t="s">
+        <v>541</v>
+      </c>
+      <c r="H297" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="I297" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="J297" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="K297" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="L297" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="M297" s="32" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N297" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O297" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P297" s="32" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q297" s="32">
+        <v>1</v>
+      </c>
+      <c r="R297" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="32">
+        <v>2</v>
+      </c>
+      <c r="B298" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="C298" s="32" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D298" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="E298" s="32">
+        <v>1</v>
+      </c>
+      <c r="F298" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="G298" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="H298" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="I298" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="J298" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="K298" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="L298" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="M298" s="32" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N298" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O298" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P298" s="32" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q298" s="32">
+        <v>1</v>
+      </c>
+      <c r="R298" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="26">
+        <v>1</v>
+      </c>
+      <c r="B299" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="C299" s="26" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D299" s="26" t="s">
+        <v>516</v>
+      </c>
+      <c r="E299" s="26">
+        <v>1</v>
+      </c>
+      <c r="F299" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="G299" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="H299" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="I299" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="J299" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="K299" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="L299" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="M299" s="26" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N299" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O299" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="P299" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q299" s="26">
+        <v>1</v>
+      </c>
+      <c r="R299" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="28">
+        <v>3</v>
+      </c>
+      <c r="B300" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C300" s="28" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D300" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="E300" s="28">
+        <v>1</v>
+      </c>
+      <c r="F300" s="29" t="s">
+        <v>613</v>
+      </c>
+      <c r="G300" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="H300" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="I300" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="J300" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="K300" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="L300" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="M300" s="28" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N300" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O300" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P300" s="28" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q300" s="28">
+        <v>1</v>
+      </c>
+      <c r="R300" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="22">
+        <v>3</v>
+      </c>
+      <c r="B301" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C301" s="22" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D301" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="E301" s="22">
+        <v>1</v>
+      </c>
+      <c r="F301" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="G301" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="H301" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="I301" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="J301" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="K301" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="L301" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="M301" s="22" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N301" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O301" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P301" s="22" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q301" s="22">
+        <v>1</v>
+      </c>
+      <c r="R301" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="22">
+        <v>1</v>
+      </c>
+      <c r="B302" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C302" s="22" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D302" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="E302" s="22">
+        <v>1</v>
+      </c>
+      <c r="F302" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G302" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H302" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="I302" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="J302" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K302" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L302" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M302" s="22" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N302" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O302" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P302" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q302" s="22">
+        <v>1</v>
+      </c>
+      <c r="R302" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="28">
+        <v>1</v>
+      </c>
+      <c r="B303" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C303" s="28" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D303" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="E303" s="28">
+        <v>1</v>
+      </c>
+      <c r="F303" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G303" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="H303" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="I303" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J303" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K303" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L303" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M303" s="28" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N303" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O303" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P303" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q303" s="28">
+        <v>1</v>
+      </c>
+      <c r="R303" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+      <c r="A304" s="30">
+        <v>1</v>
+      </c>
+      <c r="B304" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C304" s="30" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D304" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E304" s="30">
+        <v>1</v>
+      </c>
+      <c r="F304" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="G304" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="H304" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="I304" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="J304" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K304" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L304" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M304" s="30" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N304" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O304" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="P304" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q304" s="30">
+        <v>1</v>
+      </c>
+      <c r="R304" s="30" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/horarios/all.processed.xlsx
+++ b/data/horarios/all.processed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57500973-D47B-4C8A-ABCB-C4AB68EAD420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DACE1C-02E5-4A23-997A-C7DDAE763AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3743,9 +3743,14 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}" name="Table1" displayName="Table1" ref="A1:R304" totalsRowShown="0" dataDxfId="17">
   <autoFilter ref="A1:R304" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}">
-    <filterColumn colId="3">
+    <filterColumn colId="6">
       <filters>
-        <filter val="FUNDAMENTOS DE AUDITORIA TRIBUTARIA"/>
+        <filter val="FLORES"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="KONJA"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4053,7 +4058,7 @@
   <dimension ref="A1:R304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C309" sqref="C309"/>
+      <selection activeCell="D305" sqref="D305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5460,7 +5465,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -6225,7 +6230,7 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>1</v>
       </c>
@@ -11184,7 +11189,7 @@
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
     </row>
-    <row r="140" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>1</v>
       </c>
@@ -11201,16 +11206,16 @@
         <v>1</v>
       </c>
       <c r="F140" s="15" t="s">
-        <v>160</v>
+        <v>1015</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>161</v>
+        <v>1016</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>163</v>
+        <v>1017</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>20</v>
@@ -12488,16 +12493,16 @@
         <v>1</v>
       </c>
       <c r="F165" s="15" t="s">
-        <v>1015</v>
+        <v>1065</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>1016</v>
+        <v>1066</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>56</v>
+        <v>1067</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>1017</v>
+        <v>1068</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>20</v>
@@ -19908,7 +19913,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="30">
         <v>1</v>
       </c>

--- a/data/horarios/all.processed.xlsx
+++ b/data/horarios/all.processed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DACE1C-02E5-4A23-997A-C7DDAE763AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B332306-C860-43A6-B1DA-8800637CC451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="1162">
   <si>
     <t>ciclo</t>
   </si>
@@ -3459,6 +3459,66 @@
   </si>
   <si>
     <t>C3S21111</t>
+  </si>
+  <si>
+    <t>C3P21321</t>
+  </si>
+  <si>
+    <t>C3P21322</t>
+  </si>
+  <si>
+    <t>C3P21323</t>
+  </si>
+  <si>
+    <t>C3P21324</t>
+  </si>
+  <si>
+    <t>C202A644</t>
+  </si>
+  <si>
+    <t>C202A643</t>
+  </si>
+  <si>
+    <t>C202A642</t>
+  </si>
+  <si>
+    <t>C202A641</t>
+  </si>
+  <si>
+    <t>C3P22334</t>
+  </si>
+  <si>
+    <t>C3P22313</t>
+  </si>
+  <si>
+    <t>C3P22312</t>
+  </si>
+  <si>
+    <t>C3P22311</t>
+  </si>
+  <si>
+    <t>C3P22333</t>
+  </si>
+  <si>
+    <t>C3P22332</t>
+  </si>
+  <si>
+    <t>C3P22331</t>
+  </si>
+  <si>
+    <t>C3P22324</t>
+  </si>
+  <si>
+    <t>C202B642</t>
+  </si>
+  <si>
+    <t>C3P21433</t>
+  </si>
+  <si>
+    <t>C3P21424</t>
+  </si>
+  <si>
+    <t>C3P21434</t>
   </si>
 </sst>
 </file>
@@ -3741,16 +3801,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}" name="Table1" displayName="Table1" ref="A1:R304" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="A1:R304" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}">
-    <filterColumn colId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}" name="Table1" displayName="Table1" ref="A1:R324" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="A1:R324" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}">
+    <filterColumn colId="1">
       <filters>
-        <filter val="FLORES"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="KONJA"/>
+        <filter val="MPAFC"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4055,10 +4110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R304"/>
+  <dimension ref="A1:R324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D305" sqref="D305"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E327" sqref="E327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5465,7 +5520,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -5976,106 +6031,106 @@
       <c r="R37" s="1"/>
     </row>
     <row r="38" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+      <c r="A38" s="3">
         <v>2</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="3">
         <v>2</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F38" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M38" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
+      <c r="M38" s="3" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="A39" s="5">
         <v>4</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="15" t="s">
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M39" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
+      <c r="M39" s="5" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
     </row>
     <row r="40" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
@@ -6180,55 +6235,55 @@
       <c r="R41" s="7"/>
     </row>
     <row r="42" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+      <c r="A42" s="6">
         <v>4</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E42" s="1">
-        <v>1</v>
-      </c>
-      <c r="F42" s="15" t="s">
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M42" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N42" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
+      <c r="M42" s="6" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
     </row>
     <row r="43" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
@@ -6435,55 +6490,55 @@
       <c r="R46" s="1"/>
     </row>
     <row r="47" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+      <c r="A47" s="6">
         <v>2</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="6">
         <v>2</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F47" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="K47" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L47" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M47" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
+      <c r="M47" s="6" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
     </row>
     <row r="48" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
@@ -6741,55 +6796,55 @@
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+      <c r="A53" s="5">
         <v>4</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="15" t="s">
+      <c r="E53" s="5">
+        <v>1</v>
+      </c>
+      <c r="F53" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="K53" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="L53" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="M53" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
+      <c r="M53" s="5" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
     </row>
     <row r="54" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
@@ -6894,55 +6949,55 @@
       <c r="R55" s="1"/>
     </row>
     <row r="56" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+      <c r="A56" s="12">
         <v>2</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="12">
         <v>2</v>
       </c>
-      <c r="F56" s="15" t="s">
+      <c r="F56" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="K56" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="L56" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M56" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N56" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
+      <c r="M56" s="12" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="O56" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
     </row>
     <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
@@ -6996,55 +7051,55 @@
       <c r="R57" s="1"/>
     </row>
     <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="A58" s="4">
         <v>2</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="4">
         <v>2</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="K58" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="L58" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M58" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N58" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
+      <c r="M58" s="4" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
     </row>
     <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
@@ -10425,55 +10480,55 @@
       <c r="R124" s="1"/>
     </row>
     <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
+      <c r="A125" s="3">
         <v>2</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E125" s="1">
-        <v>1</v>
-      </c>
-      <c r="F125" s="15" t="s">
+      <c r="E125" s="3">
+        <v>1</v>
+      </c>
+      <c r="F125" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G125" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="H125" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="I125" s="1" t="s">
+      <c r="I125" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="J125" s="1" t="s">
+      <c r="J125" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="K125" s="1" t="s">
+      <c r="K125" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="L125" s="1" t="s">
+      <c r="L125" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="M125" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N125" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O125" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
+      <c r="M125" s="3" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N125" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O125" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
     </row>
     <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
@@ -10731,50 +10786,50 @@
       <c r="R130" s="1"/>
     </row>
     <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
+      <c r="A131" s="4">
         <v>3</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E131" s="1">
-        <v>1</v>
-      </c>
-      <c r="F131" s="15" t="s">
+      <c r="E131" s="4">
+        <v>1</v>
+      </c>
+      <c r="F131" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G131" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="H131" s="1" t="s">
+      <c r="H131" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="I131" s="1" t="s">
+      <c r="I131" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="J131" s="1" t="s">
+      <c r="J131" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="K131" s="1" t="s">
+      <c r="K131" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="L131" s="1" t="s">
+      <c r="L131" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="M131" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N131" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O131" s="1" t="s">
+      <c r="M131" s="4" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N131" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O131" s="4" t="s">
         <v>23</v>
       </c>
       <c r="P131" s="1"/>
@@ -10884,55 +10939,55 @@
       <c r="R133" s="4"/>
     </row>
     <row r="134" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
+      <c r="A134" s="3">
         <v>3</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C134" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="E134" s="1">
-        <v>1</v>
-      </c>
-      <c r="F134" s="15" t="s">
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
+      <c r="F134" s="16" t="s">
         <v>624</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G134" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="H134" s="1" t="s">
+      <c r="H134" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="I134" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="J134" s="1" t="s">
+      <c r="J134" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="K134" s="1" t="s">
+      <c r="K134" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="L134" s="1" t="s">
+      <c r="L134" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="M134" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N134" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O134" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
-      <c r="R134" s="1"/>
+      <c r="M134" s="3" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N134" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O134" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
     </row>
     <row r="135" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
@@ -11189,7 +11244,7 @@
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
     </row>
-    <row r="140" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>1</v>
       </c>
@@ -14420,7 +14475,7 @@
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
     </row>
-    <row r="203" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>1</v>
       </c>
@@ -14471,7 +14526,7 @@
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
     </row>
-    <row r="204" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>1</v>
       </c>
@@ -14522,7 +14577,7 @@
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
     </row>
-    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>1</v>
       </c>
@@ -14573,7 +14628,7 @@
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
     </row>
-    <row r="206" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>1</v>
       </c>
@@ -14624,7 +14679,7 @@
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
     </row>
-    <row r="207" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>1</v>
       </c>
@@ -14675,7 +14730,7 @@
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
     </row>
-    <row r="208" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>2</v>
       </c>
@@ -14726,7 +14781,7 @@
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
     </row>
-    <row r="209" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>2</v>
       </c>
@@ -14777,7 +14832,7 @@
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
     </row>
-    <row r="210" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>2</v>
       </c>
@@ -14828,7 +14883,7 @@
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
     </row>
-    <row r="211" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>2</v>
       </c>
@@ -14879,7 +14934,7 @@
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
     </row>
-    <row r="212" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>2</v>
       </c>
@@ -14930,7 +14985,7 @@
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
     </row>
-    <row r="213" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>2</v>
       </c>
@@ -15753,106 +15808,106 @@
       <c r="R228" s="1"/>
     </row>
     <row r="229" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="1">
+      <c r="A229" s="4">
         <v>3</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B229" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D229" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="E229" s="1">
-        <v>1</v>
-      </c>
-      <c r="F229" s="15" t="s">
+      <c r="E229" s="4">
+        <v>1</v>
+      </c>
+      <c r="F229" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="G229" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="H229" s="1" t="s">
+      <c r="H229" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="I229" s="1" t="s">
+      <c r="I229" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="J229" s="1" t="s">
+      <c r="J229" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K229" s="1" t="s">
+      <c r="K229" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="L229" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M229" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N229" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O229" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P229" s="1"/>
-      <c r="Q229" s="1"/>
-      <c r="R229" s="1"/>
+      <c r="M229" s="4" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N229" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O229" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P229" s="4"/>
+      <c r="Q229" s="4"/>
+      <c r="R229" s="4"/>
     </row>
     <row r="230" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="1">
-        <v>1</v>
-      </c>
-      <c r="B230" s="1" t="s">
+      <c r="A230" s="3">
+        <v>1</v>
+      </c>
+      <c r="B230" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D230" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E230" s="1">
-        <v>1</v>
-      </c>
-      <c r="F230" s="15" t="s">
+      <c r="E230" s="3">
+        <v>1</v>
+      </c>
+      <c r="F230" s="16" t="s">
         <v>1015</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="G230" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="H230" s="1" t="s">
+      <c r="H230" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I230" s="1" t="s">
+      <c r="I230" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="J230" s="1" t="s">
+      <c r="J230" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K230" s="1" t="s">
+      <c r="K230" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="L230" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M230" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N230" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O230" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P230" s="1"/>
-      <c r="Q230" s="1"/>
-      <c r="R230" s="1"/>
+      <c r="M230" s="3" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N230" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O230" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P230" s="3"/>
+      <c r="Q230" s="3"/>
+      <c r="R230" s="3"/>
     </row>
     <row r="231" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
@@ -16008,55 +16063,55 @@
       <c r="R233" s="1"/>
     </row>
     <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="1">
-        <v>1</v>
-      </c>
-      <c r="B234" s="1" t="s">
+      <c r="A234" s="4">
+        <v>1</v>
+      </c>
+      <c r="B234" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" s="4" t="s">
         <v>1032</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="D234" s="4" t="s">
         <v>1033</v>
       </c>
-      <c r="E234" s="1">
-        <v>1</v>
-      </c>
-      <c r="F234" s="15" t="s">
+      <c r="E234" s="4">
+        <v>1</v>
+      </c>
+      <c r="F234" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="G234" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="H234" s="1" t="s">
+      <c r="H234" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="I234" s="1" t="s">
+      <c r="I234" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="J234" s="1" t="s">
+      <c r="J234" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K234" s="1" t="s">
+      <c r="K234" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="L234" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M234" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N234" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O234" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P234" s="1"/>
-      <c r="Q234" s="1"/>
-      <c r="R234" s="1"/>
+      <c r="M234" s="4" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N234" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O234" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P234" s="4"/>
+      <c r="Q234" s="4"/>
+      <c r="R234" s="4"/>
     </row>
     <row r="235" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
@@ -16263,157 +16318,157 @@
       <c r="R238" s="1"/>
     </row>
     <row r="239" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="1">
+      <c r="A239" s="6">
         <v>3</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="6" t="s">
         <v>1050</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="D239" s="6" t="s">
         <v>1051</v>
       </c>
-      <c r="E239" s="1">
-        <v>1</v>
-      </c>
-      <c r="F239" s="15" t="s">
+      <c r="E239" s="6">
+        <v>1</v>
+      </c>
+      <c r="F239" s="13" t="s">
         <v>1052</v>
       </c>
-      <c r="G239" s="1" t="s">
+      <c r="G239" s="6" t="s">
         <v>1053</v>
       </c>
-      <c r="H239" s="1" t="s">
+      <c r="H239" s="6" t="s">
         <v>1054</v>
       </c>
-      <c r="I239" s="1" t="s">
+      <c r="I239" s="6" t="s">
         <v>1055</v>
       </c>
-      <c r="J239" s="1" t="s">
+      <c r="J239" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K239" s="1" t="s">
+      <c r="K239" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L239" s="1" t="s">
+      <c r="L239" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M239" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N239" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O239" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P239" s="1"/>
-      <c r="Q239" s="1"/>
-      <c r="R239" s="1"/>
+      <c r="M239" s="6" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N239" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O239" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P239" s="6"/>
+      <c r="Q239" s="6"/>
+      <c r="R239" s="6"/>
     </row>
     <row r="240" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="1">
-        <v>1</v>
-      </c>
-      <c r="B240" s="1" t="s">
+      <c r="A240" s="5">
+        <v>1</v>
+      </c>
+      <c r="B240" s="5" t="s">
         <v>1006</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="5" t="s">
         <v>1056</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D240" s="5" t="s">
         <v>1057</v>
       </c>
-      <c r="E240" s="1">
-        <v>1</v>
-      </c>
-      <c r="F240" s="15" t="s">
+      <c r="E240" s="5">
+        <v>1</v>
+      </c>
+      <c r="F240" s="19" t="s">
         <v>1058</v>
       </c>
-      <c r="G240" s="1" t="s">
+      <c r="G240" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="H240" s="1" t="s">
+      <c r="H240" s="5" t="s">
         <v>1059</v>
       </c>
-      <c r="I240" s="1" t="s">
+      <c r="I240" s="5" t="s">
         <v>1060</v>
       </c>
-      <c r="J240" s="1" t="s">
+      <c r="J240" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K240" s="1" t="s">
+      <c r="K240" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L240" s="1" t="s">
+      <c r="L240" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M240" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N240" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O240" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P240" s="1"/>
-      <c r="Q240" s="1"/>
-      <c r="R240" s="1"/>
+      <c r="M240" s="5" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N240" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O240" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P240" s="5"/>
+      <c r="Q240" s="5"/>
+      <c r="R240" s="5"/>
     </row>
     <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="1">
+      <c r="A241" s="10">
         <v>2</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" s="10" t="s">
         <v>1006</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C241" s="10" t="s">
         <v>1061</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="D241" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E241" s="1">
-        <v>1</v>
-      </c>
-      <c r="F241" s="15" t="s">
+      <c r="E241" s="10">
+        <v>1</v>
+      </c>
+      <c r="F241" s="20" t="s">
         <v>1062</v>
       </c>
-      <c r="G241" s="1" t="s">
+      <c r="G241" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="H241" s="1" t="s">
+      <c r="H241" s="10" t="s">
         <v>1063</v>
       </c>
-      <c r="I241" s="1" t="s">
+      <c r="I241" s="10" t="s">
         <v>1064</v>
       </c>
-      <c r="J241" s="1" t="s">
+      <c r="J241" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K241" s="1" t="s">
+      <c r="K241" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L241" s="1" t="s">
+      <c r="L241" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M241" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N241" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O241" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P241" s="1"/>
-      <c r="Q241" s="1"/>
-      <c r="R241" s="1"/>
+      <c r="M241" s="10" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N241" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O241" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P241" s="10"/>
+      <c r="Q241" s="10"/>
+      <c r="R241" s="10"/>
     </row>
     <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
@@ -16467,55 +16522,55 @@
       <c r="R242" s="1"/>
     </row>
     <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="1">
+      <c r="A243" s="10">
         <v>3</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" s="10" t="s">
         <v>1006</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C243" s="10" t="s">
         <v>1069</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="D243" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E243" s="1">
-        <v>1</v>
-      </c>
-      <c r="F243" s="15" t="s">
+      <c r="E243" s="10">
+        <v>1</v>
+      </c>
+      <c r="F243" s="20" t="s">
         <v>1070</v>
       </c>
-      <c r="G243" s="1" t="s">
+      <c r="G243" s="10" t="s">
         <v>1071</v>
       </c>
-      <c r="H243" s="1" t="s">
+      <c r="H243" s="10" t="s">
         <v>1072</v>
       </c>
-      <c r="I243" s="1" t="s">
+      <c r="I243" s="10" t="s">
         <v>1073</v>
       </c>
-      <c r="J243" s="1" t="s">
+      <c r="J243" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K243" s="1" t="s">
+      <c r="K243" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L243" s="1" t="s">
+      <c r="L243" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M243" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N243" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O243" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P243" s="1"/>
-      <c r="Q243" s="1"/>
-      <c r="R243" s="1"/>
+      <c r="M243" s="10" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N243" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O243" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P243" s="10"/>
+      <c r="Q243" s="10"/>
+      <c r="R243" s="10"/>
     </row>
     <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
@@ -16569,55 +16624,55 @@
       <c r="R244" s="1"/>
     </row>
     <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="1">
+      <c r="A245" s="10">
         <v>4</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" s="10" t="s">
         <v>1006</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C245" s="10" t="s">
         <v>1078</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="D245" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E245" s="1">
-        <v>1</v>
-      </c>
-      <c r="F245" s="15" t="s">
+      <c r="E245" s="10">
+        <v>1</v>
+      </c>
+      <c r="F245" s="20" t="s">
         <v>1079</v>
       </c>
-      <c r="G245" s="1" t="s">
+      <c r="G245" s="10" t="s">
         <v>1080</v>
       </c>
-      <c r="H245" s="1" t="s">
+      <c r="H245" s="10" t="s">
         <v>1081</v>
       </c>
-      <c r="I245" s="1" t="s">
+      <c r="I245" s="10" t="s">
         <v>1082</v>
       </c>
-      <c r="J245" s="1" t="s">
+      <c r="J245" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K245" s="1" t="s">
+      <c r="K245" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L245" s="1" t="s">
+      <c r="L245" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="M245" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N245" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O245" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P245" s="1"/>
-      <c r="Q245" s="1"/>
-      <c r="R245" s="1"/>
+      <c r="M245" s="10" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N245" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="O245" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P245" s="10"/>
+      <c r="Q245" s="10"/>
+      <c r="R245" s="10"/>
     </row>
     <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
@@ -16671,55 +16726,55 @@
       <c r="R246" s="1"/>
     </row>
     <row r="247" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="1">
+      <c r="A247" s="6">
         <v>3</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="B247" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="C247" s="6" t="s">
         <v>1087</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="D247" s="6" t="s">
         <v>1088</v>
       </c>
-      <c r="E247" s="1">
-        <v>1</v>
-      </c>
-      <c r="F247" s="15" t="s">
+      <c r="E247" s="6">
+        <v>1</v>
+      </c>
+      <c r="F247" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="G247" s="1" t="s">
+      <c r="G247" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="H247" s="1" t="s">
+      <c r="H247" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="I247" s="1" t="s">
+      <c r="I247" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="J247" s="1" t="s">
+      <c r="J247" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K247" s="1" t="s">
+      <c r="K247" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L247" s="1" t="s">
+      <c r="L247" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M247" s="1" t="b">
-        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
-        <v>0</v>
-      </c>
-      <c r="N247" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O247" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P247" s="1"/>
-      <c r="Q247" s="1"/>
-      <c r="R247" s="1"/>
+      <c r="M247" s="6" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N247" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O247" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P247" s="6"/>
+      <c r="Q247" s="6"/>
+      <c r="R247" s="6"/>
     </row>
     <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5">
@@ -18032,7 +18087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="271" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A271" s="5">
         <v>1</v>
       </c>
@@ -18089,7 +18144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A272" s="5">
         <v>1</v>
       </c>
@@ -18146,7 +18201,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>1</v>
       </c>
@@ -19967,6 +20022,1146 @@
         <v>1</v>
       </c>
       <c r="R304" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="24">
+        <v>2</v>
+      </c>
+      <c r="B305" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C305" s="24" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D305" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E305" s="24">
+        <v>2</v>
+      </c>
+      <c r="F305" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G305" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="H305" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="I305" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="J305" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K305" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="L305" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="M305" s="24" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N305" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O305" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P305" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q305" s="24">
+        <v>2</v>
+      </c>
+      <c r="R305" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="26">
+        <v>2</v>
+      </c>
+      <c r="B306" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C306" s="26" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D306" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="E306" s="26">
+        <v>2</v>
+      </c>
+      <c r="F306" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="G306" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="H306" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="I306" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J306" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K306" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L306" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M306" s="26" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N306" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O306" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="P306" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q306" s="26">
+        <v>2</v>
+      </c>
+      <c r="R306" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="30">
+        <v>2</v>
+      </c>
+      <c r="B307" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C307" s="30" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D307" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="E307" s="30">
+        <v>2</v>
+      </c>
+      <c r="F307" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="G307" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="H307" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="I307" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="J307" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K307" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="L307" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M307" s="30" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N307" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O307" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="P307" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q307" s="30">
+        <v>2</v>
+      </c>
+      <c r="R307" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="22">
+        <v>2</v>
+      </c>
+      <c r="B308" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C308" s="22" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D308" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E308" s="22">
+        <v>2</v>
+      </c>
+      <c r="F308" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="G308" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="H308" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="I308" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="J308" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K308" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L308" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M308" s="22" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N308" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O308" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P308" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q308" s="22">
+        <v>2</v>
+      </c>
+      <c r="R308" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="32">
+        <v>4</v>
+      </c>
+      <c r="B309" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C309" s="32" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D309" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="E309" s="32">
+        <v>1</v>
+      </c>
+      <c r="F309" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G309" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="H309" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="I309" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="J309" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K309" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L309" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="M309" s="32" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N309" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O309" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P309" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q309" s="32">
+        <v>1</v>
+      </c>
+      <c r="R309" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="22">
+        <v>4</v>
+      </c>
+      <c r="B310" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C310" s="22" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D310" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E310" s="22">
+        <v>1</v>
+      </c>
+      <c r="F310" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G310" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H310" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I310" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="J310" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K310" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L310" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M310" s="22" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N310" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O310" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P310" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q310" s="22">
+        <v>1</v>
+      </c>
+      <c r="R310" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="32">
+        <v>4</v>
+      </c>
+      <c r="B311" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C311" s="32" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D311" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E311" s="32">
+        <v>1</v>
+      </c>
+      <c r="F311" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="G311" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="H311" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="I311" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="J311" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K311" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L311" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="M311" s="32" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N311" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O311" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P311" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q311" s="32">
+        <v>1</v>
+      </c>
+      <c r="R311" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="26">
+        <v>4</v>
+      </c>
+      <c r="B312" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C312" s="26" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D312" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E312" s="26">
+        <v>1</v>
+      </c>
+      <c r="F312" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G312" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="H312" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I312" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J312" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K312" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L312" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M312" s="26" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N312" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O312" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="P312" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q312" s="26">
+        <v>1</v>
+      </c>
+      <c r="R312" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="28">
+        <v>3</v>
+      </c>
+      <c r="B313" s="28" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C313" s="28" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D313" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E313" s="28">
+        <v>1</v>
+      </c>
+      <c r="F313" s="29" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G313" s="28" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H313" s="28" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I313" s="28" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J313" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K313" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L313" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M313" s="28" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N313" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O313" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P313" s="28" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Q313" s="28">
+        <v>1</v>
+      </c>
+      <c r="R313" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="32">
+        <v>1</v>
+      </c>
+      <c r="B314" s="32" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C314" s="32" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D314" s="32" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E314" s="32">
+        <v>1</v>
+      </c>
+      <c r="F314" s="33" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G314" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="H314" s="32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="I314" s="32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J314" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K314" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L314" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M314" s="32" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N314" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O314" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="P314" s="32" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Q314" s="32">
+        <v>1</v>
+      </c>
+      <c r="R314" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="22">
+        <v>1</v>
+      </c>
+      <c r="B315" s="22" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C315" s="22" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D315" s="22" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E315" s="22">
+        <v>1</v>
+      </c>
+      <c r="F315" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="G315" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="H315" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="I315" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="J315" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K315" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L315" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M315" s="22" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N315" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O315" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P315" s="22" t="s">
+        <v>1032</v>
+      </c>
+      <c r="Q315" s="22">
+        <v>1</v>
+      </c>
+      <c r="R315" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="24">
+        <v>1</v>
+      </c>
+      <c r="B316" s="24" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C316" s="24" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D316" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E316" s="24">
+        <v>1</v>
+      </c>
+      <c r="F316" s="25" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G316" s="24" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H316" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I316" s="24" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J316" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="K316" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="L316" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="M316" s="24" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N316" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O316" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P316" s="24" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Q316" s="24">
+        <v>1</v>
+      </c>
+      <c r="R316" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="26">
+        <v>3</v>
+      </c>
+      <c r="B317" s="26" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C317" s="26" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D317" s="26" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E317" s="26">
+        <v>1</v>
+      </c>
+      <c r="F317" s="27" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G317" s="26" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H317" s="26" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I317" s="26" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J317" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K317" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L317" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M317" s="26" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N317" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O317" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="P317" s="26" t="s">
+        <v>1050</v>
+      </c>
+      <c r="Q317" s="26">
+        <v>1</v>
+      </c>
+      <c r="R317" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="22">
+        <v>3</v>
+      </c>
+      <c r="B318" s="22" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C318" s="22" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D318" s="22" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E318" s="22">
+        <v>1</v>
+      </c>
+      <c r="F318" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="G318" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="H318" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="I318" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="J318" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K318" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="L318" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="M318" s="22" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N318" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O318" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P318" s="22" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q318" s="22">
+        <v>1</v>
+      </c>
+      <c r="R318" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="26">
+        <v>3</v>
+      </c>
+      <c r="B319" s="26" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C319" s="26" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D319" s="26" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E319" s="26">
+        <v>1</v>
+      </c>
+      <c r="F319" s="27" t="s">
+        <v>494</v>
+      </c>
+      <c r="G319" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="H319" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="I319" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="J319" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K319" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="L319" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M319" s="26" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N319" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O319" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="P319" s="26" t="s">
+        <v>1087</v>
+      </c>
+      <c r="Q319" s="26">
+        <v>1</v>
+      </c>
+      <c r="R319" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="28">
+        <v>2</v>
+      </c>
+      <c r="B320" s="28" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C320" s="28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D320" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E320" s="28">
+        <v>1</v>
+      </c>
+      <c r="F320" s="29" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G320" s="28" t="s">
+        <v>801</v>
+      </c>
+      <c r="H320" s="28" t="s">
+        <v>1063</v>
+      </c>
+      <c r="I320" s="28" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J320" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K320" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L320" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M320" s="28" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N320" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O320" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P320" s="28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Q320" s="28">
+        <v>1</v>
+      </c>
+      <c r="R320" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="28">
+        <v>4</v>
+      </c>
+      <c r="B321" s="28" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C321" s="28" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D321" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E321" s="28">
+        <v>1</v>
+      </c>
+      <c r="F321" s="29" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G321" s="28" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H321" s="28" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I321" s="28" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J321" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="K321" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L321" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M321" s="28" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N321" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O321" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P321" s="28" t="s">
+        <v>1078</v>
+      </c>
+      <c r="Q321" s="28">
+        <v>1</v>
+      </c>
+      <c r="R321" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="24">
+        <v>3</v>
+      </c>
+      <c r="B322" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="C322" s="24" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D322" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="E322" s="24">
+        <v>1</v>
+      </c>
+      <c r="F322" s="25" t="s">
+        <v>624</v>
+      </c>
+      <c r="G322" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="H322" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="I322" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="J322" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="K322" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="L322" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="M322" s="24" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N322" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O322" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P322" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q322" s="24">
+        <v>1</v>
+      </c>
+      <c r="R322" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="24">
+        <v>2</v>
+      </c>
+      <c r="B323" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="C323" s="24" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D323" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E323" s="24">
+        <v>1</v>
+      </c>
+      <c r="F323" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="G323" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="H323" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="I323" s="24" t="s">
+        <v>587</v>
+      </c>
+      <c r="J323" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="K323" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="L323" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="M323" s="24" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N323" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O323" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P323" s="24" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q323" s="24">
+        <v>1</v>
+      </c>
+      <c r="R323" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="22">
+        <v>3</v>
+      </c>
+      <c r="B324" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C324" s="22" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D324" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E324" s="22">
+        <v>1</v>
+      </c>
+      <c r="F324" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="G324" s="22" t="s">
+        <v>608</v>
+      </c>
+      <c r="H324" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="I324" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="J324" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="K324" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="L324" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="M324" s="22" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="N324" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O324" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P324" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q324" s="22">
+        <v>1</v>
+      </c>
+      <c r="R324" s="22" t="s">
         <v>23</v>
       </c>
     </row>

--- a/data/horarios/all.processed.xlsx
+++ b/data/horarios/all.processed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B332306-C860-43A6-B1DA-8800637CC451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC656C3-E4A2-469C-96DC-FF7245E74642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="1162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3769" uniqueCount="1174">
   <si>
     <t>ciclo</t>
   </si>
@@ -3519,6 +3519,42 @@
   </si>
   <si>
     <t>C3P21434</t>
+  </si>
+  <si>
+    <t>C2S20324</t>
+  </si>
+  <si>
+    <t>SEMINARIO DE HERRAMIENTAS DE INVESTIGACION</t>
+  </si>
+  <si>
+    <t>MERR910518NZ3</t>
+  </si>
+  <si>
+    <t>Mendoza</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>Ricardo Jacob</t>
+  </si>
+  <si>
+    <t>C3S21411</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD GERENCIAL Y DE GESTION</t>
+  </si>
+  <si>
+    <t>C3S20811</t>
+  </si>
+  <si>
+    <t>10147714</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>BALDEON DE COTRINA</t>
   </si>
 </sst>
 </file>
@@ -3801,14 +3837,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}" name="Table1" displayName="Table1" ref="A1:R324" totalsRowShown="0" dataDxfId="17">
-  <autoFilter ref="A1:R324" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="MPAFC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}" name="Table1" displayName="Table1" ref="A1:R327" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="A1:R327" xr:uid="{AD5A41C9-0974-4406-8AD1-3051A248D85D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A144:R214">
     <sortCondition ref="C1:C274"/>
   </sortState>
@@ -4110,10 +4140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R324"/>
+  <dimension ref="A1:R327"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E327" sqref="E327"/>
+    <sheetView tabSelected="1" topLeftCell="A311" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A325" sqref="A325:A327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4194,7 +4224,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -4245,7 +4275,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -4296,7 +4326,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4347,7 +4377,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4398,7 +4428,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -4449,7 +4479,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -4500,7 +4530,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -4551,7 +4581,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -4602,7 +4632,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -4653,7 +4683,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -4704,7 +4734,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -4755,7 +4785,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -4806,7 +4836,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -4857,7 +4887,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -4908,7 +4938,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -4959,7 +4989,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -5010,7 +5040,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>4</v>
       </c>
@@ -5061,7 +5091,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -5112,7 +5142,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -5163,7 +5193,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -5214,7 +5244,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -5265,7 +5295,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -5316,7 +5346,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -5367,7 +5397,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -5418,7 +5448,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -5469,7 +5499,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -5520,7 +5550,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -5571,7 +5601,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>3</v>
       </c>
@@ -5622,7 +5652,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -5673,7 +5703,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -5724,7 +5754,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4</v>
       </c>
@@ -5775,7 +5805,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -5826,7 +5856,7 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>4</v>
       </c>
@@ -5877,7 +5907,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -5928,7 +5958,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
     </row>
-    <row r="36" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4</v>
       </c>
@@ -5979,7 +6009,7 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
     </row>
-    <row r="37" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -6030,7 +6060,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -6081,7 +6111,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>4</v>
       </c>
@@ -6132,7 +6162,7 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>3</v>
       </c>
@@ -6183,7 +6213,7 @@
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
     </row>
-    <row r="41" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>3</v>
       </c>
@@ -6234,7 +6264,7 @@
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
     </row>
-    <row r="42" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>4</v>
       </c>
@@ -6285,7 +6315,7 @@
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
     </row>
-    <row r="43" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <v>1</v>
       </c>
@@ -6336,7 +6366,7 @@
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
     </row>
-    <row r="44" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>3</v>
       </c>
@@ -6387,7 +6417,7 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
     </row>
-    <row r="45" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -6438,7 +6468,7 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
     </row>
-    <row r="46" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -6489,7 +6519,7 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
     </row>
-    <row r="47" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>2</v>
       </c>
@@ -6540,7 +6570,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
     </row>
-    <row r="48" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>1</v>
       </c>
@@ -6591,7 +6621,7 @@
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
     </row>
-    <row r="49" spans="1:18" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -6642,7 +6672,7 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
     </row>
-    <row r="50" spans="1:18" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>3</v>
       </c>
@@ -6693,7 +6723,7 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
     </row>
-    <row r="51" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -6744,7 +6774,7 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
     </row>
-    <row r="52" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -6795,7 +6825,7 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
     </row>
-    <row r="53" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>4</v>
       </c>
@@ -6846,7 +6876,7 @@
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
-    <row r="54" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>1</v>
       </c>
@@ -6897,7 +6927,7 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
     </row>
-    <row r="55" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -6948,7 +6978,7 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
     </row>
-    <row r="56" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="12">
         <v>2</v>
       </c>
@@ -6999,7 +7029,7 @@
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
     </row>
-    <row r="57" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -7050,7 +7080,7 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
     </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>2</v>
       </c>
@@ -7101,7 +7131,7 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>3</v>
       </c>
@@ -7152,7 +7182,7 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>3</v>
       </c>
@@ -7203,7 +7233,7 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>3</v>
       </c>
@@ -7254,7 +7284,7 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>4</v>
       </c>
@@ -7305,7 +7335,7 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
     </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>4</v>
       </c>
@@ -7362,7 +7392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -7413,7 +7443,7 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
     </row>
-    <row r="65" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -7464,7 +7494,7 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
         <v>1</v>
       </c>
@@ -7515,7 +7545,7 @@
       <c r="Q66" s="12"/>
       <c r="R66" s="12"/>
     </row>
-    <row r="67" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -7566,7 +7596,7 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
     </row>
-    <row r="68" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -7617,7 +7647,7 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
     </row>
-    <row r="69" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>1</v>
       </c>
@@ -7668,7 +7698,7 @@
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -7719,7 +7749,7 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
     </row>
-    <row r="71" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -7770,7 +7800,7 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -7821,7 +7851,7 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
     </row>
-    <row r="73" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -7872,7 +7902,7 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>3</v>
       </c>
@@ -7923,7 +7953,7 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>3</v>
       </c>
@@ -7974,7 +8004,7 @@
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>3</v>
       </c>
@@ -8025,7 +8055,7 @@
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
     </row>
-    <row r="77" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>3</v>
       </c>
@@ -8076,7 +8106,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
     </row>
-    <row r="78" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>3</v>
       </c>
@@ -8127,7 +8157,7 @@
       <c r="Q78" s="10"/>
       <c r="R78" s="10"/>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>4</v>
       </c>
@@ -8178,7 +8208,7 @@
       <c r="Q79" s="1"/>
       <c r="R79" s="1"/>
     </row>
-    <row r="80" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>4</v>
       </c>
@@ -8229,7 +8259,7 @@
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>4</v>
       </c>
@@ -8280,7 +8310,7 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
     </row>
-    <row r="82" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>4</v>
       </c>
@@ -8331,7 +8361,7 @@
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
     </row>
-    <row r="83" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>1</v>
       </c>
@@ -8382,7 +8412,7 @@
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
     </row>
-    <row r="84" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -8433,7 +8463,7 @@
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
     </row>
-    <row r="85" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>1</v>
       </c>
@@ -8484,7 +8514,7 @@
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
     </row>
-    <row r="86" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>1</v>
       </c>
@@ -8535,7 +8565,7 @@
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
     </row>
-    <row r="87" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>1</v>
       </c>
@@ -8586,7 +8616,7 @@
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -8637,7 +8667,7 @@
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>2</v>
       </c>
@@ -8688,7 +8718,7 @@
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
     </row>
-    <row r="90" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>2</v>
       </c>
@@ -8739,7 +8769,7 @@
       <c r="Q90" s="1"/>
       <c r="R90" s="1"/>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>3</v>
       </c>
@@ -8790,7 +8820,7 @@
       <c r="Q91" s="1"/>
       <c r="R91" s="1"/>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>3</v>
       </c>
@@ -8841,7 +8871,7 @@
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
     </row>
-    <row r="93" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>3</v>
       </c>
@@ -8892,7 +8922,7 @@
       <c r="Q93" s="1"/>
       <c r="R93" s="1"/>
     </row>
-    <row r="94" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>3</v>
       </c>
@@ -8943,7 +8973,7 @@
       <c r="Q94" s="1"/>
       <c r="R94" s="1"/>
     </row>
-    <row r="95" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>3</v>
       </c>
@@ -8994,7 +9024,7 @@
       <c r="Q95" s="1"/>
       <c r="R95" s="1"/>
     </row>
-    <row r="96" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>3</v>
       </c>
@@ -9045,7 +9075,7 @@
       <c r="Q96" s="1"/>
       <c r="R96" s="1"/>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>4</v>
       </c>
@@ -9096,7 +9126,7 @@
       <c r="Q97" s="1"/>
       <c r="R97" s="1"/>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>4</v>
       </c>
@@ -9147,7 +9177,7 @@
       <c r="Q98" s="1"/>
       <c r="R98" s="1"/>
     </row>
-    <row r="99" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>4</v>
       </c>
@@ -9198,7 +9228,7 @@
       <c r="Q99" s="1"/>
       <c r="R99" s="1"/>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>4</v>
       </c>
@@ -9249,7 +9279,7 @@
       <c r="Q100" s="1"/>
       <c r="R100" s="1"/>
     </row>
-    <row r="101" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>4</v>
       </c>
@@ -9300,7 +9330,7 @@
       <c r="Q101" s="1"/>
       <c r="R101" s="1"/>
     </row>
-    <row r="102" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>1</v>
       </c>
@@ -9351,7 +9381,7 @@
       <c r="Q102" s="1"/>
       <c r="R102" s="1"/>
     </row>
-    <row r="103" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>1</v>
       </c>
@@ -9402,7 +9432,7 @@
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
     </row>
-    <row r="104" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>1</v>
       </c>
@@ -9453,7 +9483,7 @@
       <c r="Q104" s="4"/>
       <c r="R104" s="4"/>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>1</v>
       </c>
@@ -9504,7 +9534,7 @@
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
     </row>
-    <row r="106" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>1</v>
       </c>
@@ -9555,7 +9585,7 @@
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>2</v>
       </c>
@@ -9606,7 +9636,7 @@
       <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>2</v>
       </c>
@@ -9657,7 +9687,7 @@
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
     </row>
-    <row r="109" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>2</v>
       </c>
@@ -9708,7 +9738,7 @@
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
     </row>
-    <row r="110" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -9759,7 +9789,7 @@
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
     </row>
-    <row r="111" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>2</v>
       </c>
@@ -9810,7 +9840,7 @@
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
     </row>
-    <row r="112" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>2</v>
       </c>
@@ -9861,7 +9891,7 @@
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
     </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
         <v>3</v>
       </c>
@@ -9912,7 +9942,7 @@
       <c r="Q113" s="12"/>
       <c r="R113" s="12"/>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="12">
         <v>3</v>
       </c>
@@ -9963,7 +9993,7 @@
       <c r="Q114" s="12"/>
       <c r="R114" s="12"/>
     </row>
-    <row r="115" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>3</v>
       </c>
@@ -10014,7 +10044,7 @@
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
     </row>
-    <row r="116" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>3</v>
       </c>
@@ -10065,7 +10095,7 @@
       <c r="Q116" s="6"/>
       <c r="R116" s="6"/>
     </row>
-    <row r="117" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>3</v>
       </c>
@@ -10116,7 +10146,7 @@
       <c r="Q117" s="3"/>
       <c r="R117" s="3"/>
     </row>
-    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>4</v>
       </c>
@@ -10173,7 +10203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>4</v>
       </c>
@@ -10224,7 +10254,7 @@
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
     </row>
-    <row r="120" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>4</v>
       </c>
@@ -10275,7 +10305,7 @@
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
     </row>
-    <row r="121" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>4</v>
       </c>
@@ -10326,7 +10356,7 @@
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
     </row>
-    <row r="122" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>1</v>
       </c>
@@ -10377,7 +10407,7 @@
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
     </row>
-    <row r="123" spans="1:18" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>1</v>
       </c>
@@ -10428,7 +10458,7 @@
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
     </row>
-    <row r="124" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>1</v>
       </c>
@@ -10479,7 +10509,7 @@
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>2</v>
       </c>
@@ -10530,7 +10560,7 @@
       <c r="Q125" s="3"/>
       <c r="R125" s="3"/>
     </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -10581,7 +10611,7 @@
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
     </row>
-    <row r="127" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -10632,7 +10662,7 @@
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
     </row>
-    <row r="128" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -10683,7 +10713,7 @@
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
     </row>
-    <row r="129" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>2</v>
       </c>
@@ -10734,7 +10764,7 @@
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
     </row>
-    <row r="130" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -10785,7 +10815,7 @@
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
     </row>
-    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>3</v>
       </c>
@@ -10836,7 +10866,7 @@
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
     </row>
-    <row r="132" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A132" s="10">
         <v>3</v>
       </c>
@@ -10887,7 +10917,7 @@
       <c r="Q132" s="10"/>
       <c r="R132" s="10"/>
     </row>
-    <row r="133" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>3</v>
       </c>
@@ -10938,7 +10968,7 @@
       <c r="Q133" s="4"/>
       <c r="R133" s="4"/>
     </row>
-    <row r="134" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>3</v>
       </c>
@@ -10989,7 +11019,7 @@
       <c r="Q134" s="3"/>
       <c r="R134" s="3"/>
     </row>
-    <row r="135" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>3</v>
       </c>
@@ -11040,7 +11070,7 @@
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>4</v>
       </c>
@@ -11091,7 +11121,7 @@
       <c r="Q136" s="2"/>
       <c r="R136" s="2"/>
     </row>
-    <row r="137" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>4</v>
       </c>
@@ -11142,7 +11172,7 @@
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
     </row>
-    <row r="138" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>4</v>
       </c>
@@ -11193,7 +11223,7 @@
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
     </row>
-    <row r="139" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>4</v>
       </c>
@@ -11244,7 +11274,7 @@
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
     </row>
-    <row r="140" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>1</v>
       </c>
@@ -11295,7 +11325,7 @@
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
     </row>
-    <row r="141" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>2</v>
       </c>
@@ -11346,7 +11376,7 @@
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
     </row>
-    <row r="142" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>3</v>
       </c>
@@ -11397,7 +11427,7 @@
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
     </row>
-    <row r="143" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -11448,7 +11478,7 @@
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>1</v>
       </c>
@@ -11499,7 +11529,7 @@
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
     </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>4</v>
       </c>
@@ -11550,7 +11580,7 @@
       <c r="Q145" s="4"/>
       <c r="R145" s="4"/>
     </row>
-    <row r="146" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>2</v>
       </c>
@@ -11601,7 +11631,7 @@
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
     </row>
-    <row r="147" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>1</v>
       </c>
@@ -11652,7 +11682,7 @@
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
     </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>6</v>
       </c>
@@ -11703,7 +11733,7 @@
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
     </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>5</v>
       </c>
@@ -11754,7 +11784,7 @@
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
     </row>
-    <row r="150" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>4</v>
       </c>
@@ -11805,7 +11835,7 @@
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
     </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>1</v>
       </c>
@@ -11856,7 +11886,7 @@
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
     </row>
-    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>4</v>
       </c>
@@ -11913,7 +11943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>3</v>
       </c>
@@ -11964,7 +11994,7 @@
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
     </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>4</v>
       </c>
@@ -12015,7 +12045,7 @@
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
     </row>
-    <row r="155" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>3</v>
       </c>
@@ -12066,7 +12096,7 @@
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
     </row>
-    <row r="156" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>1</v>
       </c>
@@ -12117,7 +12147,7 @@
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
     </row>
-    <row r="157" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>1</v>
       </c>
@@ -12168,7 +12198,7 @@
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
     </row>
-    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>2</v>
       </c>
@@ -12219,7 +12249,7 @@
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
     </row>
-    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>2</v>
       </c>
@@ -12276,7 +12306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>3</v>
       </c>
@@ -12327,7 +12357,7 @@
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
     </row>
-    <row r="161" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>2</v>
       </c>
@@ -12378,7 +12408,7 @@
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
     </row>
-    <row r="162" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>2</v>
       </c>
@@ -12429,7 +12459,7 @@
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
     </row>
-    <row r="163" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>1</v>
       </c>
@@ -12480,7 +12510,7 @@
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
     </row>
-    <row r="164" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>1</v>
       </c>
@@ -12531,7 +12561,7 @@
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
     </row>
-    <row r="165" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>4</v>
       </c>
@@ -12582,7 +12612,7 @@
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
     </row>
-    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>1</v>
       </c>
@@ -12633,7 +12663,7 @@
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
     </row>
-    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>6</v>
       </c>
@@ -12684,7 +12714,7 @@
       <c r="Q167" s="6"/>
       <c r="R167" s="6"/>
     </row>
-    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>3</v>
       </c>
@@ -12735,7 +12765,7 @@
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
     </row>
-    <row r="169" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>4</v>
       </c>
@@ -12786,7 +12816,7 @@
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
     </row>
-    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>6</v>
       </c>
@@ -12843,7 +12873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>3</v>
       </c>
@@ -12894,7 +12924,7 @@
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
     </row>
-    <row r="172" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>3</v>
       </c>
@@ -12945,7 +12975,7 @@
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
     </row>
-    <row r="173" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>3</v>
       </c>
@@ -12996,7 +13026,7 @@
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
     </row>
-    <row r="174" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>3</v>
       </c>
@@ -13047,7 +13077,7 @@
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
     </row>
-    <row r="175" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>3</v>
       </c>
@@ -13098,7 +13128,7 @@
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
     </row>
-    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>4</v>
       </c>
@@ -13149,7 +13179,7 @@
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
     </row>
-    <row r="177" spans="1:18" ht="99" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" ht="99" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>4</v>
       </c>
@@ -13200,7 +13230,7 @@
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
     </row>
-    <row r="178" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>4</v>
       </c>
@@ -13251,7 +13281,7 @@
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
     </row>
-    <row r="179" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>4</v>
       </c>
@@ -13302,7 +13332,7 @@
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
     </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" s="5">
         <v>5</v>
       </c>
@@ -13353,7 +13383,7 @@
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
     </row>
-    <row r="181" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>1</v>
       </c>
@@ -13404,7 +13434,7 @@
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
     </row>
-    <row r="182" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>1</v>
       </c>
@@ -13455,7 +13485,7 @@
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
     </row>
-    <row r="183" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>1</v>
       </c>
@@ -13506,7 +13536,7 @@
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
     </row>
-    <row r="184" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>1</v>
       </c>
@@ -13557,7 +13587,7 @@
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
     </row>
-    <row r="185" spans="1:18" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>1</v>
       </c>
@@ -13608,7 +13638,7 @@
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>2</v>
       </c>
@@ -13659,7 +13689,7 @@
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
     </row>
-    <row r="187" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>2</v>
       </c>
@@ -13710,7 +13740,7 @@
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
     </row>
-    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>2</v>
       </c>
@@ -13761,7 +13791,7 @@
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
     </row>
-    <row r="189" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>2</v>
       </c>
@@ -13812,7 +13842,7 @@
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
     </row>
-    <row r="190" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>2</v>
       </c>
@@ -13863,7 +13893,7 @@
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
     </row>
-    <row r="191" spans="1:18" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>2</v>
       </c>
@@ -13914,7 +13944,7 @@
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
     </row>
-    <row r="192" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>1</v>
       </c>
@@ -13965,7 +13995,7 @@
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
     </row>
-    <row r="193" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>1</v>
       </c>
@@ -14016,7 +14046,7 @@
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
     </row>
-    <row r="194" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>1</v>
       </c>
@@ -14067,7 +14097,7 @@
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
     </row>
-    <row r="195" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>1</v>
       </c>
@@ -14118,7 +14148,7 @@
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
     </row>
-    <row r="196" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>1</v>
       </c>
@@ -14169,7 +14199,7 @@
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
     </row>
-    <row r="197" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>2</v>
       </c>
@@ -14220,7 +14250,7 @@
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
     </row>
-    <row r="198" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>2</v>
       </c>
@@ -14271,7 +14301,7 @@
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
     </row>
-    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>2</v>
       </c>
@@ -14322,7 +14352,7 @@
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
     </row>
-    <row r="200" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>2</v>
       </c>
@@ -14373,7 +14403,7 @@
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
     </row>
-    <row r="201" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>2</v>
       </c>
@@ -14424,7 +14454,7 @@
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
     </row>
-    <row r="202" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>2</v>
       </c>
@@ -15036,7 +15066,7 @@
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214" s="5">
         <v>1</v>
       </c>
@@ -15093,7 +15123,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>1</v>
       </c>
@@ -15144,7 +15174,7 @@
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
     </row>
-    <row r="216" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>1</v>
       </c>
@@ -15195,7 +15225,7 @@
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
     </row>
-    <row r="217" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>1</v>
       </c>
@@ -15246,7 +15276,7 @@
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
     </row>
-    <row r="218" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>1</v>
       </c>
@@ -15297,7 +15327,7 @@
       <c r="Q218" s="1"/>
       <c r="R218" s="1"/>
     </row>
-    <row r="219" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>1</v>
       </c>
@@ -15348,7 +15378,7 @@
       <c r="Q219" s="1"/>
       <c r="R219" s="1"/>
     </row>
-    <row r="220" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>1</v>
       </c>
@@ -15399,7 +15429,7 @@
       <c r="Q220" s="1"/>
       <c r="R220" s="1"/>
     </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>2</v>
       </c>
@@ -15450,7 +15480,7 @@
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
     </row>
-    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>2</v>
       </c>
@@ -15501,7 +15531,7 @@
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
     </row>
-    <row r="223" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>2</v>
       </c>
@@ -15552,7 +15582,7 @@
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
     </row>
-    <row r="224" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>2</v>
       </c>
@@ -15603,7 +15633,7 @@
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
     </row>
-    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>2</v>
       </c>
@@ -15654,7 +15684,7 @@
       <c r="Q225" s="1"/>
       <c r="R225" s="1"/>
     </row>
-    <row r="226" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>2</v>
       </c>
@@ -15705,7 +15735,7 @@
       <c r="Q226" s="1"/>
       <c r="R226" s="1"/>
     </row>
-    <row r="227" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>2</v>
       </c>
@@ -15756,7 +15786,7 @@
       <c r="Q227" s="1"/>
       <c r="R227" s="1"/>
     </row>
-    <row r="228" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>4</v>
       </c>
@@ -15807,7 +15837,7 @@
       <c r="Q228" s="1"/>
       <c r="R228" s="1"/>
     </row>
-    <row r="229" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <v>3</v>
       </c>
@@ -15858,7 +15888,7 @@
       <c r="Q229" s="4"/>
       <c r="R229" s="4"/>
     </row>
-    <row r="230" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>1</v>
       </c>
@@ -15909,7 +15939,7 @@
       <c r="Q230" s="3"/>
       <c r="R230" s="3"/>
     </row>
-    <row r="231" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>2</v>
       </c>
@@ -15960,7 +15990,7 @@
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
     </row>
-    <row r="232" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>1</v>
       </c>
@@ -16011,7 +16041,7 @@
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
     </row>
-    <row r="233" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>1</v>
       </c>
@@ -16062,7 +16092,7 @@
       <c r="Q233" s="1"/>
       <c r="R233" s="1"/>
     </row>
-    <row r="234" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A234" s="4">
         <v>1</v>
       </c>
@@ -16113,7 +16143,7 @@
       <c r="Q234" s="4"/>
       <c r="R234" s="4"/>
     </row>
-    <row r="235" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>2</v>
       </c>
@@ -16164,7 +16194,7 @@
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
     </row>
-    <row r="236" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>2</v>
       </c>
@@ -16215,7 +16245,7 @@
       <c r="Q236" s="1"/>
       <c r="R236" s="1"/>
     </row>
-    <row r="237" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>4</v>
       </c>
@@ -16266,7 +16296,7 @@
       <c r="Q237" s="1"/>
       <c r="R237" s="1"/>
     </row>
-    <row r="238" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>4</v>
       </c>
@@ -16317,7 +16347,7 @@
       <c r="Q238" s="1"/>
       <c r="R238" s="1"/>
     </row>
-    <row r="239" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>3</v>
       </c>
@@ -16368,7 +16398,7 @@
       <c r="Q239" s="6"/>
       <c r="R239" s="6"/>
     </row>
-    <row r="240" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A240" s="5">
         <v>1</v>
       </c>
@@ -16419,7 +16449,7 @@
       <c r="Q240" s="5"/>
       <c r="R240" s="5"/>
     </row>
-    <row r="241" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A241" s="10">
         <v>2</v>
       </c>
@@ -16470,7 +16500,7 @@
       <c r="Q241" s="10"/>
       <c r="R241" s="10"/>
     </row>
-    <row r="242" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>2</v>
       </c>
@@ -16521,7 +16551,7 @@
       <c r="Q242" s="1"/>
       <c r="R242" s="1"/>
     </row>
-    <row r="243" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A243" s="10">
         <v>3</v>
       </c>
@@ -16572,7 +16602,7 @@
       <c r="Q243" s="10"/>
       <c r="R243" s="10"/>
     </row>
-    <row r="244" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>3</v>
       </c>
@@ -16623,7 +16653,7 @@
       <c r="Q244" s="1"/>
       <c r="R244" s="1"/>
     </row>
-    <row r="245" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A245" s="10">
         <v>4</v>
       </c>
@@ -16674,7 +16704,7 @@
       <c r="Q245" s="10"/>
       <c r="R245" s="10"/>
     </row>
-    <row r="246" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>4</v>
       </c>
@@ -16725,7 +16755,7 @@
       <c r="Q246" s="1"/>
       <c r="R246" s="1"/>
     </row>
-    <row r="247" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
         <v>3</v>
       </c>
@@ -16776,7 +16806,7 @@
       <c r="Q247" s="6"/>
       <c r="R247" s="6"/>
     </row>
-    <row r="248" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A248" s="5">
         <v>5</v>
       </c>
@@ -16833,7 +16863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
         <v>3</v>
       </c>
@@ -16890,7 +16920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>3</v>
       </c>
@@ -16947,7 +16977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A251" s="6">
         <v>3</v>
       </c>
@@ -17004,7 +17034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>3</v>
       </c>
@@ -17061,7 +17091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
         <v>3</v>
       </c>
@@ -17118,7 +17148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
         <v>3</v>
       </c>
@@ -17175,7 +17205,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:18" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <v>3</v>
       </c>
@@ -17232,7 +17262,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:18" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" ht="66" x14ac:dyDescent="0.3">
       <c r="A256" s="4">
         <v>3</v>
       </c>
@@ -17289,7 +17319,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A257" s="10">
         <v>1</v>
       </c>
@@ -17346,7 +17376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A258" s="4">
         <v>3</v>
       </c>
@@ -17403,7 +17433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <v>3</v>
       </c>
@@ -17460,7 +17490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>3</v>
       </c>
@@ -17517,7 +17547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="261" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>3</v>
       </c>
@@ -17574,7 +17604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A262" s="12">
         <v>3</v>
       </c>
@@ -17631,7 +17661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A263" s="12">
         <v>3</v>
       </c>
@@ -17688,7 +17718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A264" s="32">
         <v>3</v>
       </c>
@@ -17745,7 +17775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="265" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A265" s="12">
         <v>1</v>
       </c>
@@ -17802,7 +17832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A266" s="6">
         <v>5</v>
       </c>
@@ -17859,7 +17889,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A267" s="6">
         <v>6</v>
       </c>
@@ -17916,7 +17946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="268" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A268" s="5">
         <v>1</v>
       </c>
@@ -17973,7 +18003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A269" s="5">
         <v>1</v>
       </c>
@@ -18030,7 +18060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A270" s="5">
         <v>1</v>
       </c>
@@ -18258,7 +18288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>3</v>
       </c>
@@ -18315,7 +18345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:18" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:18" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>3</v>
       </c>
@@ -18372,7 +18402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="276" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A276" s="6">
         <v>6</v>
       </c>
@@ -18429,7 +18459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A277" s="6">
         <v>4</v>
       </c>
@@ -18486,7 +18516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="278" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A278" s="22">
         <v>3</v>
       </c>
@@ -18543,7 +18573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="279" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A279" s="24">
         <v>3</v>
       </c>
@@ -18600,7 +18630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="280" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A280" s="26">
         <v>4</v>
       </c>
@@ -18657,7 +18687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A281" s="24">
         <v>3</v>
       </c>
@@ -18714,7 +18744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="282" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A282" s="22">
         <v>3</v>
       </c>
@@ -18771,7 +18801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A283" s="28">
         <v>3</v>
       </c>
@@ -18828,7 +18858,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A284" s="30">
         <v>1</v>
       </c>
@@ -18885,7 +18915,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="285" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A285" s="26">
         <v>3</v>
       </c>
@@ -18942,7 +18972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A286" s="32">
         <v>3</v>
       </c>
@@ -18999,7 +19029,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="287" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A287" s="26">
         <v>3</v>
       </c>
@@ -19056,7 +19086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A288" s="30">
         <v>3</v>
       </c>
@@ -19113,7 +19143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="289" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A289" s="30">
         <v>3</v>
       </c>
@@ -19170,7 +19200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A290" s="24">
         <v>3</v>
       </c>
@@ -19227,7 +19257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A291" s="24">
         <v>3</v>
       </c>
@@ -19284,7 +19314,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A292" s="22">
         <v>1</v>
       </c>
@@ -19341,7 +19371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A293" s="24">
         <v>4</v>
       </c>
@@ -19398,7 +19428,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A294" s="22">
         <v>4</v>
       </c>
@@ -19455,7 +19485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A295" s="22">
         <v>1</v>
       </c>
@@ -19512,7 +19542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A296" s="26">
         <v>2</v>
       </c>
@@ -19569,7 +19599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="297" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A297" s="32">
         <v>2</v>
       </c>
@@ -19626,7 +19656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="298" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A298" s="32">
         <v>2</v>
       </c>
@@ -19683,7 +19713,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A299" s="26">
         <v>1</v>
       </c>
@@ -19740,7 +19770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A300" s="28">
         <v>3</v>
       </c>
@@ -19797,7 +19827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A301" s="22">
         <v>3</v>
       </c>
@@ -19854,7 +19884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A302" s="22">
         <v>1</v>
       </c>
@@ -19911,7 +19941,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A303" s="28">
         <v>1</v>
       </c>
@@ -19968,7 +19998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A304" s="30">
         <v>1</v>
       </c>
@@ -20025,7 +20055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="305" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A305" s="24">
         <v>2</v>
       </c>
@@ -20082,7 +20112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A306" s="26">
         <v>2</v>
       </c>
@@ -20139,7 +20169,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A307" s="30">
         <v>2</v>
       </c>
@@ -20196,7 +20226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A308" s="22">
         <v>2</v>
       </c>
@@ -20253,7 +20283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="309" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A309" s="32">
         <v>4</v>
       </c>
@@ -20310,7 +20340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="310" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A310" s="22">
         <v>4</v>
       </c>
@@ -20367,7 +20397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A311" s="32">
         <v>4</v>
       </c>
@@ -20424,7 +20454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A312" s="26">
         <v>4</v>
       </c>
@@ -20481,7 +20511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A313" s="28">
         <v>3</v>
       </c>
@@ -20538,7 +20568,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A314" s="32">
         <v>1</v>
       </c>
@@ -20595,7 +20625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A315" s="22">
         <v>1</v>
       </c>
@@ -20652,7 +20682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="316" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A316" s="24">
         <v>1</v>
       </c>
@@ -20709,7 +20739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A317" s="26">
         <v>3</v>
       </c>
@@ -20766,7 +20796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" spans="1:18" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A318" s="22">
         <v>3</v>
       </c>
@@ -20823,7 +20853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A319" s="26">
         <v>3</v>
       </c>
@@ -20880,7 +20910,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A320" s="28">
         <v>2</v>
       </c>
@@ -20937,7 +20967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A321" s="28">
         <v>4</v>
       </c>
@@ -20994,7 +21024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="322" spans="1:18" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:18" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A322" s="24">
         <v>3</v>
       </c>
@@ -21051,7 +21081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="323" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A323" s="24">
         <v>2</v>
       </c>
@@ -21108,7 +21138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="324" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A324" s="22">
         <v>3</v>
       </c>
@@ -21164,6 +21194,159 @@
       <c r="R324" s="22" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="325" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>2</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E325" s="1">
+        <v>1</v>
+      </c>
+      <c r="F325" s="15" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H325" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I325" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K325" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="L325" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M325" s="22" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N325" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O325" t="s">
+        <v>23</v>
+      </c>
+      <c r="P325" s="1"/>
+      <c r="Q325" s="1"/>
+      <c r="R325" s="1"/>
+    </row>
+    <row r="326" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>1</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E326" s="1">
+        <v>1</v>
+      </c>
+      <c r="F326" s="15" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="K326" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="L326" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M326" s="22" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N326" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O326" t="s">
+        <v>23</v>
+      </c>
+      <c r="P326" s="1"/>
+      <c r="Q326" s="1"/>
+      <c r="R326" s="1"/>
+    </row>
+    <row r="327" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>1</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="E327" s="1">
+        <v>1</v>
+      </c>
+      <c r="F327" s="15" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H327" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="K327" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="L327" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M327" s="22" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>0</v>
+      </c>
+      <c r="N327" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O327" t="s">
+        <v>23</v>
+      </c>
+      <c r="P327" s="1"/>
+      <c r="Q327" s="1"/>
+      <c r="R327" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
